--- a/Batch/15/In_Class/Day_2.xlsx
+++ b/Batch/15/In_Class/Day_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\15\In_Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884EEDA-C001-4E45-8ADE-4074EBCACE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAB5562-EBFD-4027-A419-70B639A51B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A0CDEB45-8854-44CA-B3CA-AC21666B69DE}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A0CDEB45-8854-44CA-B3CA-AC21666B69DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
@@ -11043,8 +11043,8 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 59 8900,'0'0'8351,"0"-8"-6900,0-19 65,0 51 371,0 62-613,1-17-946,2-1 0,23 125 0,-26-190-470,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,0-1 0,-1 1 1,1-1-1,2 3 0,-2-4-267,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1-1-1,0 0 0,0 1 1,2-1-1,15 1-4883</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="763.9">192 125 5859,'0'0'10314,"-5"20"-9130,4-14-1082,-6 24 513,1-1-1,1 1 0,0 41 0,4-65-501,1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,5 12 1,-5-16-94,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0-1 0,0 1-1,1-1 1,-1 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,0 0 0,-1 0-1,6-1 1,-6 1-9,1 0 0,-1 0 0,0-1 0,0 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,-1-1 0,3-2 0,0-1 0,-1 0-1,1 0 1,-1-1-1,0 0 1,0 1-1,3-13 1,-3 9-7,-1 0 0,0 0 1,0 0-1,-1 0 0,0 0 1,-1-1-1,0 1 1,0 0-1,-3-18 0,2 24-3,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-5-1 0,-6 0-9,1 0 1,-1 1-1,-21 0 1,27 1-4,7 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1-1,0 0 1,17 3-385,0-2 0,0 0 0,0-1 0,0-1 0,17-2 0,38-2 124,-72 5 294,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,0 1 0,-1-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 1,0 1-1,6 49 928,-5-42-750,0 6 9,0 1 1,2-1-1,0 0 1,8 21-1,-10-34-182,0 1 0,0-1 0,1 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 1,0-1-1,5 3 0,-5-4-11,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,3-1 0,-2-1-2,0 1 1,0 0 0,0-1-1,0 0 1,-1 1 0,1-1-1,-1 0 1,0 0-1,0 0 1,0-1 0,0 1-1,-1 0 1,0-1 0,1 1-1,0-7 1,11-58 158,-12 61-147,-1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,0 1-1,0 0 0,-4-7 0,3 9-14,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,-1 0 0,0-1 0,1 1-1,-1 1 1,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,1 0 0,-9 0 0,13 1-46,-1-1 0,0 1-1,1 0 1,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 0 0,-1-1 0,1 1-1,-2 1 1,2-1-132,1-1-1,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,2 1 1,7 6-4830,9-7-3142</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1066.11">777 36 11925,'0'0'9872,"0"-1"-9826,0 1 1,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,0 0 1,0-1 0,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,-1-1 0,1 1 0,-1 0 0,-1 3 9,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,1 1-1,-2 4 0,1-2 18,-21 48 389,3 1 0,2 0 0,-19 100 0,31-123-439,-1 4-398,6-12-4175</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1268.37">480 9 12662,'0'0'8548,"4"-9"-8548,26 29 0,-1 8-368,5 2-1633,0 4-1249,0-1-1504</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1066.1">777 36 11925,'0'0'9872,"0"-1"-9826,0 1 1,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,-1-1 0,1 1-1,0 0 1,0-1 0,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,-1-1 0,1 1 0,-1 0 0,-1 3 9,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,1 1-1,-2 4 0,1-2 18,-21 48 389,3 1 0,2 0 0,-19 100 0,31-123-439,-1 4-398,6-12-4175</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1268.36">480 9 12662,'0'0'8548,"4"-9"-8548,26 29 0,-1 8-368,5 2-1633,0 4-1249,0-1-1504</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1439.23">892 392 8308,'0'0'15879,"5"6"-15399,-5-1-688,-19 1-1809,-6 5-6643</inkml:trace>
 </inkml:ink>
 </file>
@@ -11074,8 +11074,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">190 56 9396,'0'0'9968,"-11"-2"-8979,0 0-882,7 1-31,-1 0 0,1-1-1,-1 2 1,1-1 0,-1 0-1,0 1 1,1 0 0,-1 0-1,0 0 1,1 1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 1 0,-1-1-1,1 1 1,0 0 0,0 1-1,0-1 1,0 1 0,0 0-1,1 0 1,-6 5 0,3-1-33,1 1 0,-1 0 1,1 1-1,1-1 1,0 1-1,0 0 1,1 0-1,0 0 0,-2 14 1,1 1 102,1 0 0,1 38 0,2-61-142,1 0 0,-1 1 1,0-1-1,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,2 1 0,2 0 4,-1 0 1,0 0-1,0-1 0,1 1 1,-1-1-1,1 0 0,6 1 1,-5-2-4,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,0-2 0,1 1 0,-1 0 1,0-1-1,0 0 0,6-3 0,-7 1 2,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-9 0,0 0 15,-1 0 0,-1 0 1,0 0-1,-2-18 1,1 28-14,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1-1,-1 0 1,1 0 0,0 0 0,-1 0 0,-4-2 0,1 1-19,1 0 1,-1 1-1,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 2-1,-12-2 1,18 3-64,-1-1 0,0 0 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1 0-1,-1-1 0,1 1 1,-1 0-1,0-1 1,1 1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 1 1,0 0-231,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,2 1 1,22 8-5009</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="331.42">522 0 8548,'0'0'10909,"-2"4"-10135,-54 117 1372,-38 93-248,89-201-2298,-2 5 886,5-4-9720</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="530.8">296 39 10997,'0'0'10949,"-19"-22"-10949,23 25-608,16 16-113,-1 6-1279,1 9-1602,-1-1-3361</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="331.41">522 0 8548,'0'0'10909,"-2"4"-10135,-54 117 1372,-38 93-248,89-201-2298,-2 5 886,5-4-9720</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="530.79">296 39 10997,'0'0'10949,"-19"-22"-10949,23 25-608,16 16-113,-1 6-1279,1 9-1602,-1-1-3361</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="724.24">588 359 11589,'0'0'11157,"5"0"-11157</inkml:trace>
 </inkml:ink>
 </file>
@@ -11171,7 +11171,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">89 256 2257,'0'0'17856,"0"-7"-17117,0-23 56,0 23 1678,-6 22-2385,5-14-87,-18 30 90,-24 58-1,39-79-92,1 1 0,-1 0 0,2 0-1,-1 0 1,2 0 0,-1 0 0,1 0 0,1 0-1,0 1 1,2 11 0,-1-21-16,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,3-1 0,4 1-40,0-1 1,0 0-1,-1 0 1,1-1 0,-1 0-1,15-6 1,-14 4 38,0 0 1,-1-1-1,0-1 0,0 1 1,0-1-1,0-1 1,-1 1-1,0-1 1,0-1-1,-1 1 1,0-1-1,0 0 1,-1 0-1,7-14 0,-10 15 29,1 1-1,-1 0 0,-1-1 0,1 0 0,-1 1 1,0-1-1,0 0 0,-1 1 0,0-1 0,0 0 1,-1 0-1,0 1 0,0-1 0,0 0 0,-1 1 1,0-1-1,0 1 0,-1 0 0,0 0 0,0 0 1,0 0-1,-5-7 0,2 6 35,0 0 0,0 1 1,0-1-1,-1 1 0,0 1 0,0-1 0,0 1 0,-1 0 1,0 1-1,0 0 0,-14-5 0,18 7-34,0 1 0,0-1 1,0 1-1,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0 0 0,0-1 0,0 2 0,0-1 0,0 0 0,0 1 1,1-1-1,-1 1 0,0 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0 0 1,-4 5-1,5-5-171,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,1 0-1,0 1 1,0-1-1,1 4 1,7 19-8934,5-17 1023</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="204.81">427 292 11317,'0'0'11237</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.93">659 153 12294,'0'0'8601,"-10"3"-8108,-33 8-76,41-10-387,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 4 0,5 39 97,-1-39-114,0 1 0,1 0 1,0-1-1,1 0 0,-1 0 1,1-1-1,0 1 0,0-1 0,1-1 1,0 1-1,0-1 0,8 4 1,-3-1 48,-1 0 1,0 1 0,0 0-1,14 14 1,-23-19-49,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 1,-1 3-1,0-2 21,-1 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,-1 1 1,0-1-1,0 0 0,0-1 0,-1 1 0,1-1 0,-7 3 0,-29 13-1389,38-18 943,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1-1 0,0 1 0,-4-2 0,-4-11-4666,5-17-2932</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.92">659 153 12294,'0'0'8601,"-10"3"-8108,-33 8-76,41-10-387,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 4 0,5 39 97,-1-39-114,0 1 0,1 0 1,0-1-1,1 0 0,-1 0 1,1-1-1,0 1 0,0-1 0,1-1 1,0 1-1,0-1 0,8 4 1,-3-1 48,-1 0 1,0 1 0,0 0-1,14 14 1,-23-19-49,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 1,-1 3-1,0-2 21,-1 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,-1 1 1,0-1-1,0 0 0,0-1 0,-1 1 0,1-1 0,-7 3 0,-29 13-1389,38-18 943,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1-1 0,0 1 0,-4-2 0,-4-11-4666,5-17-2932</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="764.16">611 159 8900,'0'0'12966,"107"-103"-12470,-73 83-256,5 4-176,-5 4-48,-5 4-32,-9 8-480,-15 0-1649,-5 20-3569,-5 10-625</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1465.26">489 467 4914,'0'0'13857,"-14"-14"-8530,3 6-5177,7 8-145,1-1 0,0 1 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 1-1,1-1 1,0 1 0,0 0 0,-4 2-1,6-3-11,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 2 0,0-4-97,1 0-502,0 0 607,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1 0-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,0 0 1,0 0-1,4-25 438,21 26-5109,-6 0 1056,5 0-710</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1809.08">1205 234 12438,'0'0'10372,"-13"0"-9657,58-2-5,48-9 0,-24 3-1978,-1 4-6522,-62 4 371</inkml:trace>
@@ -11208,7 +11208,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="400.9">461 357 13830,'0'0'7873,"0"0"-7782,1 0-1,0 1 1,-1-1 0,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,-2-12-95,-2 13 357,-5 23 287,1 14-1983,8-9-4255</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="761.95">631 201 13510,'0'0'7708,"4"-5"-7639,-1 1-56,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,8-1 0,1 0 62,0 0 0,0 2 0,0-1 0,15 2 0,-25 0-54,-1 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 1,0 5-1,9 71 419,-10-74-406,2 22 61,-2 0-1,-1 1 1,-2-1 0,0 0-1,-1-1 1,-2 1 0,-11 33-1,6-13-2265,10-44 2039,1-1-1,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 1,0 0-1,1 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0-1 0,1 2 0,25-1-5608,6-1-3583</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1069.32">1015 243 6979,'0'0'13796,"-10"-12"-12857,-29-34-421,39 45-512,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 1,1-1-1,-3 24-3,2-24 20,0 8-15,-1-1 1,1 0 0,0 0-1,1 0 1,0 0 0,0 0-1,1 0 1,-1-1 0,2 1-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 0 0,9 11-1,59 56 44,-46-49 81,30 37 0,-44-36 290,-12-13-1977,-10-7-5303,-7-5 857</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1244.15">985 204 12054,'0'0'8868,"137"-95"-8660,-108 92-160,5 0-48,0 3-352,-5 0-1649,1 3-1809,-6 11-3489</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1244.14">985 204 12054,'0'0'8868,"137"-95"-8660,-108 92-160,5 0-48,0 3-352,-5 0-1649,1 3-1809,-6 11-3489</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1474.31">1404 297 14070,'0'0'8260,"30"0"-8004,-1-2-96,0-4-160,0-2 0,1-1-32,-6 4-832,-5 2-1201,-4 3-608,-20 11-10341</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1642.77">1404 284 4274,'49'56'3538,"-68"-45"-625,4-5-64,5-1-1024,5-5 2593,25 0-4322,4-8 144,10-6-48,5-5-192,5 2-544,-5 0-1169,0 1-624,-5-4-512,-14 3-4354</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1956.99">1484 0 3265,'0'0'16331,"-6"1"-15590,5-1-738,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,8 11 5,47 19 15,-27-17 62,-25-12-91,28 13 169,-2 3 1,0 0-1,-2 1 0,39 36 1,-59-49-66,-1 1 1,1 0 0,-1 0 0,0 0 0,-1 0-1,1 1 1,-1 0 0,-1 0 0,5 15 0,-7-17-39,0 1 1,0-1 0,-1 0 0,1 1 0,-1-1 0,-1 0-1,0 1 1,1-1 0,-2 0 0,1 0 0,-1 0 0,0 1-1,0-2 1,-1 1 0,-3 6 0,-91 145-364,58-94-5360,15-34-579</inkml:trace>
@@ -11422,7 +11422,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">278 112 8244,'0'0'5557,"-10"17"-4541,2-2-775,-67 126 2386,14-25-310,39-77-1978,2 0-1,-27 73 1,42-82-1826,4-9-2955,1-20 3981,0 6-4306</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="309.4">0 263 8852,'0'0'9196,"6"5"-8937,9 10 107,0 1-1,-1 1 1,-1 1-1,0 0 1,17 35-1,48 116 1175,-38-77-911,-31-65-572,-7-22-210,-1 0 0,0 0 0,1 1 0,0-2 0,0 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,1-1 0,5 7 0,-1-10-3220,5-1-2106</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="309.39">0 263 8852,'0'0'9196,"6"5"-8937,9 10 107,0 1-1,-1 1 1,-1 1-1,0 0 1,17 35-1,48 116 1175,-38-77-911,-31-65-572,-7-22-210,-1 0 0,0 0 0,1 1 0,0-2 0,0 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,1-1 0,5 7 0,-1-10-3220,5-1-2106</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="676.9">644 246 10549,'0'0'11034,"0"5"-10786,0 443 3698,-1-446-4024,1 0 0,0 1 0,0-1-1,0 0 1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,3 3 0,-2-4-453,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1-1-1,1 1 1,0-1 0,0 0-1,0 0 1,5 0-1,19 0-5593</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1133.49">973 384 4594,'0'0'16173,"-1"-4"-15101,1 4-1040,-1 0-1,1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,-1-1-1,1 1 0,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1-1-1,1 1 0,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,-1 1 0,-22 34 856,-13 54-105,32-75-734,1 0-1,1 0 0,0 0 1,0 1-1,2-1 0,-1 1 1,4 22-1,-2-32-45,0 0 0,0 0-1,0 0 1,1 0 0,0 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,6 6 0,-6-9-8,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,1 1 0,-1-1 0,4 0 0,0-1-27,0 1 0,0-1 0,0-1-1,0 1 1,0-1 0,-1 0-1,1-1 1,-1 0 0,1 0 0,-1 0-1,0-1 1,0 0 0,-1 0 0,1 0-1,-1-1 1,0 0 0,0 0 0,0 0-1,-1 0 1,0-1 0,0 0 0,0 0-1,-1 0 1,4-9 0,0 0-28,-1 0 0,0 0 0,-2-1 0,0 0 0,0 0 0,-1-1 0,-1 1 1,-1 0-1,-1-25 0,0 36 61,-1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,0 1 0,1-1 1,-2 0-1,1 1 0,0-1 0,-1 1 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 1-1,-1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,-7-2 0,2 0-34,0 2 0,0-1 0,0 2 0,-1-1 0,1 1 0,-1 0 0,1 1 0,-1 0 0,1 1 0,-1 0 0,-9 1 0,14 0-218,0 0 1,0 1 0,0-1-1,0 1 1,1 0 0,-1 0-1,1 0 1,0 1 0,-1 0-1,1 0 1,-6 6 0,-22 23-7549,16-12-1401</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8893.14">1363 48 7860,'0'0'7715,"-11"-2"708,22-4-8416,0-1 0,1 2 0,-1 0 0,1 0 1,1 1-1,-1 0 0,0 1 0,1 1 0,23-2 1,-35 4-13,-1 1 0,1 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 2 1,1 38-76,0-32 81,-1 2 9,-1 0 1,0 0-1,0 0 1,-1 0-1,-1 0 1,0 0-1,0 0 1,-1-1-1,0 0 1,-1 0-1,-7 9 1,1 1 47,12-19-66,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 1,1 0-1,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,24 1-69,-23-1 46,90 7-766,-85-6 725,1 0-1,-1 0 1,0 1 0,0 0-1,0 1 1,-1 0 0,1 0-1,0 0 1,-1 1-1,8 5 1,-13-8 71,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 1 0,0 2 0,-1-1 42,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0 0 1,-1-1-1,1 0 0,-5 4 1,-6 3 221,0 0 1,0-1-1,-28 12 1,21-11-54,-1-2-1,1-1 1,-1-1 0,-1 0-1,-38 3 1,-52-5-2317,101-7-3239,10-3 300</inkml:trace>
@@ -11555,11 +11555,11 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32090.36">4284 1805 6243,'0'0'16394,"2"4"-16167,2 2-120,-2-2-35,-1 0 0,1 0-1,0 0 1,0 0-1,1-1 1,-1 1-1,1-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0-1,-1-1 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0-1 1,0 0 0,0 0-1,7 1 1,-9-2-62,1-1 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,0-1 1,0 0 0,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0-1,1-3 1,1-2 1,0 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0-10 0,1 14-60,3 10-32,3 9-46,6 37 348,-2 0 0,-3 0 0,-2 1 0,-1 92 0,-6-145-178,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,-2-1-1,0 1 0,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0-1-1,1 0 0,-1 0 1,-2-2-1,3 0-75,-1 0 1,1 0-1,0-1 0,1 1 0,-1 0 1,1-1-1,0 0 0,0 1 0,0-1 1,1 1-1,-1-1 0,1 0 1,0 0-1,1 1 0,-1-1 0,1 0 1,0 1-1,0-1 0,0 1 1,1-1-1,-1 1 0,1 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,1 1 1,-1 0-1,1-1 0,3-2 0,10-6-463,0 1 0,1 0 0,0 1 0,1 1 0,28-10-1,3 4-3029,2 5-3702,-37 7-1379</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34059.28">322 2329 9220,'0'0'9933,"-21"-3"-4529,8-2-4931,6-2-423,1 1 1,-1 0-1,-1 0 0,1 0 1,-1 1-1,1 0 0,-2 0 1,1 1-1,0 0 0,-1 1 1,-13-4-1,3 2-16,-1 2 0,0 0 0,0 1 0,-24 1 0,42 1-38,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 3 0,-2 4-34,1-1-1,0 1 1,0 0 0,1 0-1,0 16 1,1-23 33,1 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,2 0-1,66 3-454,-56-3 254,-9 0 121,1 0 0,-1 0 1,0-1-1,1 1 0,-1-1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-2 0,0 1 0,-1 0 1,1-1-1,-1 0 0,7-5 0,-7 4 3,0-1-1,0 0 1,0 0 0,0-1 0,-1 1-1,0-1 1,0 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,1-12 0,1-10 7,-1 0 0,-2-1 0,-3-30 0,1 6 2146,1 64-1711,0 20-200,-1 7 560,7 59 0,-4-87-1060,-1 0 0,1-1-1,1 1 1,0 0 0,0-1 0,1 0 0,0 0 0,0 0 0,1 0 0,1 0 0,6 8 0,4-4-4406,7-6-1793</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34550.21">549 2317 3153,'0'0'17328,"-9"-6"-16135,8 5-1190,-4-3 171,-1 0 1,-1 0-1,1 0 0,-1 1 1,1 0-1,-10-3 1,14 5-138,1 1-1,-1 0 1,0-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,0 0-1,1 1 1,-1 0 0,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,1 0 0,-1 0 0,1-1-1,-1 3 1,-1 2 8,0 0 0,0 0-1,1 0 1,0 1 0,0-1-1,0 8 1,1-12-43,0-1 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 1 0,0-1-1,-1-1 1,1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,2-1 0,2 2-23,0-2 0,0 1 1,0-1-1,-1 1 0,1-1 1,0-1-1,-1 1 1,1-1-1,-1 1 0,1-2 1,-1 1-1,0 0 0,0-1 1,0 1-1,0-1 1,0 0-1,0-1 0,-1 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 1,-1 0-1,1 0 0,-1-1 1,0 1-1,-1-1 0,1 1 1,1-8-1,2-13 20,-1 0-1,-1-1 1,-1 1 0,-3-41 0,1 38 25,0 31 108,0 13 183,1 1 0,0 0 0,2-1 0,5 24 0,-7-35-410,0 1 0,1-1-1,0 0 1,0 0 0,0 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0-1-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,1 0 0,0 0-1,0 0 1,-1 0 0,2-1 0,-1 0-1,6 2 1,3-1-1801,0-1 0,0-1-1,25-1 1,-23 0-118,18 0-4280</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35004.69">919 2225 4290,'0'0'16397,"-11"-6"-15181,-37-18-455,47 23-733,0 1 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,1 0 1,-2 2-1,-16 28 550,15-25-410,0 1-103,1 0 1,-1 0-1,1 0 1,0 0-1,1 0 1,0 0-1,0 0 1,0 0-1,1 1 1,1 7-1,-1-14-60,1 0 0,-1-1-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,28-4 65,-22 2-63,-1-1 1,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1-1,-1 0 1,1-1 0,-1 1 0,-1-1 0,1 0 0,-1 0 0,5-10 0,1-6-18,0 0 1,-2 0-1,7-35 1,-10 30-23,-1-1 0,-1 1 0,-2-29 0,0 30-75,-5 8 92,2 14-40,1 12-171,2 22 140,-1-6 152,1 0 0,1 0 1,1 0-1,1 0 1,1 0-1,12 41 0,-7-43 169,1 0 0,0 0-1,21 29 1,10-2-1601,-32-41-731,0 0 1,0-1-1,17 10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35004.68">919 2225 4290,'0'0'16397,"-11"-6"-15181,-37-18-455,47 23-733,0 1 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,1 0 1,-2 2-1,-16 28 550,15-25-410,0 1-103,1 0 1,-1 0-1,1 0 1,0 0-1,1 0 1,0 0-1,0 0 1,0 0-1,1 1 1,1 7-1,-1-14-60,1 0 0,-1-1-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,28-4 65,-22 2-63,-1-1 1,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1-1,-1 0 1,1-1 0,-1 1 0,-1-1 0,1 0 0,-1 0 0,5-10 0,1-6-18,0 0 1,-2 0-1,7-35 1,-10 30-23,-1-1 0,-1 1 0,-2-29 0,0 30-75,-5 8 92,2 14-40,1 12-171,2 22 140,-1-6 152,1 0 0,1 0 1,1 0-1,1 0 1,1 0-1,12 41 0,-7-43 169,1 0 0,0 0-1,21 29 1,10-2-1601,-32-41-731,0 0 1,0-1-1,17 10 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36261.37">520 2699 6019,'0'0'15332,"-34"-11"-12605,24 8-2654,0 2-1,-1-1 1,1 2 0,0-1 0,0 1 0,-1 1 0,1 0 0,0 0-1,-17 5 1,21-4-64,1 0-1,0 1 1,0-1 0,0 1-1,0 1 1,0-1-1,0 1 1,1-1-1,0 1 1,0 0-1,0 1 1,0-1-1,1 1 1,0 0 0,0 0-1,0 0 1,0 0-1,-2 8 1,3-8 2,0 1 0,0-1 0,0 1 0,1-1 0,0 1 0,0 0 0,1 0-1,0 0 1,0 6 0,0-11-6,0 1 0,0-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,2 0-1,4 0-42,0-1 0,0 1 0,-1-1 0,1-1 0,0 1 0,-1-1 0,1-1 0,-1 1 0,1-1 0,-1-1 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,0-1 0,0-1 0,7-11 0,-4 3-3,-1 0 0,-1 0 0,0-1 0,-1 1 1,-1-1-1,-1 0 0,0 0 0,0-1 1,-2 1-1,0-19 0,-2 25-39,0-13 739,3 20-61,3 13 103,4 11-505,-2 1 0,5 27 0,-10-34-209,2-1-1,-1 1 1,2-1-1,0 0 1,1-1-1,0 1 1,1-1-1,15 23 1,-13-25-773,1 0 1,0 0-1,16 12 0,-20-19-419,0 0-1,0-1 1,0 1-1,0-1 1,11 3 0,12 3-6636</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36791.37">1027 2827 12294,'0'0'11015,"-7"-4"-10318,0 1-550,0 0 0,0 0 1,-1 1-1,1 0 0,-1 0 1,1 1-1,-1 0 0,-13-1 1,17 2-111,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 1,0-1-1,-1 1 0,1 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,0 1 0,0-1 0,0 1 0,-2 4 0,3-5-39,0-1 0,0 1 0,0-1-1,1 1 1,-1 0 0,0-1 0,1 1-1,0 0 1,-1-1 0,1 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,1-1-1,-1 1 1,1-1 0,0 1 0,-1 0-1,3 2 1,-1-3-6,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 1,0 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,4-1 1,1 1-40,1-1 0,0 0 1,0 0-1,-1-1 1,1 0-1,-1-1 1,0 0-1,0 0 1,0 0-1,12-8 1,-13 4 12,0 0 0,0-1 0,0 0 0,-1 0 0,0 0 1,-1 0-1,0-1 0,0 0 0,0 0 0,-2 0 0,1 0 0,-1-1 1,0 1-1,0-16 0,0 0 40,-1 1 1,-2-1 0,0 1-1,-8-39 1,5 54 582,1 23-477,1 23-63,3-23 8,-1 1-1,2-1 1,0 1 0,1-1 0,0 1 0,1-1 0,1-1 0,0 1 0,12 22 0,-12-29-261,-1 1-1,2-1 0,-1 0 0,1 0 1,0-1-1,0 0 0,11 8 0,-11-10-388,0 0-1,0 0 0,0-1 1,1 0-1,0 0 1,-1-1-1,1 1 0,0-2 1,0 1-1,8 0 0,57 1-10360,-38-3 8166</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37237.57">1365 2825 3666,'0'0'15583,"-4"-16"-13694,-11-49-334,15 64-1506,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,-3 1 0,-29 19 498,24-11-398,0 0-1,0 1 0,1 0 0,0 0 0,-8 16 1,14-21-129,-1 0 1,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 1 0,0-1 0,0 1 0,1-1 0,2 10 0,-3-14-23,1 0-1,0 0 0,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0-1 1,1 1-1,28-3-134,-24 1 100,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,3-8 0,1-1-66,-1 1 0,-1-1 0,0 0 0,7-27 0,-4 10 112,-2-1-1,-1 0 1,-2-1-1,0 1 0,-3-1 1,-2-45-1,-4 145 830,4-30-739,0-16 15,1 0 1,0 0-1,2 0 0,0 0 0,7 22 0,-8-40-206,0 1 1,1 0-1,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,2 0 0,-1-1 0,0 1 1,1-1-1,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,1 0 0,0 0 0,-1-1 1,1 1-1,0-1 0,0 0 0,-1-1 0,8 1 0,3 0-1574,0 0 0,0-1 0,0-1 0,0 0 0,0-1 1,15-5-1,10-8-6554</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37669.69">1759 2729 9748,'0'0'13132,"-20"-5"-12174,-64-11-270,81 16-649,1 0 0,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-3 3 0,-17 37 497,18-32-426,0-3-81,0 1-1,1-1 0,0 1 1,1 0-1,0 0 0,0 0 0,0 0 1,1 0-1,0 0 0,1-1 1,0 1-1,2 10 0,-2-17-27,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1-1 0,3 0-1,1 0-21,0-1-1,0 1 0,1-1 0,-1 0 0,0-1 0,8-5 0,-4 0 15,1-1 0,-2-1 0,1 0 0,-1 0 0,-1 0 0,0-1 1,0-1-1,-1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,-1-1 0,4-21 1,-2-7-99,-2 0 0,-1 0 0,-6-53 0,4 93 103,-4-41-96,3 40 98,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,-2-2-1,3 4 84,1 17-11,1 18 46,2 0 1,2 0-1,1 0 0,1-1 0,2 0 0,2 0 0,1-1 1,1 0-1,23 38 0,-34-66-115,1 0 1,0-1-1,0 1 0,1-1 1,-1 0-1,1 0 0,0 0 1,0-1-1,0 1 0,0-1 1,6 3-1,18 1-3274,-22-7-1672</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37669.68">1759 2729 9748,'0'0'13132,"-20"-5"-12174,-64-11-270,81 16-649,1 0 0,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-3 3 0,-17 37 497,18-32-426,0-3-81,0 1-1,1-1 0,0 1 1,1 0-1,0 0 0,0 0 0,0 0 1,1 0-1,0 0 0,1-1 1,0 1-1,2 10 0,-2-17-27,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1-1 0,3 0-1,1 0-21,0-1-1,0 1 0,1-1 0,-1 0 0,0-1 0,8-5 0,-4 0 15,1-1 0,-2-1 0,1 0 0,-1 0 0,-1 0 0,0-1 1,0-1-1,-1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,-1-1 0,4-21 1,-2-7-99,-2 0 0,-1 0 0,-6-53 0,4 93 103,-4-41-96,3 40 98,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,-2-2-1,3 4 84,1 17-11,1 18 46,2 0 1,2 0-1,1 0 0,1-1 0,2 0 0,2 0 0,1-1 1,1 0-1,23 38 0,-34-66-115,1 0 1,0-1-1,0 1 0,1-1 1,-1 0-1,1 0 0,0 0 1,0-1-1,0 1 0,0-1 1,6 3-1,18 1-3274,-22-7-1672</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11624,49 +11624,49 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 308 9941,'0'0'8921,"0"0"-8770,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,42-3-25,0-1 0,0-2 0,43-11 0,-18 5-24,-66 11-52,-5-4-223,0 1 48,0-1-1,0 0 1,-1 1 0,1 0 0,-1 0-1,0 1 1,-8-4 0,5 1 31,-9-6 96,14 8 20,1 1 0,-1 0-1,0 0 1,1 0 0,-1 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,-5-1 0,7 2 164,27 0-679,-1 0 490,-1 1 0,26 5 1,-43-5-6,-1 0 0,0 1 1,1-1-1,-1 1 1,0 1-1,0-1 0,0 1 1,-1 0-1,1 0 1,-1 1-1,0 0 0,1 0 1,4 5-1,-9-7 11,0 0-1,0-1 1,0 1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,-1 1 1,-1 2 0,-3 2 44,1 0 0,-1 0 0,0 0 0,0 0 0,-1-1 0,-8 5 1,11-6-562,26-6-15919</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.31">734 158 11925,'0'0'9597,"-5"-2"-8789,-12-3-592,20 1-43,34 1 45,-3 0-168,43-9-269,-42 5-352,0 2 0,38-1 0,-77 13-5458,-8 4 2320</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.41">881 162 3698,'0'0'16234,"0"6"-15570,3 156 1582,1 3-4703,-4-154-2961</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1004.61">984 397 14231,'0'0'7504,"3"0"-7402,8-1 6,-1 0 1,1 0 0,0-1 0,-1 0 0,16-6 0,-22 7-92,0 0 0,0-1 0,0 1 1,0-1-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1-1 1,4-6-1,-6 9-12,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,-1 0 0,-3-1 15,1 1 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 1 1,0-1 0,0 1 0,0 1-1,1-1 1,-5 3 0,5-1 4,-1-1 1,1 1 0,0 0-1,0 1 1,1-1 0,0 0-1,-1 1 1,1-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,1 0 1,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,1 8-1,0-11-30,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,3-1-1,62-1-1308,-64 2 1139,14-3-1865,1 0 0,-1-1 0,18-7 0,8-3-6534</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1426.52">1390 296 9652,'0'0'13028,"-4"0"-12607,2 0-408,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1-1,-1 0 1,1 0 0,-1-1-1,1 1 1,0 0 0,0 0-1,-1 0 1,1 0 0,-1 2-1,-27 36 270,-17 53-2,43-84-300,-7 13-1743,18-65-10958,0 13 13199,-2 2 67,0 8 1051,-4 0 5176,12 30-4560,7 40-1104,-19-41-1009,1 0 0,0-1 1,0 0-1,1 0 0,0 0 0,5 7 0,-7-12-157,0 1 0,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 0 0,0 1-1,5-2 1,-3 1-737,1 0 0,0-1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,1 1 1,-2-1-1,1 0 0,0 0 0,4-5 0,17-12-6371</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1688.34">1567 239 368,'0'0'7041,"0"-16"-4541,0-77 361,0 68 6096,-1 86-8502,0 55 212,2-103-596,0 0 1,1 0-1,1 0 1,0 0-1,1 0 1,7 17-1,-10-28-121,0-1-1,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 1,0 1-1,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 0,0-1 0,1 1 0,3-1 0,27-2-5115,-15-8-408</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1881.38">1571 274 13782,'0'0'8948,"10"-10"-9156,15 6 96,11-4 80,3 0-1040,-4-2-481,1 1-688,-5 3-928,-9 2-5235</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3115.05">33 824 10501,'0'0'13791,"9"-2"-13909,289 4 334,-297-2-296,-12-14-617,-5 5 717,-1 0-1,-36-13 0,48 20 49,1 1 65,4 1-221,11 4-65,-1 0 1,1 1-1,-1 0 0,19 13 0,7 3 34,-32-19 76,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 1 0,5 5 0,-9-8 43,1 0 0,0-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,-12 5 65,0 0 0,0-1 0,-1-1 0,1 0 0,-23 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3729.15">877 801 6067,'0'0'15508,"3"13"-15249,5 218 1312,-8-255-1611,-1-17-45,3 0-1,7-52 1,-9 93 90,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,11 11 45,9 22-83,-17-29 72,2 5-26,8 15 90,1-1-1,1-1 1,1 0 0,1-1-1,0-1 1,42 36-1,-51-52-288</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3973.93">1111 773 11109,'0'0'8153,"3"11"-7686,2 29 520,-1 1 0,-2 0 1,-4 48-1,1-16-2105,1-73 888,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 0 1,1 1 0,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1-1 0,2 1-438,14-2-6766</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4290.72">1221 929 880,'0'0'18830,"0"7"-17061,0-1-1634,0 0 0,1 0 0,-1 0 0,1 0-1,1 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,5 9 0,-5-13-126,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,1-1 1,-1 1 0,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,0 1 1,1-1 0,-1 0-1,4-1 1,-4 1 4,0 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0-1,-2-1 1,1-2 2,-1 1 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-7-4 0,8 6-23,-1 0 0,0-1 0,0 1-1,0 0 1,0 1 0,0-1 0,-1 0-1,1 1 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1-1,0 0 1,0-1 0,0 1 0,-5 3-1,6-3-274,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 2 0,1 9-5767</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5943.15">2202 903 12870,'0'0'10263,"0"-1"-10212,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,2 0 0,54 0-25,335-12-775,-390 12 1174,4-1-2203,-5 1 1630,1 0 0,-1 0 1,0 0-1,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6191.77">2561 814 9780,'0'0'12187,"-4"-2"-11749,-2-5-532,12 6 48,29 7 45,-17-1 1,0 0 0,27 13 0,-44-17-13,1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0-1 0,0 1 0,1 0-1,-1 0 1,0-1 0,0 1 0,0 2-1,-1-2 17,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,-1 1 0,-7 7 43,-1-1 0,1-1-1,-1 0 1,-1 0 0,-10 5 0,-19 14-308,29-7-4941</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6467.83">2997 822 13750,'0'0'7572,"0"16"-7556,0 7 192,0 5-96,0-2 128,0-1-192,0 1 96,0-6-64,0 2-80,0-3-208,0-3-2337,0-4-2786</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7171.03">2999 790 14359,'0'0'6811,"14"-11"-6673,46-34 140,-58 43-255,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,1 1 0,-1 0-1,0-1 1,1 1-1,-1 0 1,0 0-1,4 1 1,-5-1-6,1 1 1,-1-1 0,0 1-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 3 1,0 1 42,0 0-1,0 1 1,0-1 0,-1 1-1,0-1 1,0 1 0,0-1-1,-1 0 1,0 1 0,-2 9 0,-1-7-30,0 0 1,-1 0 0,1-1-1,-1 1 1,-1-1 0,0 0-1,0 0 1,0-1-1,0 0 1,-1 0 0,0 0-1,-1-1 1,1 0 0,-9 4-1,17-12-153,9 13-113,-3 0 260,1 0 0,-1 0 0,1-1 0,1 0 0,0 0 0,0-1 0,1 0 0,12 7 0,-16-11-20,0-1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,9-2 0,-13 2-12,1 0 0,-1 0-1,1 0 1,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1-1,0 0 1,0 1 0,1-5 0,0-6-106,0 1-1,-1-1 1,-1 1-1,0-14 1,-1 6-104,1 20 115,0 34-255,0 58 600,0-91-320,1-1 1,-1 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,0-1 0,1 1-1,-1-1 1,0 0 0,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1-1-1,2 1 1,10-2-6294,-1-5-4078</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7328.08">3394 755 14871,'0'0'8388,"-4"-14"-10325,4 28-1361,0 2-3601</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8535.74">3549 911 6547,'0'0'14673,"-7"-5"-14006,3 3-617,1-1 1,-1 1-1,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,-1 0 1,1 0-1,-7 0 0,9 1-34,-1 0-1,1 1 1,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-2 5 0,2-5-18,0-1-1,0 1 0,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,1 1 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,1 2-1,1-2-54,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 0 0,0 1 0,1-1 0,3-1 0,-6 1 91,1-1-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,-1-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0-1-1,5-17 944,-4 19-839,0 4-152,1-1-1,0 1 0,-1-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 7 0,-1-8 18,12 49 45,-3 1 0,-2 0 0,-2 0 0,-2 60 0,-4-107-32,1-1-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-2 0-1,1-1 1,0 1 0,0-1-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,-4 1 1,2 0 47,-1-1-1,1 0 1,-1 0 0,1 0 0,-1-1 0,0 0-1,0 0 1,0-1 0,0 1 0,1-1 0,-1-1-1,-9 0 1,13 0-47,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,0 0-1,1 0 1,-1 0 0,1-1-1,0 1 1,-1 0-1,1-4 1,0-2-20,-1-1 1,1 0 0,0 0 0,1 1 0,3-16-1,0 9-41,1 1-1,1 0 0,0 0 0,1 1 0,1 0 0,0 0 1,0 1-1,11-12 0,14-12-627,42-37 1,-10 11-230,-58 54 906,0 1 0,-1-1 1,0 0-1,-1-1 1,0 0-1,0 0 1,-1 0-1,0 0 1,0 0-1,-1-1 0,0 0 1,-1 0-1,0 1 1,-1-1-1,0-1 1,-1 1-1,-1-19 1,-10 46 696,6 9-547,0 1-1,2-1 1,1 1 0,3 50-1,-1-29-54,0-47-98,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1-1 0,-1 1 1,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,7-2 21,-2 0 0,1-1-1,0 0 1,-1 0 0,8-7 0,8-14-14,12-8-113,-33 34 86,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,-1 1 1,1 0 0,0 3-1,2 2 31,6 11 26,-6-12-23,0 1 0,1-1 0,0 0 1,0 0-1,0 0 0,9 8 0,-11-12-13,0 0 1,0-1-1,0 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 0,-1 1 1,1-1-1,4-1 1,0-1-4,-1 1 1,0-1-1,0 0 1,-1 0-1,1 0 1,0-1-1,-1 0 1,0 0-1,0 0 1,0-1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0-1 0,-1 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,0-1-1,2-9 1,2-11-84,-2 0 0,-2 0 0,0-1 0,-2-29 0,0 31-66,-17 70 234,12-21-11,1 1-1,1 0 1,1 0-1,1 0 1,1 0-1,5 41 1,-4-62-106,0 0 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1-1,0 0 1,4 2-1,11 2-3935,-3-7-1996</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8701.94">3933 867 15303,'0'0'6995,"78"-11"-7347,-39 3-1553,-8-2-2193,-6-2-4642</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9415.29">4475 752 13830,'0'0'8471,"-1"13"-8167,-7 74 302,-4 83 370,14-183-985,1 1 0,0-1-1,1 1 1,0-1 0,1 1 0,1 0 0,6-11-1,2-5-44,-1-1 26,-8 16 4,0 0 1,1 0-1,0 1 1,1 0-1,0 0 1,1 1-1,0 0 0,12-13 1,-18 23 22,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,2 1 0,-1 1 10,0-1 0,-1 0 0,0 1 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,3 3 0,4 8 102,-1-1-1,-1 2 1,8 28-1,-12-37-60,7 26 174,10 63 0,-15-40-7451</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9572.81">4564 987 7571,'0'0'15624,"-4"-24"-15512,32 14 0,8 1-112,6 1-160,1 2-1505,-1 4-2385,-10 0-1440</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10097.54">4849 1037 1601,'0'0'18464,"0"4"-17594,0-3-841,0-1 0,0 0 1,0 1-1,0-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,0 0 1,25-21 770,-17 11-727,-1-1 1,0 1-1,0-1 0,6-14 0,-11 13-70,0 0-1,0-1 1,-1 1 0,-1 0-1,0 0 1,-1-1 0,-1-18-1,0-1-2,1 31-16,-4 16 9,0-1 0,1 1 0,0 0 0,1 0 0,1 0 0,1 0 0,0 0 0,4 28-1,-4-40 12,1 1-1,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 1,1-1-1,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0-1 1,0 1-1,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,6-1 1,-5 1-16,0 0 1,-1 0 0,1 0 0,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,1-1 0,-1 1-1,-1-1 1,1 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,2-7 0,-7-25 15,-3 30 149,-2 22-65,7-7-116,0-1-1,0 0 1,1 1 0,0-1-1,0 1 1,1-1-1,0 1 1,2 9-1,-2-17-93,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,1 0-600,18 0-5750</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10247.44">5244 798 12454,'0'0'9956,"-14"8"-12613,14 12-2946</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10791.34">5379 929 13718,'0'0'8223,"-17"1"-7663,-55 3-171,67-2-353,0 0 0,1-1 0,-1 1-1,1 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,1 1 0,-1-1-1,1 0 1,0 1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 1-1,1-1 1,0 0 0,1 1 0,-1 0-1,1-1 1,0 1 0,0 0-1,0 0 1,1 6 0,0-9-55,0-1 0,0 0-1,0 1 1,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,-1 1 0,1-1 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,1-1 0,1 1-58,0 0 1,0 0-1,0-1 0,0 0 1,-1 1-1,1-1 0,0-1 1,-1 1-1,1 0 1,0-1-1,-1 0 0,0 0 1,6-4-1,-4 1 244,0 0 0,-1-1 1,1 1-1,-1-1 0,0 0 0,0-1 0,-1 1 1,0-1-1,0 1 0,-1-1 0,1 0 0,-1 0 1,-1 0-1,2-8 0,24 263-151,-22-215 1,-1-16-16,0 0 1,-2 1-1,0-1 1,-1 0 0,-1 1-1,-1-1 1,-3 25-1,3-41 17,0 1-1,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,1-1 1,-1 1-1,-3-1 0,0 0 98,-1 0 0,1 0-1,0-1 1,-1 0 0,1 0 0,0 0-1,0-1 1,0 1 0,-5-5-1,3 1-85,1 1 0,1-1 1,-1 0-1,1-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 0 0,1 0 0,0 1 0,0-1 0,1 0 0,0 0 0,0-1 0,1-13 0,1 13-275,0-1 0,0 1 0,1 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,1 1 0,-1-1 0,1 1 0,0 0 0,12-11 0,20-10-3961,-2 5-2308</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11840.48">5545 865 464,'0'0'21447,"1"-6"-20652,4-11-267,-1 44-83,0 49 418,-4-72-823,0 1-1,0-1 1,1 1 0,-1-1-1,1 1 1,0-1 0,3 8-1,-4-11-37,0-1 0,0 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,20-14-11,-6 0-77,-6 7-19,-2-1 1,1 1 0,-1-1-1,0-1 1,11-17 0,-16 26 78,1 10 112,0 14 322,-3-22-305,0 5 4,1 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,1 1 0,1 0 0,4 9 0,-5-14-102,0 0 1,0 0-1,-1-1 0,1 1 0,1 0 1,-1-1-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 0 0,-1 0 1,1 0-1,0-1 0,-1 1 0,1 0 1,-1-1-1,4-1 0,3 0-92,-1 0 0,1-1 0,-1 0 0,1 0 0,-1-1 0,0 0 0,-1 0 0,13-10 0,-17 12 24,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,-1 0 0,0 0 1,0-1-1,1-7 0,-2 10 95,-1-1 1,1 0-1,0 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1-1 1,-3-2-1,5 4-2,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,-1 2-1,-2 1 2,1 1 0,-1 0 1,1 0-1,0 0 0,0 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 1,0-1-1,0 1 0,0 0 0,0 0 0,2 6 0,-1-11-65,1 1 0,-1-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,0 0-1,0 0 0,2 0 0,55-2-1808,-50 2 1267,1-1-520,0 0 0,0 0 0,0-1 0,-1-1 1,1 0-1,0 0 0,16-8 0,-22 9 793,0 0 0,-1-1 1,1 1-1,-1-1 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,2-4 1,-3 5 657,-1 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,0-5 0,0 7-83,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-2 0 0,1 1-106,-1-1-1,1 1 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,-1 1 0,1-1 1,-2 2-1,0 0-86,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,1 1 0,0 0 0,0 0 0,-5 7 0,6-8-68,1 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,1 1 1,0 2-1,0-3-15,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0-1-1,-1 1 1,2-1-1,3 0 9,0-1 1,0 0-1,0 0 1,0 0-1,0 0 0,-1-1 1,0 0-1,1 0 0,-1-1 1,0 1-1,0-1 0,-1 0 1,1-1-1,-1 1 1,0-1-1,0 1 0,-1-1 1,1-1-1,-1 1 0,0 0 1,0-1-1,-1 1 0,0-1 1,0 0-1,2-11 0,2-10 16,-1-1-1,-2-1 0,-1 1 1,-2-34-1,0 52-23,1 2 13,-2 0 0,1-1 0,-1 1 0,0 0 0,-1 0 0,-4-15 1,6 23-12,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,-3 16-74,-1 17 25,3 5 63,2 1 0,1-1 0,3 0 0,0 0 0,3 0 0,1-1 0,15 41 0,-13-61-580,-1-12-5992</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13893.09">2159 287 13126,'0'0'8286,"-7"0"-5412,82-1-2574,147-22 0,-182 16-488,57-10 608,-57 15-4182,-47 1 2910,1-1 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-2 0,0 1 0,-7-5 0,-6-10 2001,5-5 3853,19 23-1707,19 12-3369,-1 3 104,-6-4-22,-1 1 0,22 19 0,-35-28 1,1 1 1,-1-1-1,0 0 0,0 1 0,-1 0 0,1-1 0,-1 1 1,0 0-1,0 1 0,0-1 0,0 0 0,-1 0 1,0 1-1,0-1 0,0 1 0,0 5 0,-1-8 1,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,-2 2 0,-48 16-93,44-16-74,4-2-2260</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15149.02">3078 119 16440,'0'0'6789,"1"5"-6730,6 253 535,-8-177-230,45-82-324,188-59-275,-214 57 110,-8 1 12,0 0-1,0 0 1,-1-1-1,0 0 1,1 0-1,-1-1 1,12-8 0,-20 11 107,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-3-2-1,2 0 47,0 1 0,-1-1 1,1 1-1,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 1,1-1-1,-1 1 0,1 0 0,-1-1 0,0 1 0,-2 0 0,3 0-5,-1 1 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 1-1,0-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,0 2 0,0 0-28,0-1 0,0 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 6 0,0-8-13,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,3-1 1,61-2-201,-55 1 41,-1 0-1,1 0 0,-1-1 1,0-1-1,0 0 0,-1 0 0,1-1 1,-1 0-1,0 0 0,0-1 0,0-1 1,8-8-1,-11 10 107,-1-1-1,0 0 1,0 0 0,0-1 0,-1 1 0,0-1-1,0 0 1,0 0 0,-1-1 0,0 1-1,-1-1 1,0 1 0,0-1 0,-1 0-1,1 0 1,-1-13 0,-1-64 2273,0 85-2203,0 0 0,-1 0 0,1 0 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 0-1,0 1 1,-11 27 39,2 1 0,1 1 0,1-1-1,1 1 1,-2 43 0,7-61-20,-2 18 21,2 0 0,2 32-1,0-53-23,0-1 0,0 0 0,1 0 0,0 0-1,0 0 1,1 0 0,0 0 0,0-1 0,1 1 0,0-1-1,0 0 1,9 9 0,-13-15-25,1 0-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,0 1-1,1-1 1,-1-1 8,0 1 1,0-1 0,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,-1 0 1,1 1 0,-1-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 1 0,0-2-1,2-5 28,-1 1-1,-1 0 1,1-1-1,-1 1 0,0 0 1,-2-9-1,1 10-33,-1 0 0,0 0-1,0 1 1,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,0 1 1,-7-7 0,5 6-10,0-1 0,0 1 0,0 0-1,-1 0 1,1 1 0,-1 0 0,0 0 0,-10-3 0,31 8-368,1-1 1,0-1-1,0-1 1,-1 0-1,1 0 1,-1-2-1,1 0 1,-1-1-1,0 0 1,0-1-1,13-6 1,-17 6 184,-1 1 0,0-2 0,-1 1 0,1-1 0,-1-1 1,0 1-1,12-14 0,-16 16 256,-1-1 1,1 0 0,-1 1-1,0-1 1,-1-1 0,1 1-1,-1 0 1,0-1-1,0 1 1,-1-1 0,1 1-1,-1-1 1,0 0 0,-1-8-1,1-7 670,0-17 568,-2 34-606,0 20-11,-3 23-642,1-12 188,1 1 0,3 52 0,-1-75-232,0 1 0,1 0 0,0-1 1,0 1-1,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,1-1 0,-1 1 0,1-1 0,0 0 1,-1 0-1,2 0 0,-1 0 0,5 3 0,15 1-1965,-9-11-4072,-7-3-1329</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15308.37">3829 357 4994,'0'0'17704,"-32"-22"-17816,67 18-32,15-2 144,3-4-1136,0 1-2418,-10-1-2064</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16087.25">4709 168 12598,'0'0'9095,"-1"7"-8738,-4 29 239,-2-1 1,-17 50-1,-6 30 131,32-143 55,-1 6-835,1 0-1,7-29 1,4 4 33,23-54 0,-36 101 19,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,1 1 0,-1-1 0,0 0-1,1 0 1,-1 0 0,1 0-1,10 14-22,8 30 21,-16-36 31,57 164 627,-54-153-647,1 26-197,-10-31-5141</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16257.27">4670 392 13206,'0'0'9957,"74"-43"-9829,-35 33-128,4 2-961,-8 2-2624,-3 2-2450</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16763">4939 415 9925,'0'0'10861,"6"-2"-10299,2-2-502,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0-1,0-1 1,0 0 0,0 0 0,-1 0 0,0-1-1,0 0 1,-1 0 0,0 0 0,0-1 0,-1 0 0,0 1-1,0-2 1,-1 1 0,0 0 0,0-1 0,-1 1 0,0-1-1,0 0 1,-1 0 0,0-11 0,0-8-43,0 21-16,0 0 1,-1 0 0,1 0 0,-2 0 0,1 0 0,-1 0 0,0 0 0,-1 0-1,1 0 1,-4-8 0,1 13 230,1 10-168,0 16-96,2-19 64,-2 17 30,1 0 0,1 0 0,1 0-1,1 0 1,5 31 0,-5-48-48,0 0 0,0 0 0,0 0 1,1 0-1,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 1,0 0-1,1 0 0,0-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 0 0,0 0 0,0 0 1,6 0-1,-3 0-3,1-1 0,-1-1 0,1 1 0,-1-1 0,1-1 0,-1 0 0,0 0 0,1 0 1,-1-1-1,-1 0 0,13-7 0,-16 8-6,-1 0-1,1 0 1,-1-1 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0 0 0,-1-1-1,1 1 1,-1-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0-6-1,-3 46 595,0-12-2523,2-9-4517</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16929.8">5417 132 12118,'0'0'11301,"7"12"-15719,3 9-1985</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17444.84">5616 248 11221,'0'0'9498,"-15"-3"-7956,-46-6-691,59 9-809,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,1 0-1,0-1 1,-1 1 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1-1,0-1 1,0 1 0,0-1-1,1 1 1,-1 0 0,0 0 0,1-1-1,-1 1 1,1 0 0,0 1 0,-1-1-1,-1 4 1,2-2-34,-1 0-1,1 0 1,-1 1 0,1-1-1,0 0 1,1 1 0,-1-1-1,1 1 1,0-1 0,0 1-1,0-1 1,2 8 0,-1-10-34,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0-1 0,3 1 0,0 0-38,-1 0 1,1-1 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,0-1 0,8-4 0,-10 3 112,1-1 0,-1 0 1,0 1-1,0-1 1,-1-1-1,1 1 1,-1 0-1,0-1 0,0 1 1,0-1-1,0 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,0-9-1,-1 13 274,2 3-330,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 6 0,0-7 28,13 73 95,-6-34-82,5 84 0,-12-124-9,-1 1 1,1 0-1,-1-1 1,1 1 0,-1 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,1 0-1,-1 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,-1-1 1,0 2 7,0-1 0,1 0-1,-1 0 1,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,-1-2 0,1-1-131,0 0-1,1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,1 0 1,1-5-1,0 2-860,1 0 1,-1 0-1,1 1 0,8-12 0,13-12-5329</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18046.68">5828 184 3554,'0'0'19411,"0"9"-19157,-14 166 1701,14-145-1792,1-31-177,0 1 1,1 0-1,-1-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,1-2 1,93-101 26,-95 104-17,0-1 1,1 1-1,-1 0 0,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 0,-1 0 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 1 1,0-1-1,1 0 1,-1 0-1,0 1 0,1-1 1,-1 1-1,0-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 0,1-1 0,4 12 112,0 0 0,1 0 0,0-1 0,0 0 0,10 14 0,-13-23-100,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,3-2 0,-2 1-21,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,3-8 0,-2 2-43,-1 0 1,0 0-1,0-1 1,-1 1-1,0-19 1,-1 28 66,0 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 1 0,-1-1 0,1 1 0,-19 14 131,15-9-126,0 0 1,1 1 0,0-1-1,0 1 1,1 0 0,-1 0-1,-1 14 1,3-20-68,1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1-1,1-1 1,0 1 0,-1-1-1,1 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,3 0 1,12 1-2017,0 0 1,0-2-1,-1 1 1,27-6-1,-3-7-4218</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18418.5">6322 292 6147,'0'0'16479,"-8"-4"-15713,6 3-728,-1-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1 0,1-1-1,-5 1 1,6 0-25,0 1 0,-1-1 1,1 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 2 0,-1-2-14,0 0-1,-1 0 0,1 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 1 0,0-1 0,1 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,1 1 0,0-2-4,-1 1 0,1-1 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,1-1 0,6-3-3,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,0 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,-1-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,-1 0-1,1 0 1,-1 0 0,-1-1 0,3-17 0,-4 13 17,0 0 0,-1 0 0,0 0 0,-1 0 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,-6-18 0,10 31-3,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,-1 18 22,0 20-50,3 224 1520,-1-254-1455,1 0 1,0 0-1,0 0 1,1 0 0,0-1-1,4 12 1,-5-17-197,0 0-1,0 1 1,0-1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,1 0 0,3 1-1,9-1-8142</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53803.54">1014 1720 4946,'0'0'12825,"-2"-4"-11774,-7-7-176,5 15 522,4 31 892,1-12-2645,-1 243 1009,0-260-638,0 0 0,-1 0 0,0 0-1,0-1 1,-1 1 0,-3 10 0,5-15-5,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0-1 0,0 1-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,-2-2 1,1 0 7,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0-1-1,1 1 1,-1-1 0,1 1 0,-1-1-1,1 0 1,0 0 0,-1-4-1,2 6 49,9 7-123,3 2 69,0 0 0,1-1 0,1-1 0,-1 0-1,1-1 1,0 0 0,0-1 0,22 4 0,-31-8-10,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-2 0,-1 1 0,1 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 0-1,1 1 1,-1-1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,2-4 0,0-3 19,0-1-1,-1 1 1,0-1-1,-1 0 1,0 0-1,-1 0 1,-1 1-1,0-1 0,-1 0 1,0 0-1,-1 0 1,0 0-1,-1 1 1,-1-1-1,0 1 1,0 0-1,-1 0 1,-1 0-1,0 1 1,-1-1-1,-8-10 1,9 16-12,0 0 0,1 1 1,-2 0-1,1 0 0,-1 1 1,1 0-1,-1 0 0,0 0 1,-1 1-1,1 0 1,-1 1-1,-11-3 0,15 3-15,1 1-1,-1 1 0,1-1 1,-1 0-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 1 0,-1 0 1,0-1-1,1 1 0,-1 1 1,1-1-1,0 0 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 1 0,1 0 1,-4 4-1,5-5-260,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,2 2-1,12 9-5821</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54798.46">1374 1898 11717,'0'0'10125,"-3"-5"-9581,1 2-489,1 1 0,-1-1 0,-1 0 0,1 1 0,0 0 1,0-1-1,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 2 0,-1-1 0,1 0 1,0 1-1,-1-1 0,-3 3 0,3-2-50,1 0 1,0 1-1,0 0 1,0-1-1,0 1 1,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-2 7-1,2-4-26,0-1 0,0 1 0,1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,2 0 0,0 7 0,-1-12 5,0 0 0,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,1-1 0,-1 1 0,2-2 0,0 1-14,1 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 0 1,3-5 0,-4 4 111,0-1-1,0 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,-1-6 1,1 10 26,0 28-329,0-22 218,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,1 0 0,-1 1 0,0-1-1,1 0 1,0 0 0,3 4 0,-4-6 2,1 0-1,-1-1 1,1 0 0,-1 1-1,1-1 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0-1,1 1 1,-1-1 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0-1-1,4-2 1,0 1-2,0-1 1,0-1-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1-1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 1 1,0-1-1,-1 0 1,0 0-1,0-1 1,-1 1-1,0 0 1,0-1-1,0 0 1,1-10-1,0-7-6,0 0 0,-1 0 0,-2 0 0,0 0-1,-5-26 1,4 43 49,1 3-8,0 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,-1 1-1,1-1 1,-1 1-1,-4-7 1,5 9 148,0 4-203,0 0 0,0 0 0,1-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0 0 1,1 4-1,-1-4 46,-2 58 246,0-27-135,1-1-1,2 0 1,6 33-1,-6-58-121,0 0-1,1 0 1,0 0-1,0-1 1,1 1-1,0-1 1,1 1-1,-1-1 0,1 0 1,1-1-1,-1 1 1,1-1-1,1 0 1,-1 0-1,1 0 1,0-1-1,11 9 1,-12-12-13,0 1 1,0-1 0,1 0-1,-1 0 1,1 0 0,-1-1-1,1 0 1,-1 0 0,1 0-1,0-1 1,0 0 0,-1 0-1,1 0 1,0-1 0,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 0 1,1 0 0,-1 0-1,0-1 1,0 1 0,0-1 0,0-1-1,-1 1 1,1 0 0,-1-1-1,5-5 1,-2 2 18,0 0 1,0-1-1,0 1 1,-1-1-1,-1-1 1,1 1-1,-1-1 1,0 0-1,-1 0 1,0 0-1,-1-1 1,0 1-1,0-1 1,-1 0-1,1-18 1,-3 25-16,0 1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-2 2 0,0 2 10,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,1-1 0,-1 12 0,1-16-28,0 0 1,0 1-1,0-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,0-1 1,0 1-1,0-1 1,-1 1-1,2-1 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1-1 1,0 1-1,1-1 1,2 1-1,5 0-432,-1-1 0,1 0 0,-1 0-1,15-3 1,-21 3-154,0-1-1,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 1,0-1-1,0 0 0,5-3 0,7-11-6160</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54969.81">1437 1774 15559,'0'0'7924,"25"0"-8324,28 0 320,15-4-993,6-4-2689,1 0-3409</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55527.73">2354 1744 3330,'0'0'14454,"-15"3"-11978,-3 0-1726,7-2-195,0 1 0,0 0-1,1 1 1,-1 0 0,1 1 0,-20 9 0,30-13-542,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,12 4-2,15-1-146,-2-2 60,-1-1 1,1-1-1,0-1 0,0-1 0,-1-1 1,0-1-1,0-2 0,0 0 1,0-1-1,29-16 0,-51 23 55,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-2 0,-2 2 13,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-2-1 0,-59-13 113,-26 8 679,88 6-777,16 8-243,24 11 249,-30-16-24,0 1 1,-1 0-1,1 1 1,-1 0-1,0 0 1,0 1-1,-1 1 1,1-1-1,-1 1 1,7 9-1,-14-15 17,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-2 1 0,-5 6-545,-1-1 0,1 0 0,-1 0 0,-14 8 0,14-10-953,-11 9-5760</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56860.18">3188 1712 2193,'0'0'17128,"-3"-6"-14053,3 6-3032,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,-2 106 451,5 122-854,0-211-439,0-5-2268,-3-4-3590</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57428.44">3188 1774 10741,'0'0'3618,"2"-15"-430,6-47-512,-8 59-2552,1 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 1 1,2-2-1,-3 2-66,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,3 2-1,1 1-14,-1-1 0,1 2-1,-1-1 1,1 0 0,-1 1 0,0 0 0,-1 0 0,1 1-1,-1-1 1,6 8 0,-6-6-29,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 1,0-1-1,-1 1 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0-1 1,-5 9-1,2-5-148,0 0 1,-1 0 0,0-1 0,-1 0 0,0 0-1,0-1 1,-1 0 0,0 0 0,0 0-1,-1-1 1,0-1 0,-11 7 0,20-12 112,-1-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-2 0,0 2 16,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 1,0 0-1,0-1 0,0 1 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,2 1 1,-1 0 43,0 0 0,1 1 0,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 1,2 2-1,36 44 468,-35-39-486,1-1 1,-1 0-1,1 0 0,1-1 1,12 11-1,-18-17-56,1 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 0 0,0 1 0,0-1-1,0 0 1,-1-1 0,5-1 0,-4 1-4,1 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,-1-1 0,1 0 0,0 0 1,-1 0-1,0 0 0,1-5 0,1-8 43,-1 0-1,-1 0 1,0-24 0,-1 27 88,-1 21 788,-1 2-472,1 1 0,1 0 0,-1 0 1,2-1-1,-1 1 0,3 10 0,-2-17-545,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,0 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,3 3 1,-2-3-211,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1-1 0,0 1 0,0 0 0,2-1 0,13-4-6880</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57571.1">3676 1752 1489,'0'0'22538,"-18"-45"-23162,29 61-1121,3 1-3233,4 3-8533</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58525.6">3777 1802 12310,'0'0'4703,"-13"-1"-1376,-43-4-1094,53 4-2163,1 1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0 0-1,-1 0 1,2 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 3-1,0-1-66,0 1-1,1-1 0,-1 0 0,1 1 0,0-1 1,1 1-1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 1,1 1-1,1 7 0,-1-11-26,-1 1 0,1-1 1,0 1-1,0-1 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1-1 0,-1 1 1,0 0-1,1 0 0,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,3-1-1,-2 0 42,0 1-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 1 0,-1-1 0,0 1 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0-1,0 0 1,-1 0 0,4 3 0,1 3-5,-1 0 1,0 1 0,-1 0 0,0 0 0,0 0-1,0 1 1,-1-1 0,-1 1 0,1-1-1,1 18 1,-1 7 45,0 50 0,-3-82-59,0 9 16,-1 0-1,-1 0 1,1 0-1,-1 0 1,-1-1-1,0 1 0,0-1 1,-1 0-1,-5 10 1,7-15-8,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 1,0 0-1,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 1,1 0-1,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,0 0 0,-8 1 1,11-2-2,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0-1 0,-3-45 36,3 37-51,1-1-39,0 1-1,0-1 1,1 1-1,0 0 1,1-1-1,0 1 1,1 1-1,0-1 1,1 0-1,0 1 1,1 0-1,0 0 1,12-14-1,7-5-504,2 1-1,53-43 0,-54 51 265,-2-2 0,-1 0 0,0-1-1,27-38 1,-44 52 266,-1 0 1,-1-1-1,1 1 1,2-13-1,-5 18 148,-1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-3-5 0,3 9-82,0-1 0,-1 1 0,1 0-1,0-1 1,-1 1 0,1 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1 0,-17 13 263,11 0-244,1 0 0,0 1 0,1 0 0,1 0 0,0 0 0,-3 23 0,3 5 90,1 48 0,3-90-157,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,0-2-12,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 1,1-1-1,-1 0 0,1 1 0,-1-1 0,2-1 0,6-3-47,0-1-1,0-1 0,-1 0 0,13-13 1,-11 8 26,-8 9 38,0 0-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,1 1 1,4-3-1,-5 7 10,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 1-1,0-1 1,0 1-1,0 0 1,1 4-1,1-2 49,-2-1-55,1-1-1,0 1 1,0-1 0,0 0-1,0 0 1,1 0 0,-1-1 0,1 1-1,0-1 1,0 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1-1 0,0 0-1,0 0 1,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,1-2 0,-1 1 0,0 0-1,0-1 1,0 0 0,0 0 0,0-1-1,0 1 1,6-3 0,-2 0-7,-1 0 0,0 0 1,0 0-1,0-1 0,0 0 0,-1-1 1,0 0-1,0 0 0,-1 0 0,1-1 1,-1 0-1,-1 0 0,1-1 0,-1 1 1,0-1-1,-1 0 0,0 0 0,4-13 0,-2-9-21,-2 0 0,-1 0-1,-1 0 1,-2 0-1,-4-35 1,4 62 36,0 2 1,1 0 0,-1-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 1 0,-2-2 0,1 6 19,0 1 1,0-1 0,0 1-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 6-1,-2 10-141,1 0 0,1 0 0,1 1 0,1-1 0,1 0 0,0 0 0,2-1 0,13 38 0,-10-34-2325,-4-6-2301</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58700.03">4243 1801 15975,'0'0'11301,"142"-71"-11285,-57 43-16,4 0-672,-11-3-704,-18 5-2770,-25 2-14535</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 314 9941,'0'0'8921,"0"0"-8770,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,42-3-25,0-1 0,1-2 0,42-12 0,-17 6-24,-67 11-52,-5-4-223,0 1 48,-1-1-1,1 0 1,-1 1 0,1 0 0,-1 0-1,0 1 1,-8-5 0,5 2 31,-9-6 96,14 8 20,1 1 0,-1 0-1,0 0 1,1 0 0,-1 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,-5-1 0,7 2 164,27 0-679,-1 0 490,-1 1 0,27 5 1,-44-5-6,-1 0 0,0 1 1,1-1-1,-1 1 1,0 1-1,0-1 0,0 1 1,-1 0-1,1 0 1,-1 1-1,0 0 0,1 1 1,4 4-1,-9-7 11,0 0-1,0-1 1,0 1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,-1 1 1,-1 2 0,-3 2 44,1 0 0,-1 0 0,0 0 0,0 0 0,-1-1 0,-8 6 1,11-7-562,26-6-15919</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.31">738 161 11925,'0'0'9597,"-5"-2"-8789,-12-3-592,20 1-43,34 1 45,-3 0-168,44-10-269,-43 6-352,0 2 0,39-1 0,-78 13-5458,-9 4 2320</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.41">886 165 3698,'0'0'16234,"0"6"-15570,3 159 1582,1 3-4703,-4-157-2961</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1004.61">989 404 14231,'0'0'7504,"3"0"-7402,9-1 6,-2 0 1,1 0 0,0-1 0,-1 0 0,16-6 0,-22 7-92,0 0 0,0-1 0,0 1 1,0-1-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1-1-1,0 0 0,0-1 0,0 1 1,0 0-1,-1 0 0,1 0 0,-1-1 1,4-6-1,-6 9-12,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1-1 0,0 2 0,1-1 0,-1 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,-1 0 0,-3-1 15,1 1 0,0 0-1,0 0 1,-1 0 0,1 1-1,0 0 1,0-1 0,0 1 0,0 1-1,1-1 1,-5 3 0,5-1 4,-1-1 1,1 1 0,0 0-1,0 1 1,1-1 0,0 0-1,-1 1 1,1-1 0,1 2-1,-1-1 1,1-1 0,-1 1-1,1 0 1,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,1 9-1,0-12-30,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,3-1-1,62-1-1308,-64 2 1139,14-3-1865,1 0 0,0-1 0,17-7 0,8-4-6534</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1426.52">1398 301 9652,'0'0'13028,"-4"0"-12607,2 0-408,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1-1,-1 0 1,1 0 0,-1-1-1,1 1 1,0 0 0,0 0-1,-1 1 1,1-1 0,-1 2-1,-28 36 270,-16 55-2,43-86-300,-7 13-1743,18-65-10958,0 12 13199,-2 3 67,0 7 1051,-4 1 5176,12 30-4560,7 41-1104,-19-42-1009,1 0 0,0-1 1,0 0-1,1 1 0,0-1 0,6 7 0,-8-12-157,0 1 0,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 0 0,0 1-1,5-2 1,-3 1-737,1 0 0,0-1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,1 1 1,-2-1-1,1 0 0,0 0 0,4-5 0,17-13-6371</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1688.34">1576 243 368,'0'0'7041,"0"-16"-4541,0-79 361,0 70 6096,-1 87-8502,0 56 212,2-105-596,0 1 1,1-1-1,1 0 1,0 0-1,1 1 1,7 16-1,-10-28-121,0-1-1,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 1,0 1-1,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 0,0-1 0,1 2 0,3-2 0,27-3-5115,-15-7-408</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1881.38">1580 279 13782,'0'0'8948,"10"-10"-9156,15 6 96,11-4 80,3-1-1040,-3-1-481,0 1-688,-5 3-928,-9 2-5235</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3115.05">33 839 10501,'0'0'13791,"9"-2"-13909,291 4 334,-299-2-296,-12-14-617,-5 4 717,-1 1-1,-37-13 0,49 20 49,1 1 65,4 1-221,11 4-65,-1 0 1,1 1-1,0 0 0,18 14 0,7 2 34,-32-19 76,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 1 0,5 5 0,-9-8 43,1 0 0,0-1 0,-1 2 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,-12 5 65,0 0 0,0-1 0,-1-1 0,1 1 0,-24 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3729.15">882 815 6067,'0'0'15508,"3"14"-15249,5 221 1312,-8-260-1611,-1-16-45,3-1-1,7-53 1,-9 95 90,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,11 11 45,9 23-83,-17-30 72,2 5-26,8 16 90,1-2-1,1 0 1,2-1 0,0-1-1,0 0 1,42 36-1,-51-53-288</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3973.93">1117 787 11109,'0'0'8153,"3"11"-7686,2 30 520,-1 1 0,-2-1 1,-4 50-1,1-17-2105,1-74 888,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 0-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 0 1,1 1 0,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1-1 0,2 1-438,14-2-6766</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4290.72">1228 946 880,'0'0'18830,"0"7"-17061,0-1-1634,0 0 0,1 0 0,-1 0 0,1 0-1,1 1 1,-1-1 0,1 0 0,0 0 0,0 0 0,5 9 0,-5-13-126,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,1-1 1,-1 1 0,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,0 1 1,1-1 0,-1 0-1,4-1 1,-4 1 4,0 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1-1-1,1 0 1,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0-1,-2-1 1,1-3 2,-1 2 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-7-5 0,8 7-23,-1 0 0,0-1 0,0 1-1,0 0 1,0 1 0,0-1 0,-1 0-1,1 1 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1-1,0 0 1,0-1 0,0 1 0,-5 3-1,6-3-274,0 0 0,0 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 2 0,1 9-5767</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5943.15">2214 919 12870,'0'0'10263,"0"-1"-10212,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,2 0 0,55 0-25,336-12-775,-392 12 1174,4-1-2203,-5 1 1630,1 0 0,-1 0 1,0 0-1,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6191.77">2575 829 9780,'0'0'12187,"-4"-2"-11749,-2-5-532,12 6 48,29 7 45,-17-1 1,1 0 0,26 13 0,-44-17-13,1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0-1 0,0 1 0,1 1-1,-1-1 1,0-1 0,0 1 0,0 2-1,-1-2 17,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,-1 1 0,-7 7 43,-1-1 0,1 0-1,-1-1 1,-1 0 0,-10 5 0,-20 15-308,30-8-4941</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6467.83">3014 837 13750,'0'0'7572,"0"16"-7556,0 8 192,0 4-96,0-1 128,0-2-192,0 1 96,0-5-64,0 1-80,0-2-208,0-4-2337,0-4-2786</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7171.03">3016 804 14359,'0'0'6811,"14"-11"-6673,46-35 140,-58 44-255,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,1 1 0,-1 0-1,0-1 1,1 1-1,-1 0 1,0 0-1,4 1 1,-5-1-6,1 1 1,-1-1 0,0 1-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 3 1,0 2 42,0-1-1,0 1 1,0-1 0,-1 1-1,0-1 1,0 1 0,0-1-1,-1 0 1,0 1 0,-2 10 0,-1-8-30,0 0 1,-1 0 0,1-1-1,-1 1 1,-1 0 0,0-1-1,0 0 1,0-1-1,0 0 1,-1 0 0,0 0-1,-1-1 1,1 0 0,-9 5-1,17-13-153,9 13-113,-3 0 260,1 0 0,-1 0 0,1-1 0,1 1 0,0-1 0,0-1 0,1 0 0,12 7 0,-16-11-20,0-1 0,0-1 0,1 2 0,-1-2 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,9-2 0,-13 2-12,1 0 0,-1 0-1,1 0 1,-1-2 0,1 2 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1-1,0 0 1,0 1 0,1-5 0,0-7-106,0 2-1,-1-1 1,-1 1-1,0-15 1,-1 7-104,1 20 115,0 35-255,0 58 600,0-92-320,1-1 1,-1 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,0-1 0,1 1-1,-1-1 1,0 0 0,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1-1-1,2 1 1,11-2-6294,-2-5-4078</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7328.08">3413 769 14871,'0'0'8388,"-4"-15"-10325,4 30-1361,0 1-3601</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8535.74">3569 927 6547,'0'0'14673,"-7"-5"-14006,3 3-617,1-1 1,-1 1-1,0 0 0,0 0 0,1 0 0,-2 1 0,1-1 0,0 1 0,-1 0 1,1 0-1,-7 0 0,9 1-34,-1 0-1,1 1 1,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1-1,0 0 1,-2 5 0,2-5-18,0-1-1,0 1 0,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,1 1 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 1,1 2-1,1-2-54,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 0 0,0 1 0,1-1 0,3-1 0,-6 1 91,1-1-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,-1-2 1,1 1-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0-1-1,5-17 944,-4 19-839,0 4-152,2-1-1,-1 1 0,-1-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 7 0,-1-8 18,12 50 45,-3 1 0,-2 0 0,-2 0 0,-2 61 0,-4-109-32,1-1-1,-1 0 1,0 1 0,0-1-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-2 0-1,1-1 1,0 1 0,0-1-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,-5 1 1,3 0 47,-1-1-1,1 0 1,-1 0 0,1 1 0,-1-2 0,0 0-1,0 0 1,0-1 0,0 1 0,1-1 0,-1-1-1,-9 0 1,13 0-47,0 0-1,0 0 1,0-1-1,0 0 1,0 1-1,0 0 1,0-1 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0-1 1,1 1-1,-1 0 1,0 0-1,1 0 1,-1 0 0,1-1-1,0 1 1,-1 0-1,1-4 1,0-3-20,-1 0 1,1 0 0,0 0 0,1 1 0,3-17-1,0 10-41,1 1-1,1 0 0,0-1 0,1 2 0,1 0 0,0 0 1,0 0-1,11-11 0,14-13-627,43-37 1,-11 11-230,-58 55 906,0 1 0,-1-1 1,0-1-1,-1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1-1-1,-1 0 0,0 0 1,-1 0-1,0 1 1,-1-1-1,0-2 1,-1 2-1,-1-19 1,-10 46 696,5 9-547,1 2-1,2-2 1,1 2 0,3 50-1,-1-29-54,0-48-98,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1-1 0,-1 1 1,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0-1-1,-1 2 0,1-2 1,1 1-1,-1-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,7-3 21,-2 1 0,1-1-1,0 0 1,-1 0 0,8-7 0,8-14-14,12-9-113,-33 35 86,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,-1 1 1,1 0 0,0 3-1,2 3 31,6 10 26,-6-12-23,0 1 0,1-1 0,0 0 1,0 0-1,0 1 0,10 7 0,-12-12-13,0 0 1,0-1-1,0 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 0,-1 1 1,1-1-1,4-1 1,0-1-4,-1 1 1,0-1-1,0 0 1,-1 0-1,1 0 1,0-1-1,-1 0 1,0-1-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0-1 0,-1 1 1,0-1-1,0 0 1,0-1-1,-1 1 1,0-1-1,2-9 1,3-12-84,-3 1 0,-2-1 0,0 0 0,-2-30 0,0 31-66,-18 72 234,13-21-11,1 0-1,1 0 1,1 1-1,1-1 1,1 1-1,5 41 1,-4-63-106,0 0 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,1 0 1,3 2-1,11 2-3935,-3-7-1996</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8701.94">3955 883 15303,'0'0'6995,"78"-12"-7347,-39 4-1553,-7-2-2193,-7-2-4642</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9415.29">4500 766 13830,'0'0'8471,"-1"13"-8167,-7 75 302,-4 85 370,14-186-985,1 1 0,0-1-1,1 1 1,0-2 0,1 2 0,1 0 0,6-12-1,2-4-44,-1-2 26,-8 17 4,0 0 1,1 0-1,0 1 1,1-1-1,0 1 1,1 1-1,0 0 0,12-14 1,-18 24 22,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,2 1 0,-1 1 10,0-1 0,-1 0 0,0 1 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,3 4 0,4 7 102,-1-1-1,-1 2 1,8 29-1,-12-38-60,7 27 174,10 64 0,-15-41-7451</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9572.81">4589 1005 7571,'0'0'15624,"-4"-25"-15512,32 15 0,9 1-112,5 1-160,1 2-1505,-1 4-2385,-9 0-1440</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10097.54">4876 1056 1601,'0'0'18464,"0"4"-17594,0-3-841,0-1 0,0 0 1,0 1-1,0-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,0 0 1,25-21 770,-17 11-727,-1-2 1,0 2-1,0-1 0,6-14 0,-11 12-70,0 1-1,0-1 1,-1 1 0,-1-1-1,0 1 1,-1-1 0,-1-19-1,0 0-2,1 31-16,-4 16 9,0-1 0,1 2 0,0-1 0,1 0 0,1 0 0,1 1 0,0-1 0,4 29-1,-4-41 12,1 1-1,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,0-1 0,0 1 0,1 1 0,-1-1 1,1-1-1,-1 0 0,1 1 0,1-1 0,-1 0 0,0 0 0,0-1 1,0 1-1,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,6-1 1,-5 1-16,0 0 1,-1 0 0,1 0 0,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,1-1 0,-1 1-1,-1-1 1,1 1 0,0-2 0,0 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,2-7 0,-7-26 15,-3 31 149,-2 22-65,7-7-116,0 0-1,0-1 1,1 1 0,0-1-1,0 1 1,1-1-1,0 1 1,2 10-1,-2-18-93,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,1 0-600,18 0-5750</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10247.44">5273 812 12454,'0'0'9956,"-14"9"-12613,14 11-2946</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10791.34">5409 946 13718,'0'0'8223,"-17"1"-7663,-56 3-171,68-2-353,0 0 0,1-1 0,-1 1-1,1 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,1 1 0,-1-1-1,1 0 1,0 2 0,0-1-1,0 0 1,0 0 0,1 0 0,-1 1-1,1-1 1,0 0 0,1 1 0,-1 0-1,1-1 1,0 1 0,0 1-1,0-1 1,1 6 0,0-9-55,0-1 0,0 0-1,0 1 1,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,-1 1 0,1-1 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,1-1 0,1 1-58,0 0 1,0 0-1,0-1 0,0 0 1,-1 1-1,1-1 0,0-1 1,-1 1-1,1 0 1,0-1-1,-1 0 0,0 0 1,6-4-1,-4 1 244,0 0 0,-1-1 1,1 1-1,0-1 0,-1-1 0,0 0 0,-1 1 1,0-1-1,0 1 0,-1-1 0,1 0 0,-1 0 1,-1-1-1,2-7 0,24 268-151,-22-220 1,-1-15-16,0-1 1,-2 1-1,0 0 1,-1-1 0,-1 1-1,-1-1 1,-3 26-1,3-42 17,0 1-1,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 0 1,0 2-1,0-2 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,1-1 1,-1 1-1,-3-1 0,0 0 98,-1 0 0,1 0-1,-1-1 1,0 0 0,1 0 0,0 0-1,0-2 1,0 2 0,-5-5-1,3 1-85,1 1 0,1-1 1,-1 0-1,1-1 0,0 1 0,1-1 0,0-1 0,0 1 0,0 0 0,1 0 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,1-14 0,1 14-275,0-1 0,0 1 0,1 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,1 0 0,-1 0 0,1 1 0,0 0 0,12-11 0,21-11-3961,-3 6-2308</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11840.48">5576 881 464,'0'0'21447,"1"-6"-20652,4-12-267,-1 46-83,0 49 418,-4-73-823,0 1-1,0-1 1,1 1 0,-1-1-1,1 2 1,0-2 0,3 8-1,-4-11-37,0-1 0,0 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,20-14-11,-6-1-77,-6 8-19,-2-1 1,1 1 0,-1-1-1,0-1 1,11-18 0,-16 27 78,1 10 112,0 15 322,-3-23-305,0 5 4,1 0 0,0 0 0,0 0-1,1 1 1,-1-2 0,2 1 0,0 0 0,4 9 0,-5-14-102,0 0 1,0 0-1,-1-1 0,1 1 0,1 0 1,-1-1-1,0 0 0,0 2 1,1-2-1,-1 0 0,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 0 0,-1 0 1,1 0-1,0-1 0,-1 1 0,1 0 1,-1-1-1,4-1 0,3 0-92,-1 0 0,1-2 0,-1 1 0,1 0 0,-1-1 0,0 0 0,-1 0 0,13-10 0,-17 12 24,1-1 0,-1 0 0,0 0 0,2 0 0,-2 0 0,0-2 0,-1 2 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,-1 0 0,0 0 1,0-1-1,1-8 0,-2 11 95,-1-1 1,1 0-1,0 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1-1 1,-3-2-1,5 4-2,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,-2-1 1,2 1-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,-1 2-1,-2 1 2,1 1 0,-1 0 1,1 0-1,0 0 0,0 0 0,1 0 0,0 2 0,0-2 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 1,0-1-1,0 1 0,0 1 0,0-1 0,2 6 0,-1-11-65,1 1 0,-1-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,0 0-1,0 0 0,2 0 0,56-2-1808,-51 2 1267,1-1-520,0 0 0,0 0 0,0-1 0,-1-1 1,1 0-1,0 0 0,16-8 0,-22 9 793,0 0 0,-1-1 1,1 1-1,-1-1 0,0 0 0,0-1 0,0 1 1,0 0-1,-1 0 0,2-1 0,1-4 1,-3 5 657,-1 0 0,0-1 0,1 1 0,-1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,0-6 0,0 8-83,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-2 0 0,1 1-106,-1-1-1,1 1 0,0 0 1,-1 0-1,0 0 0,1 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,-1 1 0,1-1 1,-2 2-1,0 0-86,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,1 1 0,0 0 0,0 0 0,-5 8 0,6-9-68,1 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,1 1 1,0 3-1,0-4-15,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0-1-1,-1 1 1,2-1-1,3 0 9,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,-1-1 1,0-1-1,1 1 0,-1-1 1,0 1-1,0-1 0,-1 0 1,1-1-1,-1 1 1,0-1-1,0 1 0,-1-1 1,1-1-1,-1 1 0,0-1 1,0 0-1,-1 1 0,0-1 1,0 0-1,2-11 0,2-11 16,-1 0-1,-2-2 0,-1 2 1,-2-35-1,0 52-23,1 3 13,-2 0 0,1-1 0,-1 1 0,0 0 0,-1 0 0,-4-16 1,6 24-12,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,-3 16-74,-1 18 25,3 5 63,2 0 0,1 0 0,3 0 0,0-1 0,3 1 0,1-1 0,15 41 0,-13-61-580,-1-13-5992</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13893.09">2171 292 13126,'0'0'8286,"-7"0"-5412,82-1-2574,149-22 0,-184 16-488,57-11 608,-56 16-4182,-48 1 2910,0-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-2 0,0 1 0,-7-5 0,-6-11 2001,5-4 3853,19 23-1707,19 12-3369,-1 4 104,-6-5-22,-1 1 0,23 19 0,-36-27 1,1 0 1,-1-1-1,0 0 0,0 1 0,-1 0 0,1-1 0,-1 1 1,0 0-1,0 1 0,0-1 0,0 0 0,-1 0 1,0 1-1,0 0 0,0 0 0,0 5 0,-1-8 1,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,-2 2 0,-49 17-93,45-17-74,4-2-2260</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15149.02">3095 121 16440,'0'0'6789,"1"5"-6730,6 258 535,-8-181-230,45-83-324,190-60-275,-216 58 110,-8 1 12,0 0-1,0 0 1,-1-1-1,0 0 1,1 0-1,-1-1 1,12-8 0,-20 11 107,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-2-1,0 2 1,0-1-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-3-2-1,2 0 47,0 1 0,-1-1 1,1 1-1,-1 0 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 1,1-1-1,-1 1 0,1 0 0,-1-1 0,0 1 0,-2 0 0,3 0-5,-1 1 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 1-1,0-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,0 0 0,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,0 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,0 3 0,0-1-28,0-1 0,0 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 7 0,0-9-13,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,3-1 1,61-2-201,-55 1 41,-1 0-1,1 0 0,0-1 1,-1-1-1,0 0 0,-1 0 0,1-1 1,-1-1-1,0 1 0,0-1 0,0-1 1,8-8-1,-11 10 107,-1-1-1,0 0 1,0-1 0,0 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,-1-1 0,0 1-1,-1-2 1,0 2 0,0-1 0,-1 0-1,1 0 1,-1-14 0,-1-64 2273,0 86-2203,0 0 0,-1 0 0,1 0 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 0-1,0 1 1,-11 28 39,2 0 0,1 2 0,1-2-1,1 2 1,-2 43 0,7-62-20,-2 19 21,2-1 0,2 33-1,0-53-23,0-2 0,0 0 0,1 0 0,0 0-1,0 0 1,1 0 0,0 1 0,0-2 0,1 1 0,0-1-1,0 0 1,9 9 0,-13-15-25,1 0-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0 1-1,0-2 1,-1 1-1,1 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,0 1-1,1-1 1,-1-1 8,0 1 1,0-1 0,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,0 0 1,-1 1 0,1-2-1,-1 1 1,1 1 0,-1-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 1 0,0-2-1,2-5 28,-1 1-1,-1 0 1,1-1-1,-1 1 0,0 0 1,-2-10-1,1 11-33,-1 0 0,0 0-1,0 1 1,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,0 0 1,-7-6 0,5 6-10,0-1 0,0 1 0,0 0-1,-1 0 1,1 1 0,-1 0 0,0 0 0,-10-3 0,31 8-368,1-1 1,0-1-1,0-1 1,-1 0-1,1 0 1,-1-2-1,1 0 1,0-2-1,-1 1 1,0-1-1,13-6 1,-17 6 184,-1 1 0,0-2 0,-1 1 0,1-1 0,-1-2 1,0 2-1,12-14 0,-16 16 256,-1-1 1,1 0 0,-1 1-1,0-1 1,-1-2 0,1 2-1,-1 0 1,0-1-1,0 1 1,-1-1 0,1 1-1,-1-1 1,0 0 0,-1-9-1,2-6 670,-1-18 568,-2 35-606,-1 21-11,-2 22-642,1-11 188,1 0 0,3 54 0,-1-77-232,0 1 0,1 0 0,0-1 1,0 1-1,1-1 0,-1 1 0,1 0 0,2-1 0,-2 0 0,1 0 0,-1 0 0,1 0 0,1-1 0,-1 1 0,1-1 0,0 0 1,-1 0-1,2 0 0,-1 1 0,5 2 0,15 1-1965,-9-11-4072,-7-3-1329</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15308.37">3850 363 4994,'0'0'17704,"-32"-22"-17816,67 18-32,16-2 144,2-4-1136,0 1-2418,-10-2-2064</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16087.25">4735 171 12598,'0'0'9095,"-1"7"-8738,-4 30 239,-2-2 1,-17 52-1,-6 30 131,32-145 55,-1 5-835,1 1-1,7-30 1,4 4 33,23-55 0,-36 103 19,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,1 1 0,-1-1 0,0 0-1,1 0 1,-1 0 0,1 0-1,10 14-22,8 31 21,-16-37 31,58 167 627,-55-155-647,1 26-197,-10-32-5141</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16257.27">4696 399 13206,'0'0'9957,"74"-44"-9829,-34 34-128,3 2-961,-8 2-2624,-3 2-2450</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16763">4966 423 9925,'0'0'10861,"6"-3"-10299,2-1-502,0 0 0,1 0 0,-2 0 0,1-1 0,-1 0-1,0-1 1,0 0 0,0 0 0,-1 0 0,0-2-1,0 1 1,-1 0 0,0 0 0,0-1 0,-1 0 0,0 1-1,0-3 1,-1 2 0,0 0 0,0-1 0,-1 1 0,0-1-1,0 0 1,-1-1 0,0-10 0,0-8-43,0 20-16,0 1 1,-1 0 0,1 0 0,-2 0 0,1 0 0,-1 0 0,0 0 0,-1-1-1,1 1 1,-4-8 0,1 13 230,1 10-168,0 17-96,2-20 64,-2 17 30,1 0 0,1 1 0,1-1-1,1 1 1,5 31 0,-5-49-48,0 0 0,0 0 0,0 0 1,1 0-1,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 0 1,0 0-1,1 0 0,0-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,1 0 0,-1 0 0,0 0 1,6 0-1,-3 0-3,1-1 0,-1-1 0,1 1 0,-1-1 0,1-1 0,-1 0 0,0 0 0,1 0 1,-1-1-1,-1 0 0,13-7 0,-16 8-6,-1 0-1,1 0 1,-1-1 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,0-1 0,-1 0-1,1 1 1,-1-1 0,0 1 0,0-1-1,1 0 1,-2 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0-7-1,-3 48 595,0-12-2523,2-10-4517</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16929.8">5447 134 12118,'0'0'11301,"7"13"-15719,3 8-1985</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17444.84">5647 252 11221,'0'0'9498,"-15"-3"-7956,-46-6-691,59 9-809,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,1 0-1,0-1 1,-1 1 0,1 0 0,0 0-1,0 0 1,-1 0 0,0 0 0,1 1-1,0-1 1,0 2 0,0-2-1,1 1 1,-1 0 0,0 0 0,1-1-1,-1 1 1,1 0 0,0 1 0,-1-1-1,-1 4 1,2-2-34,-1 0-1,1 0 1,-1 1 0,1-1-1,0 0 1,1 1 0,-1 0-1,1 0 1,0-1 0,0 1-1,0-1 1,2 8 0,-1-10-34,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0-1 0,3 1 0,0 0-38,-1 0 1,1-1 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,0-1 0,8-4 0,-10 3 112,1-1 0,-1 0 1,0 1-1,0-1 1,-1-1-1,1 1 1,-1 0-1,0-1 0,0 0 1,0 0-1,0 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,0-9-1,-1 13 274,2 3-330,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 6 0,0-7 28,13 75 95,-6-35-82,5 85 0,-12-126-9,-1 1 1,1 0-1,-1-1 1,1 1 0,-1 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,1 0-1,-1 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,-1-1 1,0 2 7,0-1 0,1 0-1,-1 0 1,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,-1-2 0,1-1-131,0 0-1,1 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,1 0 1,1-6-1,0 3-860,1 0 1,-1 0-1,1 1 0,8-13 0,13-11-5329</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18046.68">5860 187 3554,'0'0'19411,"0"9"-19157,-14 170 1701,14-149-1792,1-31-177,0 1 1,1 0-1,-1-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,1-2 1,94-103 26,-96 106-17,0-1 1,1 1-1,-1 0 0,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 0,-1 0 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 1 1,0-1-1,1 0 1,-1 0-1,0 1 0,1-1 1,-1 1-1,0-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 0,1-1 0,4 12 112,0 1 0,1-1 0,0-1 0,0 0 0,10 15 0,-13-24-100,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,2-1 0,-1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,3-2 0,-2 1-21,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-2 0,0 2 0,0-1 0,3-8 0,-2 2-43,-1 0 1,0 0-1,0-2 1,-1 2-1,0-19 1,-1 28 66,0 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 1,0 0-1,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 1 0,-1-1 0,1 1 0,-19 14 131,15-9-126,0 0 1,1 1 0,0-1-1,0 1 1,1 1 0,-1-1-1,-1 14 1,3-20-68,1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,1 0-1,-1-1 1,0 1-1,1-1 1,0 2 0,-1-2-1,1 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,3 0 1,12 1-2017,0 0 1,0-2-1,-1 1 1,27-6-1,-2-7-4218</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18418.5">6357 297 6147,'0'0'16479,"-8"-4"-15713,6 3-728,-1-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1 0,1-1-1,-5 1 1,6 0-25,0 1 0,-1-1 1,1 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 1 1,0 0-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 2 0,-1-2-14,0 0-1,-1 0 0,1 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 1 0,0-1 0,1 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,1 1 0,0-2-4,-1 1 0,1-1 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,1-1 0,6-3-3,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,0-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,-1 0-1,1 0 1,-1-1 0,-1 0 0,3-17 0,-4 13 17,0-1 0,-1 1 0,0 0 0,-1 0 0,-1-1 0,0 1 0,-1 0 0,-1 1 0,-6-19 0,10 32-3,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,-1 18 22,0 21-50,3 228 1520,-1-259-1455,1 0 1,0 0-1,0 0 1,1 1 0,0-2-1,4 12 1,-5-17-197,0 0-1,0 1 1,0-1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 0-1,0 1 1,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,1 0 0,3 1-1,9-1-8142</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53803.54">1020 1751 4946,'0'0'12825,"-2"-4"-11774,-7-7-176,5 15 522,4 32 892,1-13-2645,-1 248 1009,0-265-638,0 0 0,-1 0 0,0 0-1,0-1 1,-1 1 0,-4 11 0,6-16-5,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0-1 0,0 1-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,-2-2 1,1 0 7,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0-1-1,1 1 1,-1-1 0,1 1 0,-1-1-1,1-1 1,0 1 0,-1-4-1,2 6 49,9 7-123,3 3 69,0-1 0,1-1 0,1-1 0,0 0-1,0-1 1,0 0 0,0-1 0,22 4 0,-31-8-10,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-2 0,-1 1 0,1 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-2-1 0,0 0-1,1 1 1,-1-1 0,-1-2 0,1 2 0,0 0 0,-1-1 0,2-4 0,0-3 19,0-1-1,-1 0 1,0 0-1,-1 0 1,0 0-1,-1-1 1,-1 2-1,0-1 0,-1 0 1,0 0-1,-1-1 1,0 1-1,-1 1 1,-1-1-1,0 0 1,0 1-1,-1 0 1,-1 0-1,0 1 1,-1-2-1,-9-9 1,10 16-12,0 0 0,1 1 1,-2 0-1,1-1 0,-1 2 1,1 0-1,-1 0 0,0 0 1,-1 1-1,1 0 1,-1 1-1,-11-3 0,15 3-15,1 1-1,-1 1 0,1-1 1,-1 0-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 1 0,-1 0 1,0-1-1,1 1 0,-1 1 1,1-1-1,0 0 0,-2 1 1,2 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 1 0,1 0 1,-4 5-1,5-6-260,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,2 2-1,12 10-5821</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54798.46">1382 1932 11717,'0'0'10125,"-3"-5"-9581,1 2-489,1 1 0,-1-1 0,-1 0 0,1 1 0,0 0 1,0-1-1,-2 1 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 2 0,-1-1 0,1 0 1,0 1-1,-1-1 0,-3 3 0,3-2-50,1 0 1,0 1-1,0 0 1,0-1-1,0 1 1,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-2 8-1,2-5-26,0-1 0,0 1 0,1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,2 1 0,0 6 0,-1-12 5,0 0 0,0 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,1-1 0,-1 1 0,2-2 0,0 1-14,1 0 0,0 0-1,-1-1 1,1 1 0,-1-1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 0 1,3-5 0,-4 4 111,0-2-1,0 1 1,-1 0 0,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,-1-6 1,1 10 26,0 28-329,0-22 218,0-1 0,1 1 0,-1-1 0,1 0 0,-1 2 0,1-2 0,1 0 0,-1 1 0,0-1-1,1 0 1,0 0 0,3 4 0,-4-6 2,1 0-1,-1-1 1,1 0 0,-1 1-1,1-1 1,0 0-1,1 0 1,-2 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0-1,1 1 1,-1-1 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0-1-1,4-2 1,0 1-2,0-1 1,0-1-1,0 1 1,0-1-1,-1 0 1,1 0-1,-1-1 1,0 0-1,-1 0 1,1 0-1,-1-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,0 0-1,0-1 1,-1 1-1,0 0 1,0-2-1,0 1 1,1-10-1,0-7-6,0-1 0,-1 1 0,-2-1 0,0 1-1,-5-27 1,4 44 49,1 3-8,0 0-1,-1 0 1,1 0-1,-1-1 1,0 1-1,0 0 1,0 0 0,-1 1-1,1-1 1,-1 1-1,-4-7 1,5 9 148,0 4-203,0 0 0,0 0 0,1-1 0,-1 1 1,1 0-1,0 0 0,0 0 0,0 0 1,1 4-1,-1-3 46,-2 58 246,0-28-135,1 0-1,2-1 1,6 35-1,-6-60-121,0 0-1,1 0 1,0 0-1,0-1 1,1 1-1,0 0 1,1 0-1,-1-1 0,1 0 1,1-1-1,-1 1 1,1-1-1,1 0 1,-1 1-1,2-1 1,-1-1-1,11 9 1,-12-12-13,0 1 1,0-1 0,1 0-1,-1 0 1,1 0 0,-1-1-1,1 0 1,-1 0 0,1 0-1,0-1 1,0 0 0,-1 0-1,1 0 1,0-1 0,-1 0-1,1 0 1,-1 0 0,1-1-1,-1 0 1,1 0 0,-1 0-1,0-1 1,0 1 0,0-1 0,0-1-1,-1 1 1,1 0 0,0-1-1,4-5 1,-2 1 18,0 1 1,0-1-1,0 1 1,-1-1-1,-1-1 1,1 1-1,-1-2 1,0 1-1,-1 0 1,0 0-1,-1-1 1,0 1-1,0-2 1,-1 1-1,1-18 1,-3 25-16,0 1 0,0 0 1,-1 0-1,1-1 0,-1 1 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,0 1 0,-1 2 0,0 2 10,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,1 0 0,-1 11 0,1-16-28,0 0 1,0 1-1,0-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,1 1 0,-1-2 1,1 1-1,-1 0 1,1 0-1,0-1 1,0 1-1,0-1 1,-1 1-1,2-1 1,0 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1-1 1,0 1-1,1-1 1,2 1-1,5 0-432,-1-1 0,1 0 0,-1 0-1,15-3 1,-21 3-154,0-1-1,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 1,0-1-1,0 0 0,5-3 0,7-12-6160</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54969.81">1445 1806 15559,'0'0'7924,"25"0"-8324,28 0 320,16-4-993,5-4-2689,2 0-3409</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55527.73">2367 1776 3330,'0'0'14454,"-15"3"-11978,-3 0-1726,7-2-195,0 1 0,0 0-1,1 1 1,-1 0 0,1 1 0,-21 9 0,31-13-542,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,12 4-2,16-1-146,-3-2 60,-1-1 1,1-1-1,0-1 0,0-1 0,-1-1 1,0-1-1,1-2 0,-1 0 1,0-1-1,29-17 0,-51 24 55,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-2 0,-2 2 13,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-2-1 0,-59-14 113,-27 9 679,89 6-777,16 8-243,25 12 249,-31-17-24,0 1 1,-1 0-1,1 1 1,-1 0-1,0 0 1,0 1-1,-1 1 1,1 0-1,-1 0 1,7 9-1,-14-15 17,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-2 1 0,-5 6-545,-1-1 0,1 1 0,-1-1 0,-14 8 0,14-10-953,-11 9-5760</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56860.18">3206 1743 2193,'0'0'17128,"-3"-6"-14053,3 6-3032,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,-2 108 451,5 124-854,0-215-439,0-5-2268,-3-3-3590</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57428.44">3206 1806 10741,'0'0'3618,"2"-15"-430,6-48-512,-8 60-2552,1 1 0,-1 0 1,1 0-1,-1-2 0,1 2 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 1 1,2-2-1,-3 2-66,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,3 2-1,1 1-14,-1-1 0,1 2-1,-1-1 1,1 0 0,-1 1 0,0 0 0,-1 0 0,1 2-1,-1-2 1,6 8 0,-6-6-29,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 2 1,1-2-1,-2 1 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 1 0,0 1 0,-1-2 0,0 1 0,-2 0 0,2-1 0,-1 1 0,0-1 1,-5 10-1,2-6-148,0 0 1,-1 0 0,0-1 0,-1 0 0,0 1-1,0-2 1,-1 0 0,0 0 0,0 0-1,-1-1 1,0-1 0,-11 8 0,20-13 112,-1-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-2 0,0 2 16,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 1,0 0-1,0-1 0,0 1 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,2 1 1,-1 0 43,0 0 0,1 1 0,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 1,2 2-1,36 45 468,-35-40-486,1-1 1,-1 0-1,1 0 0,2-1 1,11 12-1,-18-18-56,1 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 0 0,0 1 0,0-1-1,0 0 1,-1-1 0,5-1 0,-4 1-4,1 0 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,-1-1 0,1 0 0,0 0 1,-1 0-1,0 0 0,1-5 0,1-9 43,-1 1-1,-1 0 1,0-25 0,-1 28 88,-1 21 788,-1 2-472,1 1 0,1 0 0,-1 1 1,2-2-1,-1 1 0,3 10 0,-2-17-545,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,0 2 1,1-2-1,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,3 3 1,-2-3-211,-1-1 0,0 0 0,2 0 0,-2 0 0,1 0-1,0 0 1,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1-1 0,0 1 0,0 0 0,2-1 0,13-4-6880</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57571.1">3696 1784 1489,'0'0'22538,"-18"-46"-23162,29 62-1121,3 1-3233,5 4-8533</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58525.6">3798 1835 12310,'0'0'4703,"-13"-1"-1376,-43-5-1094,53 5-2163,1 1-1,-1 0 1,-1 0-1,2 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 2-1,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,0 1 1,0 0-1,-1 0 1,2 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 3-1,0-1-66,0 1-1,1-1 0,-1 0 0,1 1 0,0 0 1,1 0-1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 1,1 1-1,1 7 0,-1-11-26,-1 1 0,1-1 1,0 1-1,0-1 0,-1 0 0,1 2 1,0-2-1,0 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1-1 0,-1 1 1,0 0-1,1 0 0,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,3-1-1,-2 0 42,0 1-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,2 1 0,-2-1 0,0 1 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0-1,0 0 1,-1 0 0,4 3 0,1 3-5,-1 0 1,0 1 0,-1 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,-1 1 0,1-1-1,1 19 1,-1 6 45,0 52 0,-3-84-59,0 9 16,-1 0-1,-1 1 1,1-1-1,-1 0 1,-1-1-1,0 1 0,0-1 1,-1 1-1,-5 9 1,7-15-8,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 1,0 0-1,0 1 0,0-1 0,0 1 0,-1-2 0,1 1 0,-1 0 0,0-1 1,1 0-1,-2 0 0,1 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,0 0 0,-8 1 1,11-2-2,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0-2 0,-3-44 36,3 36-51,1 0-39,0 1-1,0-1 1,1 1-1,0-1 1,1 0-1,0 1 1,1 1-1,0-1 1,1-1-1,0 2 1,1 0-1,0 0 1,12-15-1,8-4-504,1 0-1,53-43 0,-54 52 265,-2-3 0,0 1 0,-1-1-1,27-40 1,-44 54 266,-1 0 1,-1-1-1,1 1 1,2-14-1,-5 19 148,-1 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,-1 0 0,1 0 1,-1-2-1,1 2 0,-3-5 0,3 9-82,0-1 0,-1 1 0,1 0-1,0-1 1,-1 1 0,1 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1 0,-17 13 263,11 1-244,1-1 0,0 1 0,1 0 0,1 1 0,0-1 0,-3 24 0,3 4 90,1 50 0,3-92-157,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 2 1,1-2-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,0-2-12,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 1,1-1-1,-1 0 0,1 1 0,-1-1 0,2-1 0,6-3-47,0-2-1,0 0 0,-1 0 0,13-13 1,-11 8 26,-8 9 38,0-1-1,0 1 1,0 0-1,1 0 1,-1 1-1,0-1 1,1 1-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,2 1 1,3-3-1,-5 7 10,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 1-1,0-1 1,0 1-1,0 1 1,1 3-1,1-2 49,-2-1-55,1-1-1,0 1 1,0-1 0,0 0-1,0 0 1,1 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,1-1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,0 0-1,0 0 1,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,1-2 0,-1 1 0,0 0-1,0-1 1,0 0 0,0 0 0,1-1-1,-1 1 1,6-3 0,-2 0-7,-1 0 0,0 0 1,0-1-1,0 0 0,0 0 0,-1-1 1,0 0-1,0 0 0,-1 0 0,1-1 1,-1 0-1,-1-1 0,1 0 0,-1 1 1,0-1-1,-1 0 0,0 0 0,4-14 0,-2-8-21,-2-1 0,-1 1-1,-1-1 1,-2 1-1,-4-36 1,4 62 36,0 3 1,1 0 0,-1-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 1 0,-2-2 0,1 6 19,0 1 1,0-1 0,0 1-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,1 6-1,-2 10-141,1 1 0,1-1 0,1 1 0,1 0 0,1-1 0,0 1 0,2-2 0,13 39 0,-10-35-2325,-4-5-2301</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58700.03">4267 1834 15975,'0'0'11301,"142"-73"-11285,-56 45-16,3-1-672,-10-2-704,-19 4-2770,-25 3-14535</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11734,7 +11734,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">78 55 13398,'0'0'9236,"-2"10"-8948,-24 88 390,-23 105 275,48-200-662,2-6-108,1-18-51,11-34-130,83-197-104,-96 252 109,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 1,-1 1-1,0 0 1,1-1-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 0 0,-1 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,1 0 0,20 46-27,-17-37 102,25 56 212,26 89-1,-33-58-2571,-22-83-3061</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="764.99">164 295 3922,'0'0'20705,"-5"-5"-20184,-18-15-289,23 20-237,-1 0 1,1-1 0,0 1 0,0-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,1-1 0,-1 1-1,1 0 1,-1-1 0,0 1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,31-9-174,-30 9 164,74-14-1089,9-2-3492,-68 12 1054,-1-1-1,29-12 1,-41 16 3004,-1-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,-1-1-1,3-2 1,10-27 2272,-11 9 5189,-4 1 5892,20 209-11809,-15-133-541,7-107 166,-3 24-575,-2 1-77,2 0 1,0 1-1,2 0 0,15-27 1,-26 54 14,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,7 12-119,3 17 14,-9-27 102,42 188 202,-40-211-131,0-1 1,1 1-1,2 0 1,0 0-1,11-24 1,-15 40-104,12-22-100,-14 26 136,1 1-1,-1-1 1,0 1 0,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0-1,1 0 1,-1-1 0,0 1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,1 1 0,-1-1-1,0 1 1,1-1 0,-1 0-1,0 1 1,0-1 0,0 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,16 33 131,0-1-1,-3 2 1,-1 0-1,12 54 1,-23-45-1191,-1-27-4608</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1061.85">1003 72 10837,'0'0'12750,"1"-8"-11953,-1 7-775,4-25 541,-2 19-191,1 21-91,3 63 392,-3 0-1,-3 1 0,-4-1 1,-15 84-1,14-127-1246,-1 59 1,6-92 421,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,1 2 0,16-2-7867,9-7-4702</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1061.84">1003 72 10837,'0'0'12750,"1"-8"-11953,-1 7-775,4-25 541,-2 19-191,1 21-91,3 63 392,-3 0-1,-3 1 0,-4-1 1,-15 84-1,14-127-1246,-1 59 1,6-92 421,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,1 2 0,16-2-7867,9-7-4702</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1618.65">1388 130 15239,'0'0'8073,"0"76"-5800,5 140-643,-5-215-1374,0-10 547,-4-115 52,3-92-1648,2 214 762,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,2 1 0,-1-1 18,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,-1 0 0,1 3 0,-1-3 25,0 0 0,1 0 0,-1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,-4 1 0,-45 22 187,41-21-322,1 1 0,-1 0-1,1 0 1,1 1-1,-18 13 1,21-11-1508</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2438.88">1687 117 10549,'0'0'13502,"0"104"-11520,-10 40-808,1-162-582,6-34-755,6-82 0,-3 130 153,1-10-76,0 1-1,1 0 1,0 0-1,1 0 0,1 0 1,0 0-1,1 1 1,11-23-1,-15 34 75,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,2 1 1,-1-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,3 0 0,-2 1 4,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,1 1 0,-1 0-1,0-1 1,2 3 0,3 7 7,1 0 1,-2 1-1,0 0 1,4 12-1,-3 3 71,-2 0-1,-1 1 0,-1-1 0,-1 1 0,-4 42 0,1 3 339,2-72-228,0-40-15,0 15-280,2 1 0,1-1-1,1 1 1,1-1 0,1 1 0,1 0 0,1 1-1,0 0 1,22-36 0,-29 56 110,0 0 0,0 0 0,0 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,3-1 0,-3 2 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,3 2 0,0 2 13,1-1 0,-1 2 1,0-1-1,0 0 1,0 1-1,-1 0 0,0 0 1,0 0-1,3 10 1,5 27 338,-1 0 1,-2 1 0,3 66 0,-9-58-3181,-1 0-3317</inkml:trace>
 </inkml:ink>
@@ -12020,7 +12020,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">6 31 176,'0'0'17043,"-4"76"-13999,4-53-3209,-1-14 352,1 0-1,0 0 1,0-1 0,1 1-1,3 13 1,-4-20-381,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,-1-1 0,1 1 0,0-1 1,0 1-1,0-1 0,0 0 0,3 0 0,24 0-5798</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="421.03">278 42 5715,'0'0'8193,"-14"-7"-6489,-44-22-804,56 28-880,0 0 0,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 1 1,1 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 2 1,-1 0-20,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,2 0 0,-1 0 0,0 0 0,1 0 0,2 8 0,-1-11-97,0 1-1,1-1 1,-1 1 0,1-1 0,0 0 0,-1 1-1,1-1 1,0-1 0,0 1 0,0 0-1,0-1 1,1 0 0,-1 1 0,0-1-1,1-1 1,-1 1 0,0 0 0,1-1-1,-1 0 1,1 1 0,6-2 0,-7 1-33,0 0-1,1 1 1,-1-2 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0-1,0-1 1,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1-1,1 0 1,2-6 0,-3 1 423,0-1-1,-1 1 1,1-1-1,-2 0 0,1-11 1,-2 15 2245,0 38-1663,0-10-648,0-11 37,1 0 1,0-1 0,1 1-1,2 14 1,-2-24-472,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,5 1 0,12-1-4497</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="812.52">529 42 10085,'0'0'8105,"-15"-3"-7948,-48-5-93,61 8-62,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,0 0 0,0 0 0,-1 3 0,0 1-1,0-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 8 0,1-13-33,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,2 0 0,1 0-7,0-1-1,1 1 1,-1-1 0,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,7-6 0,6-18 194,-7 14 2873,-3 37-1921,-2 30-608,-5-43-680,0 0-1,1 1 1,0-1-1,1 0 0,5 16 1,-6-26-73,-1 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,0 0 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,2-1 1,13 1-5166</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1125.13">687 47 5074,'0'0'14081,"0"11"-13758,-1 18-47,0-17-123,0 1 0,1 0 0,1-1 0,2 18 0,-2-28-148,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 0,1 1 0,0-1 21,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1-1 1,0 1 0,2-4-1,-2 1 33,1 0 1,-1-1-1,-1 1 0,1 0 1,-1-1-1,0 1 1,0-1-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,-1 1-1,0-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,-3-6 0,3 7-136,0 1 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,-1 1 1,0-1 0,1 0-1,-1 1 1,-1 0 0,-4-3 0,5 3-324,0 1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,0 1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,-5 3 0,-6 4-5595</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1125.12">687 47 5074,'0'0'14081,"0"11"-13758,-1 18-47,0-17-123,0 1 0,1 0 0,1-1 0,2 18 0,-2-28-148,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 0,1 1 0,0-1 21,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 0 1,1 0-1,-1-1 1,0 1 0,2-4-1,-2 1 33,1 0 1,-1-1-1,-1 1 0,1 0 1,-1-1-1,0 1 1,0-1-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,-1 1-1,0-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,-3-6 0,3 7-136,0 1 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,-1 1 1,0-1 0,1 0-1,-1 1 1,-1 0 0,-4-3 0,5 3-324,0 1 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,0 1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,-5 3 0,-6 4-5595</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12082,7 +12082,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547.62">791 131 8820,'0'0'5520,"7"0"-5051,5 1-311,-7-1-53,-1 0 0,1 0 1,0 0-1,-1 0 0,1-1 0,-1 1 0,6-3 1,-8 2-74,-1 1 1,1-1 0,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,-1 1 1,1-1 0,-1 1-1,1 0 1,-1-1-1,1 0 1,-1 1 0,0-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,-1-1-1,1-3 179,-1-18 783,1 23-924,0 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,-1-1 0,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,0 0 0,1 0-1,-1-1 1,0 1-1,-1 4-68,1 0-1,-1 1 1,1-1-1,1 0 1,-1 0-1,0 1 1,1 6-1,-1-5 7,-7 62 40,-3 23-3095,10-89 2999,1-1 0,-1 0 1,1 1-1,-1-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1-1 1,0 1-1,-2 1 0,0 2 1003,16-5-485,4-1-457,0-2 0,-1 0 0,0-1 0,0-1 0,25-11 0,6-3-1404,-17 7-895,-6 2-1845</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916.37">1062 18 3394,'0'0'10300,"-10"9"-9932,-31 29-127,40-37-238,0 1 0,0-1 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 1,1 1-1,0-1 0,-1 1 0,1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,3 2 1,2 2 10,1 0 1,0 0 0,1-1 0,-1 0 0,10 3 0,-11-4 22,-13 1 2684,-23 1-1250,-6-1-2666,8-2-4086</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1110.27">1131 3 9700,'0'0'5283,"11"59"-5283,-7-40 0,0-6-945,-4 0-3345</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1238.66">1106 75 12038,'0'0'3361,"92"-57"-3361,-51 48-16,-6 5-336,-13 0-1441,-6 4-6051</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1238.65">1106 75 12038,'0'0'3361,"92"-57"-3361,-51 48-16,-6 5-336,-13 0-1441,-6 4-6051</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12673,7 +12673,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2 69 8020,'0'0'7979,"0"-6"-5640,0 3-1147,0 6-798,0 223 441,-2-219-543,2-7-425,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 1 1,-1-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,12-3-6864</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="542.53">164 165 5555,'0'0'9876,"0"-8"-9145,-1-1-578,1 6-57,0-1-1,-1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 1,1-1-1,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,6-3 0,-6 3-70,1 0-1,0 0 1,0 1 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,1 1-1,-1-1 1,6 1 0,-7 0-23,-1 0 0,0 1 1,0-1-1,1 0 0,-1 1 1,0 0-1,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,0 3 0,0 2 5,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,0 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,-1-1 0,-4 9 0,-2-1 35,0 0-1,-1-1 1,-16 17 0,-3 2 47,28-31-91,1 1 1,0-1-1,-1 0 1,1 0 0,0 1-1,-1-1 1,1 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 0-1,0 1 1,0-1 0,0 0-1,1 1 1,-1-1-1,0 0 1,0 1 0,1-1-1,-1 0 1,1 1-1,22 5 51,38-7 145,-54 1-171,-1 0 29,0-1-1,0 0 1,1 0-1,-1-1 1,0 0-1,0 0 1,0 0 0,9-6-1,2-3-7414,-2 5-945</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="826.26">531 119 12166,'0'0'7366,"1"-8"-7206,8 7-29,-1 0 0,1 0 0,0-1 1,0 0-1,-1-1 0,1 0 0,-1 0 1,0-1-1,8-4 0,-15 8 19,-5 10-10979</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1309.84">723 145 10101,'0'0'7118,"5"-12"-6281,21-41-127,-24 50-653,0 0 1,0 0-1,1-1 1,-1 2-1,1-1 1,-1 0-1,1 0 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,1 1 0,-1-1 1,1 1-1,0-1 1,5 0-1,0 0 16,-1 1-1,0 1 0,1-1 0,-1 1 0,15 2 0,-21-1-70,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1 0 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0 0 0,0-1 1,0 3-1,-3 47 23,1-45-15,0-1 0,0 0 1,-1 0-1,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-8 6 0,-47 35 148,44-35-134,19-7 681,17-2-381,21-3-16,8-4-786,-17 4-4759,-15 1 57</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1309.83">723 145 10101,'0'0'7118,"5"-12"-6281,21-41-127,-24 50-653,0 0 1,0 0-1,1-1 1,-1 2-1,1-1 1,-1 0-1,1 0 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,1 1 0,-1-1 1,1 1-1,0-1 1,5 0-1,0 0 16,-1 1-1,0 1 0,1-1 0,-1 1 0,15 2 0,-21-1-70,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1 0 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0 0 0,0-1 1,0 3-1,-3 47 23,1-45-15,0-1 0,0 0 1,-1 0-1,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-8 6 0,-47 35 148,44-35-134,19-7 681,17-2-381,21-3-16,8-4-786,-17 4-4759,-15 1 57</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1714.16">1037 104 9700,'0'0'9602,"9"-11"-9210,29-36-189,-36 45-185,0 0 1,-1 1-1,1-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 1-1,0-1 0,0 1 0,1-1 1,-1 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,-1 1 0,1-1 1,0 1-1,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 1,1 4-1,-2-1-16,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,0 0 1,0 0-1,0-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0-1 0,-5 7 1,-3 2 66,-1-1 0,0 0 1,-14 12-1,-14 15 193,39-39-150,20 0 126,-4-1-22,1 0-1,-1-2 1,0 0-1,24-8 1,-22 11-1480,-9 0-1861,2 0-1896</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1994.61">1432 137 12502,'0'0'9153,"4"-2"-8966,136-52 421,-130 51-1569</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2430.77">1722 113 11381,'0'0'7289,"6"-13"-5955,22-41-555,-25 50-720,0 1 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1-1,1 1 1,0 0 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 1 0,8-2 0,0 2 14,0 0 1,-1 0-1,1 1 0,13 1 0,-24 0-70,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,1 1 0,-1 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 1 0,-1-1 0,1 0-1,-1 0 1,1 1 0,-1-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0 1 0,1 1-8,-1 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-3 7 0,-2-2 18,-1 0 0,0 0-1,-1-1 1,0 0 0,0 0-1,0-1 1,-1 0-1,0 0 1,-11 5 0,6-3 90,1 0 1,0 1 0,-20 21 0,33-31-91,0 0-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,23 4 164,25-5-218,-31-1-701,-1-1-1,0-1 1,0 0-1,28-12 1,22-17-9000,-43 18 3425</inkml:trace>
@@ -12783,7 +12783,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">8 69 2193,'0'0'18323,"-7"-16"-14948,14 205-2884,1-357-403,-8 167-99,19 43-437,-10-15 473,0-2 0,26 48 0,-31-69-20,-1-3-2,-1-2-7,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,0-1 0,-1 1-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 1 1,1-5 0,13-36 27,-7-2 10,-7 44-44,-1 0 0,1 0-1,-1 0 1,1 1 0,0-1-1,-1 0 1,1 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 1 1,0-1 0,1 0-1,-1 1 1,0-1-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,1 2 1,3 17 100,0 1 0,-1 0 0,1 39 0,-4-8-5444,0-34 1253,0-9-1467</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="621.33">217 156 4066,'0'0'12598,"1"-9"-11555,2-27-392,8 75 491,-3 106 514,-7-156-1511,1 0-1,0 0 0,0 0 1,1 0-1,6-13 0,-5 13-148,0 0-1,-1 0 0,0-1 1,-1 1-1,1-17 0,0 26-83,2 7 7,3 8 31,-1 17 49,-3-13 16,0 0 0,-1 0 0,1 23 0,4-45 151,0-6-127,64-130-180,-71 141 139,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 1-1,4 14-109,20 106 85,-23-120-246,-1 1-1,1-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 1-1,2 0 1,8 3-4457</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="621.32">217 156 4066,'0'0'12598,"1"-9"-11555,2-27-392,8 75 491,-3 106 514,-7-156-1511,1 0-1,0 0 0,0 0 1,1 0-1,6-13 0,-5 13-148,0 0-1,-1 0 0,0-1 1,-1 1-1,1-17 0,0 26-83,2 7 7,3 8 31,-1 17 49,-3-13 16,0 0 0,-1 0 0,1 23 0,4-45 151,0-6-127,64-130-180,-71 141 139,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 1-1,4 14-109,20 106 85,-23-120-246,-1 1-1,1-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,0 1-1,1-1 1,-1 0 0,0 0 0,0 1-1,2 0 1,8 3-4457</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="929.27">655 25 10405,'0'0'9772,"-1"-6"-9220,-4-12-378,2 19-74,1 36-16,0 2-15,-10 47 149,-4 0-1,-29 92 0,29-123-348,15-41-2355</inkml:trace>
 </inkml:ink>
 </file>
@@ -12975,12 +12975,12 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">84 27 7475,'0'0'10202,"-18"-21"-4855,17 20-5348,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 1,-1 0-1,-1 0 0,1 1-4,0 0 1,1 0 0,-1 1-1,0-1 1,0 0-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 1-1,-1 4 1,-1 6-16,0 0 0,1 0 0,0 0 0,1 16 0,1-22 14,0-1 0,0 1 0,0-1 0,1 1 0,0-1-1,1 1 1,-1-1 0,5 11 0,-5-14 5,1-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,1-1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 0 0,-1 0-1,1 0 1,4 0 0,-3 0 14,-1 0 1,1 0-1,0-1 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,0-1 1,4-4-1,-4 2-7,0 0 0,0 0 1,-1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 1,0 1-1,0-1 0,0 1 0,-1-1 0,0-6 1,1-7 2,0 14 8,0 0 0,-1-1-1,0 1 1,0-1-1,0 1 1,0 0 0,-1-1-1,0 1 1,-3-10 0,2 13-14,0 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,-1-1 0,1 1 0,-1-1 1,1 1-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 1,-5 3-1,6-3-149,-1 0 0,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0 0 0,0 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1087.5">295 27 4370,'0'0'12518,"1"14"-7672,2 46-4863,8 34 403,19-136 839,-23 30-1184,0 1-22,1 1 0,-1-1 1,2 1-1,-1 0 0,1 1 1,15-12-1,-9 75 179,-13-42-150,0 0 27,0 0 0,1 1 1,0-1-1,1-1 0,9 22 1,-12-31-60,0 0 0,1-1 1,-1 1-1,0 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,3 1-1,-2-2 1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1-1 0,0 1 0,-1 0 0,3-3 0,1 0-4,0 0-1,-1 0 1,1 0-1,-1-1 1,0 0-1,0 0 1,-1-1-1,1 1 1,-1-1 0,-1 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,-1-1 1,0 1-1,0-1 1,0 0-1,-1 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0 0-1,-2-11 1,2 17-21,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,-1 1 1,1 0-1,-1 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 1 0,-2 0 0,0 1-7,0 0 0,0-1-1,-1 1 1,1 0-1,1 1 1,-1-1-1,0 0 1,0 0 0,1 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-1 2 1,1 0 12,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 0,1 0 0,0 0 0,3 7 0,-2-10 6,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,1 0 1,2-1 0,3 1 19,-1-1-1,1 0 1,-1 0 0,1-1 0,-1 1-1,0-2 1,0 1 0,0-1 0,0 0-1,0-1 1,-1 1 0,1-1 0,7-7-1,-10 8-469,0-1 0,0 0-1,0 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,-1 0 0,0 0-1,2-7 1,0-10-5259</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2471.82">345 517 6051,'0'0'16004,"-29"-28"-14389,28 27-1620,0 0 0,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 0,0 1 1,1-1-1,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,-2 1 0,2 0-4,0 0-1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 3 0,1-4-38,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,4 3 0,36 23-354,-17-11 178,-15-9-8,10 10 620,-19-16-365,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,-1 0-1,-74 5-97,71-5-156,7-12-10164,10 0 2462</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2702.11">407 519 8628,'0'0'8004,"11"17"-6782,-3 11 11,9 56 0,-17-84-1237,0 1-123,0-1 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2859.06">456 444 13286,'0'0'6035,"0"11"-8804,0 5 175,-3-5-4689</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4137.01">456 444 7700,'25'65'4714,"-21"-51"325,2 36-2437,-6-42-2340,0 0 0,1 0 0,0 0 0,0 0 1,1 0-1,3 9 0,-5-17-250,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 0,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0-1 1,14-21 139,-13 19-108,36-53 183,-36 56-134,-1 2-155,-1 1 0,1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0-1,-1-1 1,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,5-1 0,-3 1-79,-1 0 0,1-1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,-1-1 1,1-1-1,-1 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 1,1-5-1,-6-24 2083,5 33-1846,0-1 0,0 0-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 1-1,0 0 1,-1 0-95,1 1-1,-1-1 0,1 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 3 0,-1 40-48,1-37 45,2 31 3,8 47 1,-5-55 131,-2 1 0,0 55 0,-4-83-109,0 0 0,1 0 0,-2 0 0,1 0 0,0 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-4 4 0,4-5 37,1 0 1,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0 0,-3-1 0,4 0-38,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0-4-1,1-50-171,-1 55 145,2-11-151,0 0-1,1 0 1,1 0 0,0 0 0,0 1 0,1 0 0,12-20 0,55-76-1175,-31 51 721,-35 47 695,1-1 1,-1 1-1,-1-1 1,0-1 0,0 1-1,-1-1 1,0 0-1,-1 0 1,0 0 0,-1 0-1,0 0 1,0-23-1,-2 34-76,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,-8 8-24,3 1 31,1-1 0,0 1-1,0 0 1,1 0 0,1 0-1,-1 0 1,1 0 0,1 0 0,-1 1-1,2-1 1,-1 1 0,1-1-1,1 1 1,2 13 0,-2-19-10,-1 0 1,1-1-1,0 1 1,1 0 0,-1 0-1,1-1 1,0 1-1,-1-1 1,2 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0-1-1,0 0 1,1 1-1,-1-1 1,0 0-1,1-1 1,0 1 0,-1-1-1,1 1 1,0-1-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0-1 1,7 0 0,-7 0 10,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,2-4 1,-1 3-8,0-1 0,-1 1 0,0-1 0,0 0 1,-1 1-1,0-1 0,0 0 0,0 0 1,0 0-1,-1 0 0,0 0 0,0 0 0,-1 0 1,-1-7-1,2 12-25,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,1 1 0,-1-1 0,0 1 0,0 0-1,-2-1 1,2 1 4,-1 0 0,1 0 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,0 0-1,-2 2 1,-2 2 4,0 0-1,1 0 1,0 1-1,0 0 1,0 0-1,-4 10 1,6-11 2,0 0 0,0 0 1,1 1-1,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,1 1 1,1-1-1,-1 1 1,1-1-1,0 1 0,0-1 1,4 10-1,-3-12 3,-1 0 0,1-1-1,0 1 1,0-1 0,1 0 0,-1 1-1,0-1 1,1 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1-1 0,-1 1-1,0-1 1,0 0 0,0 0 0,0-1-1,1 1 1,3-2 0,-1 1-174,0 0 0,-1 0 1,1-1-1,0 0 0,-1 0 0,1-1 1,-1 0-1,0 0 0,6-4 0,-4 2-800,0-1-1,-1 0 1,1 0-1,-1 0 1,7-11-1,1-6-9398</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">84 28 7475,'0'0'10202,"-18"-22"-4855,17 21-5348,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 1,-1 0-1,-1 0 0,1 1-4,0 0 1,1 0 0,-1 2-1,0-2 1,0 0-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 1-1,-1 4 1,-1 7-16,0-1 0,1 1 0,0-1 0,1 18 0,1-24 14,0-1 0,0 1 0,0 0 0,1 0 0,0-1-1,1 1 1,-1 0 0,5 10 0,-5-14 5,1-1 0,0 1-1,-1-1 1,1 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,1-1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 0 0,-1 0-1,1 0 1,4 0 0,-3 0 14,-1 0 1,1 0-1,0-1 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,0-2 1,4-3-1,-4 2-7,0 0 0,0 0 1,-1-1-1,0 1 0,0 0 0,0-1 0,0 1 0,-1-2 1,0 2-1,0-1 0,0 1 0,-1-2 0,0-5 1,1-8 2,0 15 8,0 0 0,-1-1-1,0 0 1,0 0-1,0 1 1,0 0 0,-1-1-1,0 0 1,-3-9 0,2 13-14,0 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,-1-1 0,1 1 0,-1-1 1,1 1-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 1,-5 3-1,6-3-149,-1 0 0,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 2 1,0-1-1,0 0 0,0 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1087.5">295 28 4370,'0'0'12518,"1"15"-7672,2 47-4863,8 36 403,19-142 839,-23 31-1184,0 2-22,1 1 0,-1-2 1,2 2-1,-1-1 0,1 2 1,15-13-1,-9 78 179,-13-43-150,0-1 27,0 1 0,1 0 1,0 0-1,1-2 0,9 23 1,-12-32-60,0 1 0,1-2 1,-1 1-1,0 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,3 1-1,-2-2 1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1-1 0,0 1 0,-1 0 0,3-3 0,1 0-4,0 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 0 1,-1-2-1,1 2 1,-1-1 0,-1 0-1,1 0 1,-1-1-1,0 0 1,0 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,-1 0 1,0-1-1,0 1 1,-1 0-1,0-1 1,0 1-1,-2-12 1,2 18-21,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 1 0,0-1 1,-1 0-1,1 1 0,0-1 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,-1 1 1,1 0-1,-1 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 1 0,-2 0 0,0 1-7,0 0 0,0-1-1,-1 1 1,1 0-1,1 1 1,-1-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-1 2 1,1 0 12,0 2 0,0-2 0,0 0 0,1 0 0,0 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 0 0,0 1 0,3 6 0,-2-10 6,-1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,0 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,1 0 1,2-1 0,3 1 19,-1-1-1,1 0 1,-1 0 0,1-1 0,-1 1-1,0-2 1,0 1 0,0-1 0,0 0-1,0-2 1,-1 2 0,1-1 0,7-7-1,-10 8-469,0-2 0,0 1-1,0 0 1,-1 0-1,0 0 1,0 0-1,0-1 1,0 0-1,0 0 1,-1 0 0,0 0-1,2-8 1,0-10-5259</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2471.82">345 537 6051,'0'0'16004,"-29"-29"-14389,28 28-1620,0 0 0,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,1-1-1,-1 2 1,0-1-1,0 0 0,0 1 1,1-1-1,-1 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0 1-1,-2 0 0,2 0-4,0 0-1,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 2 1,0-1-1,0-1 0,0 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 4 0,1-5-38,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 2 0,1-2 0,-1 0 0,4 3 0,36 24-354,-17-12 178,-15-8-8,10 9 620,-19-16-365,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 1,-1 1-1,1-2 0,0 1 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,-1 0-1,-74 5-97,71-5-156,7-12-10164,10-1 2462</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2702.11">407 539 8628,'0'0'8004,"11"18"-6782,-3 11 11,9 58 0,-17-87-1237,0 1-123,0-1 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0-1,0 1 1,1-1 0,-1 0 0,0 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2859.06">456 461 13286,'0'0'6035,"0"12"-8804,0 4 175,-3-4-4689</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4137.01">456 461 7700,'25'68'4714,"-21"-54"325,2 38-2437,-6-44-2340,0 1 0,1-1 0,0 0 0,0 1 1,1-1-1,3 10 0,-5-18-250,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 0,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0-2 1,14-20 139,-13 19-108,36-56 183,-36 59-134,-1 2-155,-1 2 0,1-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0-1,-1-1 1,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,5-1 0,-3 1-79,-1 0 0,1-1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,-1-1 1,1-2-1,-1 2 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-2 1,1-4-1,-6-25 2083,5 34-1846,0-1 0,0 0-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 1-1,0-1 1,-1-1 0,1 2 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 1-1,0 0 1,-1 0-95,1 1-1,-1-1 0,1 1 1,0 1-1,0-2 0,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 4 0,-1 40-48,1-37 45,2 31 3,8 49 1,-5-56 131,-2 0 0,0 57 0,-4-86-109,0 0 0,1 1 0,-2-1 0,1 0 0,0 0 0,-1-1 0,0 1 0,0 1 0,0-2 0,0 1 0,0-1 0,-4 4 0,4-5 37,1 0 1,-1-1 0,1 1 0,-1-1 0,0 2 0,0-2 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0 0,-3-1 0,4 0-38,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0-1 0,0-3-1,1-52-171,-1 57 145,2-11-151,0-1-1,1 1 1,1-1 0,0 1 0,0 0 0,1 1 0,12-21 0,55-79-1175,-31 52 721,-35 50 695,1-1 1,-1 0-1,-1 0 1,0-1 0,0 0-1,-1 0 1,0-1-1,-1 1 1,0-1 0,-1 1-1,0 0 1,0-25-1,-2 36-76,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,-8 9-24,3 0 31,1-1 0,0 2-1,0-1 1,1 0 0,1 1-1,-1-1 1,1 0 0,1 1 0,-1 0-1,2-1 1,-1 2 0,1-2-1,1 2 1,2 12 0,-2-18-10,-1-1 1,1-1-1,0 1 1,1 0 0,-1 0-1,1-1 1,0 2-1,-1-2 1,2 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,1 0-1,0 1 1,0-1 0,0-1-1,0 0 1,1 1-1,-1-1 1,0 0-1,1-1 1,0 1 0,-1-1-1,1 1 1,0-1-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0-1 1,7 0 0,-7 0 10,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,2-5 1,-1 4-8,0-1 0,-1 1 0,0-2 0,0 1 1,-1 1-1,0-1 0,0-1 0,0 1 1,0 0-1,-1 0 0,0 0 0,0-1 0,-1 1 1,-1-7-1,2 12-25,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,1 1 0,-1-1 0,0 1 0,0 0-1,-2-1 1,2 1 4,-1 0 0,1 0 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,0 0-1,-2 2 1,-2 2 4,0 1-1,1-1 1,0 1-1,0 0 1,0 1-1,-4 9 1,6-11 2,0 1 0,0-1 1,1 1-1,0-1 1,0 1-1,0 0 0,1 0 1,-1-1-1,1 1 1,1-1-1,-1 2 1,1-2-1,0 1 0,0-1 1,4 11-1,-3-13 3,-1 0 0,1-1-1,0 1 1,0-1 0,1 0 0,-1 2-1,0-2 1,1 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1-1 0,-1 1-1,0-1 1,0 0 0,0 0 0,0-1-1,1 1 1,3-2 0,-1 1-174,0 0 0,-1 0 1,1-1-1,0 0 0,-1 0 0,1-1 1,-1 0-1,0-1 0,6-3 0,-4 2-800,0-1-1,-1 0 1,1-1-1,-1 1 1,7-12-1,1-5-9398</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13041,30 +13041,30 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1326 4690,'1'-1'14409,"3"1"-9811,28-4-4772,8-1 343,76-18 1,-113 24-971,-2 7-7568,-1-6 7753</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4090.21">4 330 3618,'0'0'11760,"1"-7"-11115,0-3-194,1-6-154,-2-3 4376,31 12-4203,-21 4-466,34-11 59,0-1-1,69-35 1,-128 60-2777,-35 25-8424,25-21 3989</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3840.32">74 191 9220,'0'0'8076,"0"-6"-7401,0 5-666,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,12 21 442,9 51 472,-21 5 160,-1-23-3248,5-19-5738</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3452.36">460 119 7459,'0'0'8820,"-6"-3"-8321,4 2-481,1 1-1,0-1 1,-1 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1-1,-1 0 1,1-1 0,0 1-1,0 0 1,-1-1-1,0 2 1,-2 2 84,1 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,1 0 1,0 0-1,-3 5 1,2-1 85,-1 0 0,1 0 0,1 0-1,0 0 1,0 1 0,-1 17 0,3-24-165,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,1 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,1 1 0,-1-1 0,0 1 0,1-1-1,-1 0 1,1 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,1-1 0,-1 1-1,4 1 1,7 1-44,0 0-1,0-1 0,0 0 0,0-1 1,0 0-1,0-1 0,1-1 1,16-1-1,-9 1-637,-24-1 205,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,-2-2 0,-5-4-1948,-11-5-2723</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3252.4">428 153 6451,'0'0'10069,"78"-91"-8757,-54 77-239,9 2-17,0 0-480,-4 3-127,-9 2-161,-4 2-144,-11 3-48,-1 2-96,-4 7-1729,0 11-1504,0 6-1714</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2222.59">49 825 6947,'0'0'15138,"22"-12"-13922,2-2-1171,0 1 0,1 2 0,0 0 0,43-12-1,-67 22-33,-9 27-2660,2-15-398,3-3-2163</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1810.74">407 696 1649,'0'0'13635,"4"-6"-11882,13-16-179,-18 22-1519,1 0 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1 0,0-1 0,-1 0 0,-19 3-42,18 0 15,-1 0 1,0 0-1,1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,1 1 0,0 0 0,-1-1 1,1 1-1,1 0 0,-1 0 0,0 5 0,0-6-9,1 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,1 1 1,0 0-1,3 3 1,2-1 8,1 0 1,0-1 0,0 0-1,0 0 1,0-1-1,1 0 1,12 2 0,-11-2 0,1 0 1,-1 1 0,18 8 0,-28-12-33,0 0 0,1 1-1,-1-1 1,0 0 0,0 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,0 0-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0-1,-1 0 1,-15 9-380,7-7-1157,1 0-1,-1 0 1,1 0-1,-14-1 1,5-1-3867</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1570.17">365 696 11477,'0'0'8884,"103"-87"-8291,-78 78-161,-5-1-208,1 1-96,-1 2-32,1 0-80,-9 2-32,-4 3 0,0 2-432,-4 0-1057,1 0-1824</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1047.74">202 799 3506,'0'0'4383,"0"-10"-2817,0-22-856,0 9 2451,-46 25-995,45-2-2133,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 0 1,-1 1-1,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,1-2 0,0-9 2353,-1 32-2255,0-5-14,0 1 0,1 0 0,1-1 0,1 1 0,0-1 0,1 0 0,0 0 0,8 17 0,-1-18-350,-6-14-4899,-1-8-308</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1816.54">112 1255 3794,'0'0'11677,"0"-11"-8486,-2 71-2475,0-26-506,2 0-1,4 36 1,-4-69-393,0 0 0,1 0 0,-1 0 0,0 0 1,0 1-1,1-1 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1-1 0,1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,2 0 0,13 0-5771</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2156.51">419 1173 10741,'0'0'7032,"-4"-3"-6514,3 3-508,1-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,0 1 0,0 29 386,1-12-275,1-10-49,1 1-1,-1-1 1,1 0 0,1 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,9 12 0,-7-11 0,0-1 0,-1 1 1,0 0-1,-1 0 1,1 1-1,-2-1 1,1 1-1,-1-1 0,2 17 1,-6-3-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2356.27">419 1165 9668,'0'0'8804,"74"-87"-8627,-42 73-65,1 2 64,-4 1-96,-4 4-80,-9 2-32,-4 5-513</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3049.44">49 1894 9444,'0'0'5699,"17"0"-5155,3 0 128,5 0-143,-1-9-305,1-1-80,0 1-144,-9 0 0,-4 4-352,-3 0-625</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3287.45">128 1792 8740,'0'0'7011,"0"47"-6242,0-28-257,0 0-352,0-1-48,4 1-80,0-7-32,4 2-704,1-5-689,-1-2-2033</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3655.69">365 1742 7411,'0'0'7703,"-3"2"-7100,2-2-547,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 3 0,1 0 35,0-1 0,0 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,1 1-1,-1-1 1,4 4 0,11 8 232,0-2 0,35 21 0,-50-32-310,0 0 11,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 1 1,1-1 0,-1 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 1-1,0-1 1,0 1 0,0 0 0,1 1-1,-2-2-33,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,0 0 1,0 0 0,-3 2-448,1-1 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,-6 0 0,-6 0-4905</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3825.65">374 1774 1697,'0'0'13878,"111"-85"-13142,-70 69-287,-8-1-225,-4 8-160,-17 2-64,-8 7-480</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4406.32">160 2265 10165,'0'0'10831,"0"-8"-10036,0-21-232,0 21-211,0 26-55,10 89 850,-2-41-3929,-5-23-6522</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4567.21">131 2389 7908,'0'0'10853,"41"-45"-10469,-20 36 64,8 2-304,-5-2-128,5 2-16,4 2-432,-13 3-1745,1 2-2273</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4975.43">518 2224 10165,'0'0'8241,"-10"-1"-7620,-31-2-274,40 3-328,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1-1,0 1 1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1-1,0 2 1,5 21 613,3-13-447,1 0 0,1-1 0,0 0 0,0 0 0,0-1 0,16 8 0,34 30 70,-59-45-251,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 1-1,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 0,-1-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,0 1 0,-2 0 4,1-1-1,0 1 1,0-1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,-1-1 1,-2 2 0,-43 16-2684,6-15-5585,29-8 1212</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5162.16">497 2185 10085,'0'0'11253,"91"-61"-10869,-63 49-32,5 1-160,-4 4-144,-4 2-32,-1 2-16,-7 3-352,-5 0-1537,-8 0-2225,-4 8-4274</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6373.18">202 2768 10389,'0'0'7056,"-2"-8"-6354,-4-36 1686,6 49-2028,0 212 456,0-123-6418,0-93 5240,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 0,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1-1 1,-2 2-1,-3-1-4379</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6529.75">107 3019 7155,'0'0'11750,"25"-87"-11254,0 73-112,-1 2-224,1 3-48,0-1-112,-1 6-48,-3 1-1489,-1 1-1584,-3 2-3890</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6921.83">547 2722 10533,'0'0'8244,"-11"-5"-7703,-30-14-135,40 19-398,1-1 0,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 1,0 0-1,-1 1 0,1-1 1,-1 0-1,1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 2-1,-1 24 213,1-23-150,0 2-46,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,5 8 0,1-2 21,1 0-1,0 0 1,18 12-1,-18-15-25,-1 1 1,1 0-1,-1 0 0,-1 1 1,14 18-1,-20-25 7,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,-1-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,-1 0 0,1-1 1,0 1-1,-1-1 0,0 1 1,1-1-1,-1 1 0,0-1 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,-4 2 1,1 0-223,0-1 0,0 1 0,-1-1 1,0 0-1,-10 4 0,-28 2-6151,39-9 829</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7109.56">534 2809 1185,'0'0'15671,"33"-87"-14295,-8 61-223,3 0-353,5 3-368,4 2-95,-8 4-129,0 6-128,-13 4 0,-4 4-80,-3 3-192,-5 0-1281,-4 5-1376,0 9-1089,0-2-5923</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1359 4690,'1'-1'14409,"3"1"-9811,28-5-4772,8 0 343,76-18 1,-113 24-971,-2 7-7568,-1-6 7753</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4090.21">4 338 3618,'0'0'11760,"1"-7"-11115,0-3-194,1-7-154,-2-2 4376,31 12-4203,-21 4-466,34-12 59,0 0-1,69-36 1,-128 61-2777,-35 26-8424,25-22 3989</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3840.32">74 196 9220,'0'0'8076,"0"-6"-7401,0 4-666,-1 1 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,12 21 442,9 53 472,-21 5 160,-1-24-3248,5-19-5738</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3452.36">460 122 7459,'0'0'8820,"-6"-3"-8321,4 2-481,1 1-1,0-1 1,-1 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1-1,-1 0 1,1-1 0,0 1-1,0 0 1,-1-1-1,0 2 1,-2 2 84,1 1 1,-1-1-1,1 1 0,0-1 1,0 2-1,1-1 1,0 0-1,-3 5 1,2-1 85,-1 0 0,1 1 0,1-1-1,0 0 1,0 1 0,-1 18 0,3-25-165,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,1 1 0,0-2 0,-1 1 0,1 0-1,0-1 1,1 1 0,-1-1 0,0 1 0,1-1-1,-1 0 1,1 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,1 0 0,-1 0-1,4 1 1,7 1-44,0 0-1,0-1 0,0 0 0,0-1 1,0 0-1,0-1 0,1-1 1,16-1-1,-9 1-637,-24-1 205,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,-2-2 0,-5-4-1948,-11-6-2723</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3252.4">428 157 6451,'0'0'10069,"78"-94"-8757,-54 80-239,9 2-17,0 0-480,-4 2-127,-9 3-161,-4 2-144,-11 3-48,-1 2-96,-4 7-1729,0 12-1504,0 5-1714</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2222.59">49 845 6947,'0'0'15138,"22"-12"-13922,2-2-1171,0 0 0,1 3 0,0 0 0,43-13-1,-67 23-33,-9 28-2660,2-16-398,3-3-2163</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1810.74">407 713 1649,'0'0'13635,"4"-6"-11882,13-17-179,-18 23-1519,1 0 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1 0,0-1 0,-1 0 0,-19 3-42,18 0 15,-1 1 1,0-1-1,1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,1 1 0,0 0 0,-1-1 1,1 1-1,1 1 0,-1-1 0,0 5 0,0-6-9,1 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0-1-1,1 1 1,0 0-1,3 3 1,2-1 8,1 1 1,0-2 0,0 0-1,0 0 1,0-1-1,1 0 1,12 2 0,-11-2 0,1 0 1,-1 1 0,18 9 0,-28-13-33,0 0 0,1 1-1,-1-1 1,0 0 0,0 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,0 0-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0-1,-1 0 1,-15 9-380,7-7-1157,1 0-1,-1 0 1,1 0-1,-14-1 1,5-1-3867</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1570.17">365 713 11477,'0'0'8884,"103"-89"-8291,-78 80-161,-5-2-208,1 2-96,-1 2-32,1 0-80,-9 2-32,-4 3 0,0 2-432,-4 0-1057,1 0-1824</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1047.74">202 819 3506,'0'0'4383,"0"-11"-2817,0-21-856,0 8 2451,-46 26-995,45-2-2133,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 0 1,-1 1-1,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,1-2 0,0-9 2353,-1 32-2255,0-4-14,0 0 0,1 1 0,1-2 0,1 1 0,0 0 0,1-1 0,0 0 0,8 18 0,-1-18-350,-6-15-4899,-1-9-308</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1816.54">112 1286 3794,'0'0'11677,"0"-11"-8486,-2 72-2475,0-26-506,2 0-1,4 36 1,-4-70-393,0 0 0,1 0 0,-1 0 0,0 1 1,0 0-1,1-1 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1-1 0,1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,2 0 0,13 0-5771</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2156.51">419 1202 10741,'0'0'7032,"-4"-3"-6514,3 3-508,1-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,0 1 0,0 29 386,1-11-275,1-11-49,1 1-1,-1-1 1,1 1 0,1-1-1,0 0 1,0 0 0,1 0-1,-1 0 1,9 11 0,-7-11 0,0-1 0,-1 2 1,0-1-1,-1 0 1,1 1-1,-2-1 1,1 2-1,-1-2 0,2 17 1,-6-2-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2356.27">419 1194 9668,'0'0'8804,"74"-90"-8627,-42 76-65,1 2 64,-4 1-96,-4 3-80,-9 3-32,-4 5-513</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3049.44">49 1940 9444,'0'0'5699,"17"0"-5155,3 0 128,5 0-143,-1-9-305,1-1-80,0 1-144,-9 0 0,-4 3-352,-3 1-625</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3287.45">128 1836 8740,'0'0'7011,"0"48"-6242,0-28-257,0-1-352,0 0-48,4 0-80,0-7-32,4 3-704,1-6-689,-1-2-2033</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3655.69">365 1785 7411,'0'0'7703,"-3"2"-7100,2-2-547,-1 1 0,1-1 1,0 1-1,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0 2 0,1 0 35,0-1 0,0 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,1 1-1,-1-1 1,4 5 0,11 7 232,0-2 0,35 22 0,-50-33-310,0 0 11,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 1 1,1-1 0,-1 0 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 1-1,0-1 1,0 1 0,0 1 0,1 0-1,-2-2-33,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,0 0 1,0 0 0,-3 2-448,1-1 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,-6 0 0,-6 0-4905</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3825.65">374 1818 1697,'0'0'13878,"111"-88"-13142,-70 72-287,-8-1-225,-4 7-160,-17 3-64,-8 7-480</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4406.32">160 2321 10165,'0'0'10831,"0"-9"-10036,0-20-232,0 20-211,0 28-55,10 91 850,-2-43-3929,-5-23-6522</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4567.21">131 2448 7908,'0'0'10853,"41"-46"-10469,-20 36 64,8 3-304,-5-2-128,5 2-16,4 2-432,-13 3-1745,1 2-2273</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4975.42">518 2279 10165,'0'0'8241,"-10"-1"-7620,-31-3-274,40 4-328,0 0 0,1 2 0,-1-2 0,0 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1-1,0 1 1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1-1,0 2 1,5 22 613,3-14-447,1 0 0,1-1 0,0 0 0,0 1 0,0-2 0,16 8 0,34 31 70,-59-46-251,0 0 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 1,0 1-1,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 0,-1-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,0 1 0,-2 0 4,1-1-1,0 2 1,0-2 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,-1-1 1,-2 2 0,-43 17-2684,6-16-5585,29-8 1212</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5162.16">497 2239 10085,'0'0'11253,"91"-63"-10869,-63 51-32,5 1-160,-4 3-144,-4 3-32,-1 2-16,-7 3-352,-5 0-1537,-8 0-2225,-4 8-4274</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6373.18">202 2836 10389,'0'0'7056,"-2"-8"-6354,-4-37 1686,6 50-2028,0 217 456,0-126-6418,0-95 5240,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 0,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1 0-1,1-1 1,-2 2-1,-3-1-4379</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6529.75">107 3093 7155,'0'0'11750,"25"-89"-11254,0 75-112,-1 1-224,1 4-48,0-1-112,-1 6-48,-3 1-1489,-1 1-1584,-3 2-3890</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6921.83">547 2789 10533,'0'0'8244,"-11"-5"-7703,-30-15-135,40 20-398,1-1 0,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 1,0 0-1,-1 1 0,1-1 1,-1 0-1,1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 3-1,-1 23 213,1-23-150,0 2-46,0 0 0,1 1 0,-1-1 0,1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,0 2 0,0-2 0,1 0 0,5 8 0,1-2 21,1 1-1,0-1 1,18 12-1,-18-15-25,-1 2 1,1-1-1,-1 0 0,-1 1 1,14 19-1,-20-26 7,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,-1-1-1,1 2 0,-1-1 1,0-1-1,1 1 0,-1-1 1,0 1-1,-1 0 0,1-1 1,0 1-1,-1-1 0,0 1 1,1-1-1,-1 1 0,0-1 1,0 0-1,0 1 0,-1 0 1,1-1-1,0 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,-4 2 1,1 0-223,0-1 0,0 1 0,-1-1 1,0 0-1,-10 5 0,-28 1-6151,39-9 829</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7109.56">534 2878 1185,'0'0'15671,"33"-89"-14295,-8 62-223,3 1-353,5 2-368,4 2-95,-8 5-129,0 6-128,-13 4 0,-4 4-80,-3 3-192,-5 0-1281,-4 5-1376,0 9-1089,0-2-5923</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13092,14 +13092,14 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">130 295 9989,'0'0'7547,"-3"-4"-6659,0 1-479,-7-9-310,7-2 4020,3 19-3983,19 369 53,-5-192 319,-11 223 0,-5-205 658,2-199-1075,0-15-734,1 4-53,0 1-1,1-1 1,0 0 0,0 0-1,5-12 1,7-23-4584,-4-17-5578</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1683.31">145 326 5330,'0'0'12694,"0"-6"-11525,0 1-1288,0 4 205,-1-1 0,1 1 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,3 0-1,952-168 1304,-803 147-1329,401-46-63,-461 57 38,-54 8-45,44 1 0,-76 2 14,-6 0 282,2 289 146,1-21 188,-31 281 0,12-293 85,15-253-690,-1-1-1,1 1 1,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,-4 0 1,-12 5 44,0-1 0,-32 3-1,39-7-62,-645 46 110,73-11-193,243 15 127,291-47 135,-62-2-1,74-2-75,33 0-121,0-1 1,0 1-1,-1-1 0,1 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 1,1-1-1,-7-3 0,10 5-126,0-1-1,-1 1 1,1 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,1 0-1,-1 0 1,1 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,3-1 0,17-18-6151,-1-4-4642</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2272.15">218 1297 5234,'0'0'9039,"-1"7"-7395,-21 110 3645,16-32-5485,17-88-8059,2-11-2851</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3297.32">116 941 10309,'0'0'7849,"14"-4"-4047,60-14-3056,2 8-359,-1 4 0,134 6-1,-93 1-236,-113-1-146,54 1 76,-1-2 0,0-3-1,71-14 1,670-124 174,-795 142-251,67-6 300,0-3 0,90-23 0,-140 25-605,-30 8-1103,-45 10-4254,44-9 3028,-35 5-6314</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4069.07">1076 446 9188,'0'0'9941,"0"-8"-8869,0 6-930,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,-3-5 0,2 6-32,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,0 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-4 0 0,2 1-104,0-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 1,-1 1-1,0 0 0,1-1 0,0 1 0,-1 0 0,1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 5 0,1-5-9,0 0 0,0 0 1,0 0-1,1-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,1 1 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,4 1 0,11 5-30,0-1 0,1-1-1,30 8 1,36 14 97,-85-29-63,1 0 1,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1 0,0-1-1,0 0 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1-1,1 0 1,0 1-1,-2-1 1,-30 19 47,27-17-38,-3 2-63,0-1 1,0 0-1,0 0 0,0-1 1,-17 3-1,-22-2-3717,47-3 3582,-1 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0-4-1022,-8-20-7243</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4322.52">983 465 12246,'0'0'9145,"9"-6"-8763,17-7-219,0 0 1,0 2-1,1 1 1,1 1-1,50-9 1,67-23 439,-145 41-713,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,-3 15-2443,-14 9-2518</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5633.19">1050 1144 2177,'0'0'15130,"-16"-11"-8139,7 5-6037,8 10-955,-1 0 1,1-1 0,1 1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,2 7 0,-2-4 12,1 34 119,0-27-77,0 0 0,-1 1 0,-1-1 0,0 0 0,-1 0 0,0 0 0,-1 0 0,-5 13 0,7-18-352,21-18-20721</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6029.53">1276 1116 12614,'0'0'8630,"-8"6"-8179,3-1-317,-1-1 0,1 1 0,-1 0 0,1 0-1,1 0 1,-1 1 0,1 0 0,0 0 0,0 0-1,0 0 1,1 1 0,0-1 0,1 1 0,-1 0 0,1 0-1,0 0 1,1 0 0,-1 10 0,2-16-132,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,2-1 0,40 1 32,-33 0-31,-5-1 1,0 0 1,0 0-1,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 1,0-1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,-1 0 1,8-8-1,-9 9 0,0 0-1,1 0 1,-2-1 0,1 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,-1-1 0,0 0-1,1 0 1,-2 1 0,1-1-1,0 0 1,0 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1-4 0,0 5 12,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-5 1 0,-55-5 84,53 4-76,-18-1-19,18 1-45,1 0 0,-1 0 1,1 1-1,-1 0 1,0 1-1,1 0 1,-17 4-1,25-4-138,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 1,-1 0-1,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 2 1,0 8-6208</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">130 306 9989,'0'0'7547,"-3"-4"-6659,0 1-479,-7-10-310,7-1 4020,3 19-3983,19 383 53,-5-200 319,-11 232 0,-5-212 658,2-207-1075,0-16-734,1 5-53,0 0-1,1 0 1,1 0 0,-1-1-1,5-12 1,7-23-4584,-4-18-5578</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1683.31">145 338 5330,'0'0'12694,"0"-6"-11525,0 1-1288,0 4 205,-1-2 0,1 2 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,2 0-1,-1 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,3 0-1,955-174 1304,-806 152-1329,403-47-63,-463 58 38,-53 9-45,43 1 0,-76 2 14,-6 0 282,2 300 146,1-22 188,-31 291 0,12-304 85,15-262-690,-1-1-1,1 1 1,-1 1 0,0-2 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-2 0,0 1-1,-1 0 1,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,-4 0 1,-12 5 44,-1-1 0,-31 4-1,39-8-62,-647 48 110,73-12-193,244 16 127,292-49 135,-63-2-1,75-2-75,33 0-121,0-1 1,0 1-1,-1-1 0,1 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 0,0-1 1,1 0-1,-7-3 0,10 5-126,0-1-1,-1 1 1,1 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0-1-1,0-1 1,1 2-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,1-1-1,-1 1 1,1 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,3-1 0,17-19-6151,-1-4-4642</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2272.15">219 1345 5234,'0'0'9039,"-1"7"-7395,-21 114 3645,16-33-5485,17-91-8059,2-11-2851</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3297.32">116 976 10309,'0'0'7849,"14"-4"-4047,61-15-3056,1 8-359,-1 5 0,135 6-1,-94 1-236,-113-1-146,54 1 76,0-2 0,-1-3-1,71-15 1,673-128 174,-798 147-251,67-6 300,0-3 0,91-24 0,-141 25-605,-30 9-1103,-45 11-4254,44-10 3028,-35 5-6314</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4069.07">1080 462 9188,'0'0'9941,"0"-8"-8869,0 6-930,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,-3-5 0,2 6-32,0-1 0,0 1 0,0 0 0,0-2-1,0 2 1,-1 0 0,1 0 0,0 0 0,-2 1-1,2-1 1,-1 1 0,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-4 0 0,2 1-104,0-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 1,-1 1-1,0 0 0,1-1 0,0 2 0,-1-1 0,1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 6 0,1-6-9,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,1 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 0 0,0 0 0,1 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,4 2 0,11 4-30,0-1 0,1-1-1,31 9 1,35 14 97,-85-30-63,1 0 1,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1 0,0-1-1,0 0 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 2-1,0-2 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1-1,1 0 1,0 1-1,-2-1 1,-30 20 47,27-18-38,-3 2-63,0-1 1,0 0-1,0 0 0,0-1 1,-17 3-1,-23-1-3717,48-4 3582,-1 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-2 0,0 2 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0-4-1022,-8-21-7243</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4322.52">986 482 12246,'0'0'9145,"9"-6"-8763,17-8-219,0 1 1,1 2-1,0 0 1,1 2-1,50-10 1,68-23 439,-146 42-713,1 0-1,-1 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,-3 15-2443,-15 10-2518</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5633.19">1054 1186 2177,'0'0'15130,"-17"-11"-8139,8 5-6037,8 10-955,-1 0 1,1-1 0,1 1 0,-1 0 0,1 0-1,-1 0 1,1 1 0,0-1 0,2 7 0,-2-4 12,1 36 119,0-29-77,0 1 0,-1 1 0,-1-2 0,0 1 0,-1-1 0,0 1 0,-1-1 0,-5 14 0,7-19-352,21-18-20721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6029.53">1280 1157 12614,'0'0'8630,"-8"6"-8179,3 0-317,-1-2 0,1 1 0,-1 0 0,1 0-1,1 0 1,-1 2 0,1-1 0,0 0 0,0 0-1,0 0 1,1 2 0,0-2 0,1 1 0,-1 0 0,1 1-1,0-1 1,1 0 0,-1 11 0,2-17-132,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,1-1 0,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,2-1 0,40 1 32,-33 0-31,-5-1 1,0 0 1,0 0-1,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 1,0-1-1,-1 0 0,0 0 0,1-1 0,-1 1 0,-1 0 1,9-8-1,-10 9 0,0 0-1,1 0 1,-2-2 0,1 2-1,0-1 1,0 1 0,-1-1-1,1 1 1,-1-1 0,0 0-1,1 0 1,-2 1 0,1-1-1,0-1 1,0 1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1 0,0 0-1,0 0 1,-1-4 0,0 5 12,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,0 1 0,1-1 0,-1 0 0,-1 1 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-5 1 0,-55-5 84,53 4-76,-18-1-19,18 1-45,1 0 0,-1 0 1,1 1-1,-1 0 1,0 1-1,1 0 1,-17 4-1,25-4-138,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 1,-1 0-1,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 1,0 8-6208</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13157,14 +13157,14 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">142 2344 10405,'0'0'6685,"0"-8"-5604,0-34 3113,0 48-3370,0 48-234,-2 96 29,7 0 0,31 190 0,-28-283-448,-1-1 1,-3 83 0,-29-140 60,21-2-231,1-1 0,-1 1 0,1 0-1,-1-1 1,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-2-6-1,-7-18 15,-31-46 5,28 52-5,0-1-1,2 0 0,-12-34 0,33 79 47,0 0 0,15 21 0,7 14-14,-5-2 47,-4-8-54,39 60-1,-61-105-40,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,4 2 0,-4-3 3,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0-1,-1 0 1,0 0 0,-1 0 0,3-2 0,3-6 21,0-1 0,0 0 1,-1 0-1,7-19 0,-6 14-6,11-23-18,14-29-516,-4-2 1,24-87 0,-49 148 341,0-12-1477,-2 19 1426,0 1 0,0-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1-1,0 1 1,-1 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-2 0 0,-29 3-11553</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1138.66">186 1169 10517,'0'0'11955,"2"-19"-11411,14-149 784,-20-305 186,-5 169-1424,9 280-67,1-4 35,-2 1 0,0 0 0,-2 0-1,-7-33 1,10 60-59,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,-12 16-65,-11 31-2,21-43 74,-42 83 37,24-52-52,3 1-1,0 0 1,-16 56 0,32-86-43,2-10 19,0-1-1,1 0 0,-1 1 0,1-1 1,0 1-1,0 0 0,0-1 1,0 1-1,4-4 0,4-9-5,107-205-184,-114 214 222,1 1 1,1 0-1,0 0 0,0 0 0,0 1 0,1-1 0,0 2 0,11-11 0,-15 15 0,0-1-1,0 1 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,0 1-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 1 1,1-1-1,-1 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 0,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 0,0 0 1,0 1-1,-1-1 0,1 1 1,0 0-1,0-1 1,1 4-1,8 10 19,0 1 0,-2 0 0,0 0 0,12 31 0,20 35-1058,-34-71 305,8 12-2342,-9-7-2694,-4 2-8681</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7832.15">1167 1064 14359,'0'0'5122,"0"22"-4935,-10 344 1870,6-33-657,5-181-463,-27 240-1,16-321-1224,0-98-8145,6-4 1248</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8805.24">658 1643 12774,'0'0'10605,"4"-4"-9818,-1 1-738,-1 1 0,2-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,7-1 0,54-4 329,-37 4-169,77-6 225,678-86 640,-675 66-874,-106 28 147,-206 10-293,-337 60 0,328-36 72,171-29-118,25-4 13,1 1 1,-1 1-1,-27 8 1,43-11-24,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,13 6-161,49-5 154,1-3 0,106-15 0,128-41 57,-275 53-53,67-14 29,9-1 84,154-51 0,-259 72-74,-1 0 1,1 0-1,-1 0 1,1-1-1,0 0 0,-12-2 1,-25 1-23,-38 12-44,-90 24-1,46-8-56,-46 4 80,-152 33 103,308-59-83,20-6-47,-1 0 1,0 0-1,0 1 1,1 0-1,-1 0 1,0 0-1,7 2 1,14-1 9,59-5 75,-1-5-1,121-27 1,-103 16-488,107-8 1,-173 28-5463,-24-3-1692</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9278.56">1492 1300 15159,'0'0'9153,"-6"-11"-8283,-17-36-152,18 36 1005,26 13-1670,-1 1 0,1 1 0,-1 1 0,1 1 0,-2 1 0,1 0-1,24 14 1,8 2 5,-32-15-50,2 0 3,0 1-1,0 2 0,28 17 0,-46-25-10,1 0 0,-1 0-1,0 0 1,0 1 0,0 0-1,-1-1 1,1 1 0,-1 1-1,0-1 1,0 0 0,0 1-1,-1 0 1,1-1 0,-1 1-1,0 0 1,-1 0 0,1 1-1,-1-1 1,0 0 0,0 10-1,-4 4 100,-13 1-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9899.61">639 1796 0,'0'-2'0,"0"0"0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,3 1 0,29-15 0,-31 11 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-2-3 0,-9 1 0,-1 1 0,1 0 0,-1 0 0,0 1 0,0 1 0,0 0 0,0 1 0,-1 0 0,1 1 0,-15 1 0,-36-6 0,64 6 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0-1 0,9-14 0,31-12 0,-37 26 0,11-8 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12391.48">644 1475 0,'12'1'0,"11"1"0,-23-2 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,284-7 0,-283 6 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 2 0,-1 32 0,2-32 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0-1 0,-4 4 0,-40 23 0,39-24 0,-1 0 0,1 1 0,0-1 0,0 1 0,-7 7 0,14-12 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,17 3 0,27-2 0,-35-1 0,-8-2 0,-15 4 0,14-2 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,14 11 0,-14-10 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,-29 27 0,-23-3 0,-2-2 0,-90 54 0,143-77 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 3 0,0-2 0,3-2 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,4-1 0,-6 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-2 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-3-3 0,-1-2 0,0-1 0,1 1 0,0-1 0,1 1 0,0-1 0,0 0 0,1 0 0,0-1 0,-2-17 0,-7-28 0,6 38 0,1 1 0,1-1 0,-3-19 0,6 31 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,1 0 0,3-7 0,-1 5 0,-1 0 0,0 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,-1-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-3-11 0,4 19 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,3 1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 6 0,3 21 13147,-5-38-13017,1-1 0,0 1 0,0-1 0,1 1 0,0-1 0,0 1 1,5-10-1,-4 9-93,11-32 958,-58 113 2533,-14 20-3147,54-84-329,-6 8 90,1 1 0,0 0-1,1 0 1,1 1 0,1 0 0,1 0-1,0 0 1,1 1 0,-1 23 1747,30-45-1475,-14 1-408,-1 0 0,1 1 0,0 0 0,0 0 0,0 1 0,0 1 0,0 0 1,-1 0-1,1 1 0,0 1 0,-1 0 0,1 0 0,-1 1 0,15 7 0,-11-3-3,0 1 0,-1 0 0,1 0 0,-2 2 0,0 0-1,0 0 1,-1 1 0,0 0 0,10 16 0,-9 0 6,-11-26 0,0 1-1,-1 0 0,1 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,0 1 1,-1-1-1,4 3 0,-4-4 43,-10-84-9151,4 51 5786,0-4-701</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12982.6">912 1489 5891,'0'0'4575,"-2"-11"-3321,1 4-1164,1-1 432,-1 0-1,0 0 0,0 1 1,-1-1-1,0 0 0,-1 1 1,0 0-1,0-1 0,-7-10 1,10 18-500,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,-1 1 1,-12 17 843,13-17-839,-146 245 69,130-210-37,16-35-49,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,1 1 1,0-1-1,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 0,1 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,1 2 0,36 18 98,0-2-1,2-2 1,41 12-1,-70-27-1187,-1 0 0,1-1 0,-1 0 0,13-1 0,-19 0 661,5 0-4743</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">143 2418 10405,'0'0'6685,"0"-9"-5604,0-34 3113,0 49-3370,0 50-234,-2 99 29,7-1 0,32 197 0,-29-292-448,-1-1 1,-3 85 0,-29-144 60,21-2-231,1-1 0,-1 1 0,1 0-1,-2-2 1,2 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,-2-6-1,-7-19 15,-31-48 5,28 55-5,0-2-1,1 0 0,-11-35 0,33 82 47,0 0 0,16 21 0,6 15-14,-5-2 47,-4-9-54,40 62-1,-62-108-40,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,4 2 0,-4-3 3,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0-1,-1 0 1,0 0 0,-1 0 0,3-2 0,4-7 21,-1 0 0,0 0 1,-1-1-1,7-19 0,-6 15-6,11-24-18,14-30-516,-3-3 1,23-88 0,-49 151 341,0-11-1477,-2 19 1426,0 1 0,0-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1 0,1-2-1,0 2 1,-1 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-2 0 0,-29 4-11553</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1138.65">188 1206 10517,'0'0'11955,"2"-20"-11411,14-153 784,-20-315 186,-5 174-1424,9 290-67,1-5 35,-2 1 0,0 0 0,-2 0-1,-7-34 1,10 62-59,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 1,-13 17-65,-10 31-2,21-44 74,-42 86 37,24-54-52,2 1-1,1 1 1,-16 56 0,32-87-43,2-12 19,0 0-1,1 0 0,-1 1 0,1-1 1,0 1-1,0 0 0,0-2 1,0 2-1,4-4 0,4-9-5,108-212-184,-115 220 222,1 2 1,2 0-1,-1 0 0,0-1 0,0 2 0,1-1 0,0 2 0,11-12 0,-15 16 0,0-1-1,0 1 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,0 1-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 1 1,1-1-1,-1 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 0,1 0 1,0 0-1,-1 0 1,0 1-1,0-1 0,0 0 1,0 1-1,-1-1 0,1 2 1,0-1-1,0-1 1,1 4-1,8 10 19,0 2 0,-2-1 0,0 1 0,12 31 0,21 37-1058,-35-74 305,8 13-2342,-9-8-2694,-4 3-8681</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7832.15">1178 1097 14359,'0'0'5122,"0"23"-4935,-10 355 1870,6-35-657,5-186-463,-27 247-1,16-331-1224,0-100-8145,6-5 1248</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8805.24">664 1695 12774,'0'0'10605,"4"-4"-9818,-1 0-738,-1 2 0,2-1 0,-1 1 0,0 0 0,0 0 0,2 0 0,-2 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,7-1 0,54-4 329,-36 3-169,77-5 225,684-89 640,-681 68-874,-107 29 147,-208 11-293,-340 61 0,331-37 72,173-30-118,24-4 13,2 1 1,-1 1-1,-27 9 1,43-12-24,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,13 6-161,49-5 154,2-3 0,107-15 0,129-43 57,-278 55-53,68-15 29,9-1 84,155-52 0,-261 74-74,-1 0 1,1 0-1,-1 0 1,1-1-1,0 0 0,-13-2 1,-24 1-23,-39 12-44,-90 26-1,45-10-56,-45 5 80,-154 34 103,311-60-83,20-7-47,-1 0 1,0-1-1,0 2 1,1 0-1,-1 0 1,0 0-1,7 3 1,14-2 9,60-6 75,-1-4-1,122-28 1,-104 16-488,108-7 1,-175 28-5463,-24-4-1692</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9278.56">1506 1341 15159,'0'0'9153,"-6"-11"-8283,-17-38-152,18 38 1005,26 13-1670,-1 1 0,1 1 0,0 1 0,0 1 0,-2 2 0,1-1-1,25 14 1,7 3 5,-32-16-50,3 1 3,-1 0-1,0 2 0,28 18 0,-46-26-10,2 0 0,-2 0-1,0 1 1,0 0 0,0 0-1,-1-1 1,1 1 0,-1 1-1,0-1 1,0 0 0,0 2-1,-1-1 1,1-1 0,-1 1-1,0 0 1,-1 0 0,1 2-1,-1-2 1,0 0 0,0 10-1,-4 5 100,-13 1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9899.61">645 1852 0,'0'-2'0,"0"0"0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,3 1 0,30-15 0,-32 10 0,-1 2 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-2 0,0 1 0,-2-3 0,-9 1 0,-1 1 0,0 0 0,0-1 0,0 2 0,0 1 0,0 0 0,0 1 0,-1 0 0,1 1 0,-16 1 0,-35-6 0,64 6 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-2-1 0,1-1 0,10-15 0,30-12 0,-37 27 0,11-8 0,0-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12391.48">650 1521 0,'12'1'0,"11"1"0,-23-2 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,2 1 0,-2 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-2 0 0,2-1 0,0 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,2 0 0,-2-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,286-7 0,-285 6 0,0 1 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 2 0,-1 34 0,2-34 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,-4 3 0,-40 24 0,39-25 0,-2 0 0,2 1 0,0-1 0,0 1 0,-7 8 0,14-13 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,17 3 0,28-2 0,-36-1 0,-8-2 0,-15 4 0,14-2 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,14 12 0,-14-11 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,-29 28 0,-24-4 0,-1-1 0,-92 56 0,145-80 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,1 0 0,-1-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 3 0,0-2 0,3-2 0,0 0 0,-1 0 0,1-1 0,0 2 0,0-2 0,0 0 0,-1 0 0,1 0 0,0 0 0,4-2 0,-6 2 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-2 0,0-1 0,-1 1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-3-4 0,-1-1 0,0-1 0,1 1 0,0-2 0,1 2 0,0-1 0,0 0 0,1-1 0,0 0 0,-2-18 0,-7-29 0,6 40 0,1 0 0,1 0 0,-3-20 0,6 32 0,-1-1 0,1 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-2 0,0 1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,1-1 0,3-6 0,-1 5 0,-1 0 0,0 0 0,0-2 0,0 1 0,-1 1 0,0-1 0,0-1 0,-1 0 0,0 1 0,0 0 0,-1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-3-12 0,4 20 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,2 1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1 5 0,3 22 13147,-5-39-13017,1-2 0,0 2 0,0-1 0,1 0 0,0 0 0,0 1 1,5-11-1,-4 10-93,11-33 958,-58 116 2533,-15 21-3147,55-87-329,-6 9 90,1 0 0,0 1-1,1-1 1,1 2 0,1-1 0,1 1-1,0 0 1,1 0 0,-1 24 1747,30-46-1475,-14 1-408,-1 0 0,1 1 0,0 0 0,1 0 0,-1 1 0,0 1 0,0 0 1,-1 0-1,1 1 0,0 1 0,-1 0 0,1 1 0,-1 0 0,16 7 0,-12-3-3,0 2 0,-1-1 0,1 0 0,-2 3 0,0-1-1,1 0 1,-2 2 0,0-1 0,10 17 0,-9 0 6,-11-27 0,0 1-1,-1 0 0,1 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,0 2 1,-1-2-1,4 3 0,-4-4 43,-10-87-9151,4 53 5786,0-4-701</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12982.6">921 1536 5891,'0'0'4575,"-2"-12"-3321,1 5-1164,1-1 432,-1 0-1,0-1 0,0 2 1,-1-1-1,0 0 0,-1 1 1,0-1-1,-1 0 0,-6-11 1,10 19-500,0-1 1,-1 1-1,1 0 1,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,-1 0 1,1 2-1,0-2 1,-1 0-1,1 1 1,0-1-1,-1 1 1,-12 17 843,13-17-839,-147 253 69,131-217-37,16-36-49,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,1 1 1,0-1-1,0 0 0,-1 0 1,1 1-1,0 0 0,0-1 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 0,1 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,1 2 0,36 19 98,0-3-1,3-1 1,40 12-1,-69-28-1187,-2 0 0,1-1 0,-1 0 0,13-1 0,-19 0 661,5 0-4743</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13192,15 +13192,15 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4382 471 7571,'0'0'10597,"-13"-5"-9020,-6-3-959,10 4-83,0 0-1,-1 1 1,1 0 0,-19-3 0,10 2 1794,38 5-1618,13 1-720,47-6 90,0-4 1,126-29-1,-72 11-74,387-56 17,-499 81-31,-18 2 5,1-1-1,-1 0 1,1 0 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,6-4 0,-11 5-1,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,0 0-1,-25-9-249,16 6 149,-18-6-115,0 1 0,-53-8 0,39 8 203,29 7 26,-4 0 83,25 0-55,28 3-35,-1 2-1,51 12 1,-41-7 52,-10-3-42,-19-4-12,0 1 1,0 0-1,21 8 1,-36-11-1,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 0 0,-27 22 158,28-23-160,-33 21 13,1 1-1,-53 44 1,32-3-3239,37-42-768,-1-3-1352</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4711.12">103 389 6451,'0'0'15076,"-6"-1"-14604,3 1-445,2-1-16,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1 1-6,0 0-1,0-1 1,0 1-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 2 0,-2 114 285,-2-13 10,5 1 0,28 190-1,-20-238-290,-6-31-1,1 0 1,1 0 0,14 38-1,-20-65-70,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,6-17-1568,-6 15 1264,7-32-3403,-5-11-1595</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3639.36">0 373 10597,'0'0'4783,"28"-6"-4385,433-77 1469,419-2-312,3 41-838,-328 20-814,-289 3-217,-211 14 240,1-3 1,87-27 0,-141 36 131,43-18-185,-44 18 256,1 0 0,-1 1 0,1-2 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1-3 1184,10 21-1521,7 66 158,-4 2-1,5 145 1,-12-123 57,3 15 3,6 131 327,-16-250-320,1 0 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-3 0 1,-56 8 109,47-7-104,-1835 161 68,1033-70-33,706-78-71,-216 0 0,324-14 18,12-8-7403,7-6 93</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2993.12">1672 233 11093,'0'0'9484,"1"0"-9471,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,0 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,0 0-1,0 1 1,12 29 483,-2 1-1,-1 0 1,-2 1-1,5 52 1,1 0-151,12 65 293,-12-55-291,5-1 1,3-1-1,38 99 0,-59-190-391,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,0 2 0,0-3-204,-1-1-1,0 1 0,0 0 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,1 0 0,-1 0 0,-3-1 1,-1 1-189,-33-3-5969,-4-11-4724</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2505.4">1021 640 11013,'0'0'5632,"-4"-14"-5117,-10-40 192,14 52-588,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-2-1 0,2 2-91,1-1-1,-1 1 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 1,0 0-1,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,-1 2 0,0-1-21,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,1 1 0,-3 3 0,1 0 9,1 1 1,-1 0 0,1 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,1-1 0,-1 0-1,2 0 1,-1 1 0,1-1-1,0 0 1,0 0 0,1 0-1,0 0 1,0 0-1,1 0 1,0 0 0,0-1-1,0 1 1,1-1 0,0 0-1,1 0 1,-1 0 0,1-1-1,0 1 1,0-1 0,12 8-1,11 8 43,2-1 0,46 24 1,-31-19 28,-45-25-80,0 0-1,0 0 1,0 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,-14 8 96,-54 11-984,23-20-4294,30-6 933</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2294.56">1014 637 9668,'0'0'6643,"132"-92"-5794,-89 70 303,1 0-191,5-4-321,0 4-96,-10 6-95,-10-1-225,-9 11-224,-11 1 0,-18 21-5091,-21 4-271</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1874.57">2125 417 12582,'0'0'5848,"0"7"-5747,-1 59 1181,0 69 731,2-119-2015,1 1 0,0-1 1,1 0-1,1 0 0,11 30 0,-14-43-271,0 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,1 1-1,-1 0 1,3 2 0,-3-4-352,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,0 0-1,0 1 0,4-1 0,10 0-7629</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1523.66">2301 498 11109,'0'0'8383,"-3"9"-8042,0 4-24,0 0 0,1 0 0,-2 21-1,4-30-253,0-1-1,0 1 0,0 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 0 0,1 0 1,4 5-1,-2-4-44,1 0 1,-1 0 0,1 0-1,-1-1 1,1 0 0,0 0-1,0-1 1,0 1-1,1-1 1,-1-1 0,0 1-1,1-1 1,-1 0-1,1-1 1,-1 1 0,1-1-1,-1-1 1,1 1-1,11-3 1,-14 1-1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1-1 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,-1 0 1,1-1-1,0 0 1,-1 1 0,0-1-1,0 0 1,0 0-1,0 0 1,-1 0-1,0-1 1,1 1 0,-1 0-1,-1-1 1,1 1-1,-1 0 1,0-1-1,0-6 1,0 2-13,-1 1 0,0 0 1,-1-1-1,0 1 0,0 0 0,-1 0 0,0 0 0,0 0 1,-1 1-1,0-1 0,0 1 0,-1 0 0,1 0 1,-2 0-1,1 1 0,-8-7 0,8 8-45,-1 0 0,1 0 0,-1 1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0 0 0,-10 2 0,16-2-170,-1 0 0,1 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 3 0,-5 14-5414</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3156.5">4271 479 8084,'0'0'10578,"0"-6"-9468,0-16-288,0 6 2993,-25 16-3450,9 1-350,1 1 0,-1 0 0,1 1-1,-27 9 1,25-6-15,-1-1-1,0-1 1,-30 3-1,-97 1 145,145-48-272,1 28 89,0 0 0,1 0-1,0 0 1,1 0 0,1 0 0,-1 1 0,2-1 0,0 1-1,0 0 1,1 1 0,0-1 0,1 1 0,0 0-1,1 1 1,9-10 0,-32 54-132,-29 20 126,-4-1 0,-96 85-1,143-138 42,0-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,2 0 1,58 15-37,-51-13 46,22 4-7,-5-2 12,-1 2 0,1 1 0,26 11 0,-51-17-65,0-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1-1,-1-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,1 2 0,0 13-8082</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4344 486 7571,'0'0'10597,"-13"-5"-9020,-6-4-959,10 5-83,0 0-1,-1 1 1,1 0 0,-18-3 0,9 2 1794,38 5-1618,12 1-720,48-6 90,-1-5 1,125-29-1,-71 11-74,383-57 17,-494 83-31,-18 2 5,1-1-1,-1 0 1,1 0 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,6-5 0,-11 6-1,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,0 0-1,-25-9-249,16 6 149,-18-7-115,1 2 0,-54-8 0,40 7 203,28 8 26,-4 0 83,25 0-55,28 3-35,-2 2-1,52 13 1,-42-8 52,-9-3-42,-19-4-12,0 2 1,-1-1-1,22 8 1,-36-11-1,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 1 0,-1-2 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 0 0,-27 23 158,28-24-160,-32 21 13,0 2-1,-52 45 1,31-3-3239,37-43-768,-1-4-1352</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4711.13">102 401 6451,'0'0'15076,"-6"-1"-14604,3 1-445,2-1-16,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1 1-6,0 0-1,0-1 1,0 1-1,0 0 1,1 0 0,-1 1-1,1-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 2 0,-2 118 285,-2-14 10,5 1 0,28 197-1,-20-247-290,-6-31-1,1 0 1,1 0 0,14 39-1,-20-67-70,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,6-18-1568,-6 16 1264,7-33-3403,-5-11-1595</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3639.36">0 385 10597,'0'0'4783,"28"-7"-4385,429-78 1469,415-3-312,3 43-838,-324 20-814,-288 3-217,-208 15 240,0-3 1,87-28 0,-140 37 131,43-19-185,-44 19 256,1 0 0,-1 1 0,1-2 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1-3 1184,10 21-1521,7 69 158,-4 2-1,5 149 1,-12-127 57,3 16 3,6 135 327,-16-258-320,1 0 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1-1-1,1 1 1,-1 1-1,1-1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-3 0 1,-56 8 109,48-7-104,-1820 166 68,1024-72-33,700-81-71,-214 1 0,321-15 18,11-9-7403,8-5 93</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2993.12">1657 240 11093,'0'0'9484,"1"0"-9471,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,0 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,0 2-1,1-2 1,-1 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1 0,0 0-1,0 1 1,12 30 483,-2 1-1,-1 0 1,-2 1-1,5 53 1,1 1-151,12 67 293,-13-57-291,6-1 1,3-1-1,38 102 0,-59-196-391,1-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,0 2 0,0-2-204,-1-2-1,0 1 0,0 0 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,1 0 0,-1 0 0,-3-1 1,-1 1-189,-33-3-5969,-3-12-4724</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2505.4">1012 660 11013,'0'0'5632,"-4"-14"-5117,-10-42 192,14 54-588,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,0 0 0,1-2 0,-1 2 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-2-1 0,2 2-91,1-1-1,-1 1 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 1,0 0-1,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 0 1,0 0-1,1 0 0,0 1 1,-1-1-1,0 0 0,-1 2 0,0-1-21,0 1 0,-1 0 0,1 0-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,1 1 0,-3 3 0,1 0 9,1 1 1,-1 1 0,1-1-1,1 0 1,-1 0 0,1 1-1,0 0 1,1-1 0,-1 0-1,2 0 1,-1 2 0,1-2-1,0 0 1,0 0 0,1 1-1,0-1 1,0 0-1,1 0 1,0 0 0,0 0-1,0 0 1,1-1 0,0 0-1,1 0 1,-1 1 0,1-2-1,-1 1 1,1-1 0,12 8-1,11 9 43,2-1 0,45 24 1,-30-19 28,-45-26-80,0 0-1,0 0 1,0 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,-14 8 96,-54 12-984,24-21-4294,29-6 933</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2294.56">1005 657 9668,'0'0'6643,"131"-95"-5794,-88 72 303,0 1-191,6-5-321,-1 4-96,-9 7-95,-10-2-225,-9 12-224,-11 1 0,-18 21-5091,-21 5-271</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1874.57">2106 430 12582,'0'0'5848,"0"7"-5747,0 61 1181,-1 72 731,2-124-2015,0 2 0,1-2 1,1 1-1,1-1 0,11 31 0,-14-43-271,0-1 0,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,1 1-1,-1 0 1,3 2 0,-3-4-352,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,0 0-1,0 1 0,4-1 0,10 0-7629</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1523.66">2281 514 11109,'0'0'8383,"-3"9"-8042,0 4-24,0 1 0,1-1 0,-2 22-1,4-31-253,0-1-1,0 1 0,0 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 0,1 0 1,0-1-1,0 1 1,0-1-1,0 0 0,1 0 1,4 5-1,-2-4-44,1 1 1,-1-1 0,1 0-1,-1-1 1,1 0 0,0 0-1,-1-1 1,1 1-1,1-1 1,-1-1 0,0 1-1,1-1 1,-1 1-1,1-2 1,-1 1 0,1-1-1,-1-1 1,1 1-1,11-4 1,-14 2-1,0 1-1,0-1 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1-1 0,1 0-1,-1 0 1,0 0-1,1 0 1,-1-1-1,-1 1 1,1-1-1,0 0 1,-1 1 0,0-1-1,0 0 1,0 0-1,0 0 1,-1-1-1,0 0 1,1 1 0,-1 0-1,-1-1 1,1 1-1,-1 0 1,0-2-1,0-5 1,0 2-13,-1 1 0,0-1 1,-1 0-1,0 1 0,0 0 0,-1-1 0,0 1 0,0 0 1,-1 1-1,0-2 0,0 2 0,-1 0 0,1 0 1,-2-1-1,1 2 0,-7-7 0,7 8-45,-1 0 0,1-1 0,-1 2 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-10 2 0,16-2-170,-1 0 0,1 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 1,0 1-1,0-2 0,-1 1 0,1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,1 1 0,-1-1 1,0 0-1,1 0 0,-1 3 0,-5 15-5414</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3156.5">4234 494 8084,'0'0'10578,"0"-6"-9468,0-17-288,0 7 2993,-25 16-3450,9 1-350,1 1 0,-1 0 0,2 1-1,-28 9 1,25-6-15,-1 0-1,0-2 1,-29 3-1,-97 1 145,144-49-272,1 29 89,0-1 0,1 1-1,0-1 1,1 1 0,1 0 0,-1 0 0,2 0 0,0 1-1,0-1 1,1 2 0,0-1 0,1 0 0,0 1-1,1 1 1,8-11 0,-31 56-132,-28 21 126,-5-1 0,-94 87-1,141-142 42,0-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,0 0 1,-1 0-1,1-1 1,0 1-1,0 1 1,0-1-1,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 1,1 0-1,-1 0 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,1 0 1,59 16-37,-51-14 46,22 4-7,-6-2 12,0 2 0,1 1 0,25 12 0,-50-18-65,0-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1-1,-1-1 1,0 1 0,0 0 0,0-1-1,0 2 1,0-1 0,1 2 0,0 13-8082</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13285,8 +13285,8 @@
       <inkml:brushProperty name="color" value="#F6630D"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">366 876 9893,'0'0'5490,"0"-42"-1926,1 18-3686,0 18 86,0 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,-1-1 0,-1 0-1,1 1 1,-1-1-1,0 1 1,-5-10-1,6 14 210,1 0-163,0 1 1,-1 0-1,1 0 0,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 1,0 1-1,-1-1 0,1 1 1,-16 11-114,8 0 85,0 1 0,1 0 0,1 0 0,0 1 0,1-1 0,0 1 0,1 0-1,1 1 1,-2 18 0,4-22 11,-3 9 7,2 0 0,0 1 0,1-1 0,2 1-1,0-1 1,6 35 0,-7-54 1,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1 0,1 0 0,1-1 16,1 0 0,-1 0 0,0 0 0,-1-1 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,-1 0 0,1 1 0,-1-1 0,3-6 0,0-6 126,0 0 0,-2 0 0,0-1 0,-1 0 0,0 1 0,-2-1 0,0 0 0,0 1 0,-2-1 0,-5-27 1,5 33-71,-1 0 0,0 0 0,-1 1 0,0-1 0,0 1 0,-11-17 0,12 24-79,1 0 1,-1-1-1,0 2 0,0-1 0,0 0 1,0 0-1,0 1 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 1 0,0-1 1,0 1-1,-5 0 0,8 1 0,-1 0 1,1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1-1 0,1 1 1,0 0-1,-1 3 0,-4 34-79,3-23 81,-1 1-31,2 1 0,0 0 0,1 0-1,3 28 1,-2-44-108,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1-1 1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1 0,3 1-1,-4-1-206,1 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 1,2-1-1,12-17-5589</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="846.78">167 0 5955,'0'0'3671,"-10"7"-3303,-3 3-70,0 0 0,0 1 1,1 1-1,1 0 0,0 1 1,1 0-1,0 0 0,1 1 0,-11 21 1,13-16-82,0 1 0,2-1 0,0 1 1,2 0-1,0 1 0,0 22 0,2-34-185,1-1 0,0 0 0,0 0 0,1 0 0,0 1-1,1-1 1,0 0 0,0 0 0,0 0 0,1-1 0,1 1 0,-1-1 0,1 1-1,0-1 1,1 0 0,0-1 0,11 13 0,-15-18-16,0 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,0 0 0,3-1 0,-3 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 1,0-1-1,-1 0 0,2-2 0,2-12 50,0 0 1,-1-1-1,-1 1 0,1-17 1,-2 20-61,2-16 2,-2 1-1,0-1 1,-2 0-1,-1 0 1,-10-54-1,10 79 17,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 1 0,-5 0-1,9 0-685,1 9-3304,0 2-111</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">367 910 9893,'0'0'5490,"0"-44"-1926,1 19-3686,0 19 86,0 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,-1-2 0,-1 1-1,1 1 1,-1-1-1,0 0 1,-5-9-1,6 14 210,1 0-163,0 1 1,-1 0-1,1 0 0,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 1,0 1-1,-1-1 0,1 1 1,-16 11-114,8 1 85,0 0 0,1 1 0,1-1 0,0 2 0,1-2 0,0 2 0,1-1-1,1 2 1,-2 18 0,4-22 11,-3 8 7,2 1 0,0 1 0,1-1 0,2 1-1,0-2 1,6 37 0,-7-55 1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 2 0,1-2 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1 0,1 0 0,1-1 16,1 0 0,-1 0 0,0 0 0,-1-2 0,1 1 0,0 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,-1-1 0,1 2 0,-1-1 0,3-6 0,0-7 126,0 1 0,-2-1 0,0-1 0,-1 1 0,0 0 0,-2-1 0,0 1 0,0 0 0,-2-1 0,-5-27 1,5 33-71,-1 1 0,0-1 0,-1 2 0,0-1 0,0 0 0,-11-17 0,12 25-79,1 0 1,-1-1-1,0 2 0,0-1 0,0-1 1,0 1-1,0 1 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 1 0,0-1 1,0 1-1,-5 0 0,8 1 0,-1 0 1,1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1-1 0,1 2 1,0-1-1,-1 3 0,-4 35-79,3-23 81,-1 1-31,2 0 0,0 1 0,1 0-1,3 28 1,-2-44-108,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1-1 1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0-1,1 0 1,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1 0,3 1-1,-4-1-206,1 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 1,2-2-1,12-16-5589</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="846.78">167 0 5955,'0'0'3671,"-10"7"-3303,-3 4-70,0-1 0,0 1 1,1 2-1,1-1 0,0 2 1,1-1-1,0 1 0,1 0 0,-11 23 1,13-17-82,0 0 0,2 0 0,0 1 1,2 0-1,0 0 0,0 24 0,2-36-185,1 0 0,0-1 0,0 0 0,1 1 0,0 0-1,1-1 1,0 1 0,0-1 0,0 0 0,1 0 0,1 0 0,-1-1 0,1 1-1,0 0 1,1-1 0,0-1 0,11 14 0,-15-19-16,0 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,0 0 0,3-1 0,-3 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 1,0-1-1,-1-1 0,2-1 0,2-12 50,0-1 1,-1-1-1,-1 2 0,1-18 1,-2 20-61,2-16 2,-2 1-1,0-1 1,-2 0-1,-1-1 1,-10-55-1,10 82 17,0 0 0,0 0 0,0 0 0,-1-1-1,1 1 1,-1 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0-1,-1-1 1,0 1 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 1 0,-5 0-1,9 0-685,1 9-3304,0 2-111</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13439,7 +13439,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">180 165 12038,'0'0'10530,"0"16"-9829,0 246 1647,0-255-2352,1 0 0,-1-1-1,1 1 1,0 0 0,1 0 0,2 7 0,-3-12-470,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,3 3 0,9 3-5932</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1103.1">83 326 9108,'0'0'9789,"-11"-8"-8690,-31-27-125,40 33-856,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,0 0 1,0 0 0,0 0-1,2-4 1,0 1-85,0 1-1,1 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 1 1,7-4-1,0 1 5,-1 1 0,1 1 0,0-1 0,0 2 0,0 0 0,0 0 0,1 1-1,23 0 1,-32 2-23,-1-1-1,1 2 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0 0-1,0 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,0-1 1,-1 2-1,1-1 0,-1 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0 5-1,0 5 8,-1 1 0,-1-1 0,0 1 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,0-1 0,-2 0 0,1 0-1,-1-1 1,-1 0 0,0-1 0,-1 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,-21 9 0,27-14-27,0 0 1,-1-1-1,1 0 0,-1-1 0,0 0 0,0 0 1,0 0-1,1 0 0,-12-2 0,18-1-25,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 1 1,1-1-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,2-2-1,2 1 26,1 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 1 0,0 0 1,0 0-1,0 1 0,0 0 0,0 0 1,0 0-1,10 2 0,-4 0 11,-1 0-1,0 1 0,0 0 0,0 0 1,0 1-1,14 8 0,-17-7-2,0 1 0,-1 0 0,1 1-1,-1 0 1,-1 0 0,1 0 0,-1 1 0,8 13 0,28 31-4449,-24-37-1259</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1103.09">83 326 9108,'0'0'9789,"-11"-8"-8690,-31-27-125,40 33-856,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,0 0 1,0 0 0,0 0-1,2-4 1,0 1-85,0 1-1,1 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 1 1,7-4-1,0 1 5,-1 1 0,1 1 0,0-1 0,0 2 0,0 0 0,0 0 0,1 1-1,23 0 1,-32 2-23,-1-1-1,1 2 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 1,0 0-1,0 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,0-1 1,-1 2-1,1-1 0,-1 0 1,1 0-1,-1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0 5-1,0 5 8,-1 1 0,-1-1 0,0 1 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,0-1 0,-2 0 0,1 0-1,-1-1 1,-1 0 0,0-1 0,-1 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,-21 9 0,27-14-27,0 0 1,-1-1-1,1 0 0,-1-1 0,0 0 0,0 0 1,0 0-1,1 0 0,-12-2 0,18-1-25,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 1 1,1-1-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,2-2-1,2 1 26,1 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 1 0,0 0 1,0 0-1,0 1 0,0 0 0,0 0 1,0 0-1,10 2 0,-4 0 11,-1 0-1,0 1 0,0 0 0,0 0 1,0 1-1,14 8 0,-17-7-2,0 1 0,-1 0 0,1 1-1,-1 0 1,-1 0 0,1 0 0,-1 1 0,8 13 0,28 31-4449,-24-37-1259</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1395.81">604 272 18136,'0'0'7444,"78"-91"-7444,-34 66 144,0 2-128,-5 7-16,-15 4-64,-4 7-112,-5 5-561,-11 0-847</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1683.93">809 133 13158,'0'0'6987,"-2"23"-6296,-1 49 136,12 141 0,-5-190-575,-2-1 0,0 1 0,-2 0 0,-4 45 0,3-64-188,0-1 1,-1 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,-1 0 1,0-1 0,1 1 0,-1 0-1,0-1 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1-1-1,0 0 1,1 0 0,-1 0 0,0 0-1,-4 0 1,-14 3 102,0-1 1,0-2-1,-23 0 0,37-1-148,7 0-30,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,1-1-1,-1 1 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 0-1,0 1 0,-1-1 1,1 1-1,0-1 1,-1-1-1,3-25-1528,1 21 742,-1 0 0,1-1 0,0 1 0,0 0 1,0 0-1,5-5 0,27-21-4837,7 3-2294</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2270.44">1048 315 12310,'0'0'12168,"-7"-7"-11560,-22-23-224,28 29-374,0 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1-1 1,0 1-1,1 0 0,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1-1,1 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-2 2-1,-30 45 21,32-46-23,-4 7-6,1 0 1,-1 0 0,2 0 0,0 0 0,0 1 0,0-1 0,1 1 0,1 0 0,-1 0 0,2-1-1,-1 1 1,1 0 0,3 15 0,-3-24-17,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,1-2 0,2 1-47,0-1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1-1 0,6-3 0,-3-2 45,-1 0-1,0-1 0,0 0 1,-1 0-1,4-12 1,-5 13 56,0 0 0,0 0 0,1 0 1,12-15-1,-17 24-29,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1-1,-1 0 1,19 22 29,-13-16-15,-5-4-17,1-1-1,0 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1-1 0,-1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,1 0-1,4-2 1,-3 0 4,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,4-9 0,-7 13-12,1-1-1,-1 1 1,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1-1,0 0 1,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 1 0,1 0 0,13 26-86,-11-22 79,-3-4 8,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,1 0 0,30-29-16,-23 21 41,-5 5-39,0 1 0,0 0 0,1 0 0,-1 0-1,1 1 1,0-1 0,0 1 0,-1 0 0,1 1 0,1-1-1,-1 1 1,10-1 0,20-1-3658,-22 2 1107,10-1-3366</inkml:trace>
@@ -13536,7 +13536,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">6 64 12822,'0'0'10770,"-1"-5"-10087,-3 265 1067,4-137-2756,6-122-4823,7-1-75</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="304.42">343 166 13110,'0'0'10373,"0"-28"-10309,30 17-16,-1-3 96,5 3-112,0 0-32,0 5 48,-4 1-112,-1 5-192,-10 0-977,-9 0-1776,-5 0-1089</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="304.41">343 166 13110,'0'0'10373,"0"-28"-10309,30 17-16,-1-3 96,5 3-112,0 0-32,0 5 48,-4 1-112,-1 5-192,-10 0-977,-9 0-1776,-5 0-1089</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="636.1">519 83 9156,'0'0'12361,"-3"10"-12249,-2 10-16,1 1 1,1 0-1,1 1 1,1-1-1,2 34 1,0-17 160,-5 43 0,3-78-188,1 0-1,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 1,1-1-1,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 1,-6 0-1,-1 1 33,-1-1 0,1 0-1,-1 0 1,0-1 0,1-1 0,-18-2 0,26 2-127,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,1 0 1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1-1-1,0 1 1,-1-3 0,-1-19-2499,3 23 2240,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,1-1 0,24-6-3986,3-1-1938</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1346.35">738 241 10549,'0'0'11920,"-1"-9"-11002,-8-26-371,9 34-520,-1 1 1,1-1 0,-1 0 0,0 0 0,0 0-1,1 1 1,-1-1 0,0 1 0,0-1 0,0 0-1,0 1 1,0 0 0,1-1 0,-1 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,-1 1 0,-23 3 101,19 0-114,1 0-1,0 1 1,0-1 0,0 1-1,1 0 1,0 0-1,0 1 1,0-1 0,0 1-1,1 0 1,-5 10 0,4-7-1,1 1 0,-1-1 1,1 1-1,1 0 1,0 0-1,1 0 0,-1 12 1,2-21-19,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,3 0 0,1 0-11,0 0-1,0 0 1,1-1-1,-1 0 1,-1 0 0,1 0-1,0-1 1,0 0-1,-1 0 1,0 0 0,5-4-1,-4 1 45,0 0 1,0 0-1,0 0 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1 0 1,-1 0-1,1-1 0,-1 1 0,2-15 0,-4 21 294,5 22-371,-3-13 35,0 0 0,1-1 1,1 1-1,-1-1 0,9 13 0,-11-19 3,-1 0-1,1 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,0 1 1,0-1-1,0 0 0,0 1 1,1-1-1,0 0 1,0 0 0,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1 0,-1 1-1,3-3 1,4-7-11,-4 5 31,1 0 1,0 1 0,0-1-1,0 1 1,1 0 0,0 0-1,7-6 1,-11 11-9,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 0,2 0 1,-1 0-4,0 1 1,1 0 0,-1-1-1,0 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1 0,-1 0-1,1 3 1,0-2 3,-1 0 1,1 0-1,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 1,3 3-1,-4-5 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 0,1 0 1,0-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 1 1,0-2-1,0 2 15,1-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,1 1 0,16 4-101,18 15 81,-30-16-371,-1 0-1,1-1 1,0 1 0,0-1 0,0-1 0,1 1 0,-1-1-1,1-1 1,-1 1 0,14 1 0,10-3-5156,3 0-3871</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1634.73">1585 35 5635,'0'0'17837,"0"-8"-16816,0 4-961,0 7 129,-1 53 479,0 2-735,8 73 0,2-112-2536,12-10-4839,-3-8-762</inkml:trace>
@@ -13962,7 +13962,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7082.48">3962 1596 16279,'0'0'3394,"3"-19"-446,0 3-2391,1-2-76,0 1 0,-1 0 0,-2-1 0,1 0 0,-2 1 0,0-1 0,-4-20 0,4 37-445,-1-1-1,0 1 1,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 2 0,-1-1 0,1 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,-1 1 0,-1 0-23,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1 1 0,-1-1 0,1 1-1,-1 0 1,-2 3 0,-2 5-12,1 1-1,0 0 1,0 1-1,1-1 0,1 1 1,0 1-1,1-1 0,1 1 1,-4 24-1,6-30-18,0 1 1,0 0-1,1-1 0,0 1 1,1 0-1,0-1 0,0 1 1,1-1-1,0 1 0,0-1 0,1 0 1,0 0-1,1 0 0,-1 0 1,2 0-1,-1-1 0,6 7 1,12 8-318,1-2 0,0 0 1,2-2-1,44 26 0,14 11-390,-81-54 727,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1 4 1,-1-4 40,-1 0-1,1-1 1,-1 1 0,1 0 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 0 0,0 0-1,-1 0 1,1 0 0,-3 2 0,-10 4 261,-1 0 1,1 0-1,-1-2 1,-20 6 0,17-6-422,-6 3 501,13-4-1707,5-2-4859,14-13-5106</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7389.31">4292 1809 13526,'0'0'8055,"12"-18"-6892,37-58-374,-47 72-680,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,0-4 1,0 7-56,0-1 0,0 1 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1-1,-1-1 1,-1 0 2,0 1 0,0-1-1,0 1 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 1 0,0-1-1,0 1 1,1 0 0,-1 0-1,1 0 1,-5 3 0,0 3-27,1 0 0,-1 1 0,1 0 0,0 0 0,1 1 0,0 0 0,1 0 0,0 0 0,1 1 0,0-1 0,0 1 0,1 0 0,1 0 0,0 1 0,0-1 0,1 0 0,0 1 0,1-1 0,3 23 0,-3-31-34,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,3 1 0,-1-1-62,0 1 0,1-2-1,-1 1 1,1-1 0,0 0 0,0 0 0,0 0-1,10 0 1,-2 0-667,1-1 0,-1-1 0,1 0 0,-1-1-1,1-1 1,27-6 0,16-16-5967,0-5-4340</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7591.66">4666 1692 15911,'0'0'10624,"-3"8"-10227,-2 6-259,0 0 0,1 1 0,1-1 0,0 1 0,1-1 0,1 1 0,0 0 0,1 0 0,2 16 0,-1-29-167,0-1 1,0 1 0,1 0-1,-1 0 1,1-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,1 1 0,-1-1-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,1-1 0,3 0-1,4 0-307,0 0 1,0 0-1,-1-1 0,1-1 0,10-3 0,-5-2-1900,-1-1-1,0 0 0,15-13 0,-20 16 475,31-24-8133</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8539.36">4973 1598 10965,'0'0'15282,"-12"9"-14725,3-2-459,6-6-72,-1 1 0,1 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 6 0,1 13 118,-1-15-116,1 0 1,0 0-1,0 0 1,1-1 0,0 1-1,0 0 1,3 9 0,-2-14-34,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 1,1-1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 1,1-2-1,2 1 0,0-1 1,-1 0 1,0 0 0,1 0-1,-1 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 1 0,1-1-1,-1 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0-1-1,-1 1 1,0-1 0,0 0-1,0 0 1,0 0 0,2-8-1,-2 7 16,0 1 0,0-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,-1 0-1,1 1 1,-1-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,-1-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,-5-4-1,-6-6 143,10 7-3856,23 5-6281,3 3 8412,11-2 712,17-1 1599,-20 6 8399,-29-2-8878,1-1 1,-1 1-1,0-1 1,1 1 0,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,0-1-1,2 5 1,-1-4-108,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,1 0-1,5 5 0,-7-7-136,0-1-1,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,2-1 0,25-15 77,-22 12-140,1 0 1,0 1-1,0 0 1,0 0 0,1 1-1,-1 0 1,1 0-1,0 1 1,-1 0 0,1 1-1,0-1 1,9 1-1,-16 2 25,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 3 1,6 16-253,-4-19 20,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 0 0,1 0 1,-1-1-1,0 0 0,1 0 0,-1 0 0,6 0 0,5-1-217,-1 0-1,1-1 0,16-4 0,11-9 112,-40 15 372,1-1 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-2-1 0,1 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 1,1-2-1,-2 3 178,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0-1 0,-1 1 0,1 0 0,0 1-1,-1-1 1,1 0 0,-2 1 0,0-1 183,0 0-207,0-1 1,0 1 0,0 1 0,0-1 0,0 0-1,0 1 1,0 0 0,0 0 0,0-1 0,1 2-1,-1-1 1,0 0 0,-4 4 0,6-4-148,-1 0-1,1 1 1,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1-1-1,0 1 1,1 0 0,0 0-1,0 1 1,0-1-17,1 0 0,-1 0 0,0 0 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 1 1,0 0-1,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,1 0 0,59-2 61,-51 0-47,1 0 1,-1-1-1,1-1 1,-1 0-1,0 0 1,0-1-1,-1-1 1,0 0-1,0-1 0,0 0 1,-1 0-1,14-13 1,-17 13-26,1-1 0,-1 1 0,-1-1 0,1 0 0,-2-1 1,1 0-1,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1-1 1,-1 0-1,1 0 0,0-20 0,-2-5-22,-2 1 0,-1-1 1,-1 1-1,-14-54 0,12 68 54,-1 0 1,-1 0-1,-1 0 0,-1 1 1,-1 0-1,0 0 0,-1 1 1,-23-27-1,34 44-14,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-2 0 0,-1 20 21,10 31-76,53 116 315,-16-54-15,14 82 348,-31-98-603,-25-91-83,0-1 0,0 0-1,0 0 1,0 0 0,1-1 0,0 1 0,0 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 0 0,10 3 0,5 0-1530,0-1 0,0-1 0,0-1 0,32-1 0,47-1-11874</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8539.35">4973 1598 10965,'0'0'15282,"-12"9"-14725,3-2-459,6-6-72,-1 1 0,1 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 6 0,1 13 118,-1-15-116,1 0 1,0 0-1,0 0 1,1-1 0,0 1-1,0 0 1,3 9 0,-2-14-34,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 1,1-1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 1,1-2-1,2 1 0,0-1 1,-1 0 1,0 0 0,1 0-1,-1 0 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 1 0,1-1-1,-1 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0-1-1,-1 1 1,0-1 0,0 0-1,0 0 1,0 0 0,2-8-1,-2 7 16,0 1 0,0-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,-1 0-1,1 1 1,-1-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,-1-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,-5-4-1,-6-6 143,10 7-3856,23 5-6281,3 3 8412,11-2 712,17-1 1599,-20 6 8399,-29-2-8878,1-1 1,-1 1-1,0-1 1,1 1 0,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1 0,0 0-1,-1 1 1,0-1-1,2 5 1,-1-4-108,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,1 0-1,5 5 0,-7-7-136,0-1-1,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,2-1 0,25-15 77,-22 12-140,1 0 1,0 1-1,0 0 1,0 0 0,1 1-1,-1 0 1,1 0-1,0 1 1,-1 0 0,1 1-1,0-1 1,9 1-1,-16 2 25,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 3 1,6 16-253,-4-19 20,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 0 0,1 0 1,-1-1-1,0 0 0,1 0 0,-1 0 0,6 0 0,5-1-217,-1 0-1,1-1 0,16-4 0,11-9 112,-40 15 372,1-1 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-2-1 0,1 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 1,1-2-1,-2 3 178,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0-1 0,-1 1 0,1 0 0,0 1-1,-1-1 1,1 0 0,-2 1 0,0-1 183,0 0-207,0-1 1,0 1 0,0 1 0,0-1 0,0 0-1,0 1 1,0 0 0,0 0 0,0-1 0,1 2-1,-1-1 1,0 0 0,-4 4 0,6-4-148,-1 0-1,1 1 1,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1-1-1,0 1 1,1 0 0,0 0-1,0 1 1,0-1-17,1 0 0,-1 0 0,0 0 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 1 1,0 0-1,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,1 0 0,59-2 61,-51 0-47,1 0 1,-1-1-1,1-1 1,-1 0-1,0 0 1,0-1-1,-1-1 1,0 0-1,0-1 0,0 0 1,-1 0-1,14-13 1,-17 13-26,1-1 0,-1 1 0,-1-1 0,1 0 0,-2-1 1,1 0-1,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1-1 1,-1 0-1,1 0 0,0-20 0,-2-5-22,-2 1 0,-1-1 1,-1 1-1,-14-54 0,12 68 54,-1 0 1,-1 0-1,-1 0 0,-1 1 1,-1 0-1,0 0 0,-1 1 1,-23-27-1,34 44-14,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-2 0 0,-1 20 21,10 31-76,53 116 315,-16-54-15,14 82 348,-31-98-603,-25-91-83,0-1 0,0 0-1,0 0 1,0 0 0,1-1 0,0 1 0,0 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 0 0,10 3 0,5 0-1530,0-1 0,0-1 0,0-1 0,32-1 0,47-1-11874</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14965.25">108 600 18456,'0'0'6793,"10"21"-6441,20 44 16,60 122 334,-88-183-693,1 0 1,0 0 0,-1 0-1,2 0 1,-1 0 0,0-1-1,1 1 1,-1-1-1,1 0 1,6 3 0,-8-5-4,-1 0 0,1 0-1,0-1 1,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,2-3 0,48-62 116,60-100-1,-80 117-121,16-29-145,-29 44-634,3 2-1,43-55 0,-62 84 528,0 1 0,1-1 0,-1 1-1,0 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,4-1-1,3 7-2470,-7 16-1020,-3 26-2022</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15355.34">1 2038 17000,'0'0'7443,"9"16"-6869,6 8-257,65 98 711,-66-103-917,0 0 0,2-1 0,0 0-1,24 20 1,-39-37-102,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,0 1-1,0 0 1,1 0 0,-1-1-1,1 1 1,-1-1-1,0 1 1,1-1 0,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 1-1,0-1 1,1 0 0,-1 0-1,0 1 1,1-1-1,0-2 1,3-2 45,0-1 1,-1 0-1,0 0 1,0 0-1,-1-1 0,4-7 1,3-7 77,84-156 139,95-157-1217,-182 323 652,35-45-809,-39 53 609,0 1 1,0-1-1,0 0 0,0 1 1,0 0-1,1 0 0,-1 0 1,8-3-1,1 5-5135</inkml:trace>
 </inkml:ink>
@@ -13996,7 +13996,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="457.41">4050 395 15095,'0'0'3863,"5"-15"-2100,16-45-517,-19 58-1202,-1 0 0,0 0-1,1 0 1,0 0 0,-1 0-1,1 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 1 0,0 0-1,1 0 1,-1 0-1,3 1 1,1-1-5,0 1 1,-1-1-1,1 2 0,-1-1 1,1 0-1,-1 1 0,0 0 1,7 4-1,-6-2-10,0 1 1,-1 0-1,1 0 0,-1 1 0,0-1 1,0 1-1,-1 0 0,1 1 1,-1-1-1,-1 1 0,1-1 0,-1 1 1,-1 0-1,1 1 0,-1-1 0,0 0 1,-1 1-1,1-1 0,-2 1 1,1-1-1,-1 10 0,0-6-9,0 0 0,-1 1 0,-1-1 1,0 0-1,0 1 0,-1-1 0,0 0 0,-1-1 0,-1 1 0,1-1 0,-2 1 1,1-2-1,-10 14 0,-1-4-7,0-1 0,-29 25 0,40-38-21,-1-1 1,0 0-1,0 0 1,0 0-1,0-1 0,-1 1 1,1-1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,0 0 1,-12 0-1,19-3 5,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,0 0-1,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,1-1 0,-1-1-16,0 1 0,0 0 1,1-1-1,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,0-1 0,1 1 0,1-3 0,1 3 16,0-1 0,-1 1 0,1 0 0,1 0-1,-1 1 1,0-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,1 1 1,-1-1 0,1 1 0,-1 0 0,1 1-1,-1-1 1,7 2 0,10 2 89,0 1-1,27 10 1,-31-9-43,9 3-321,53 9 1,-33-14-5339,-28-4-1211</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="722.29">4429 164 11205,'0'0'10848,"2"11"-10699,11 81 532,5 33 374,3 152 0,-26-44 127,2-119-2148,2-1-5648</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="975.17">4768 355 10149,'0'0'13862,"13"142"-13046,-13-81-447,0-2-177,5-6-128,-5-2-48,0-5-16,0-8-256,0-5-1137,9-10-2161,0-13-3505</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1302.17">4946 494 15415,'0'0'8233,"10"-15"-7275,34-44-625,-41 56-328,0 1 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 1 0,0-1-1,-1 1 1,1 0-1,0 0 1,0 1-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,5 4-1,-4-3-3,-1 1 1,1-1-1,-1 1 0,0 0 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 1 0,-1 0 1,0 1-1,0-1 0,-1 0 1,1 1-1,-1 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,-1 7 1,1-4 17,-1 1 1,0 0 0,-1-1-1,0 1 1,0-1 0,-1 1-1,0-1 1,-1 1 0,0-1-1,0 0 1,-1 0 0,1 0-1,-7 7 1,-127 155 3005,210-194-3041,-34 7-527,161-78-1628,-73 21-5698,-72 36-2731</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1302.16">4946 494 15415,'0'0'8233,"10"-15"-7275,34-44-625,-41 56-328,0 1 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 1 0,0-1-1,-1 1 1,1 0-1,0 0 1,0 1-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,5 4-1,-4-3-3,-1 1 1,1-1-1,-1 1 0,0 0 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 1 0,-1 0 1,0 1-1,0-1 0,-1 0 1,1 1-1,-1 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,-1 7 1,1-4 17,-1 1 1,0 0 0,-1-1-1,0 1 1,0-1 0,-1 1-1,0-1 1,-1 1 0,0-1-1,0 0 1,-1 0 0,1 0-1,-7 7 1,-127 155 3005,210-194-3041,-34 7-527,161-78-1628,-73 21-5698,-72 36-2731</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.15">5699 1 18200,'0'0'7492,"-1"7"-7183,-2 64 97,4 0 0,8 71 0,2 28-2,-11 125-796,-8-170-3479,3-85-2073</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1940.71">5971 377 20810,'0'0'1309,"0"-15"-124,2-53 125,-1 65-1258,-1 0-1,1-1 1,0 1 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 1 0,-1-1-1,1 1 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,6-1 0,1 0-44,1 0 1,-1 1 0,0 0-1,1 1 1,21-1 0,-28 2-6,1 0 1,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,7 4 0,-10-4-2,0 0-1,1 0 1,-1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1 0 1,1 0 0,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 4 1,0 5 14,-1 1-1,0-1 1,-1 0 0,0 0 0,-1 0 0,0 0-1,-1-1 1,0 1 0,-1-1 0,-1 0-1,1 0 1,-11 14 0,-12 14 177,-61 64 1,51-60 41,20-25-119,13-14-38,0 1-1,0-1 1,1 1-1,0 0 0,-1 1 1,2-1-1,-1 0 1,1 1-1,-1 0 1,1 0-1,-2 9 1,6-14-79,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1-1,0-1 1,1 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1-1 0,1 1 0,-1 0-1,0 0 1,3-1 0,2 1-5,17-2-173,-1 0 0,-1-1-1,1-1 1,0-1 0,-1-1-1,31-13 1,37-22-2613,-6-3-3641,-21 9-2095</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2300.19">6506 367 9364,'0'0'14951,"-18"15"-14073,-56 53-51,68-62-729,0 1 1,1-1-1,0 1 0,0 0 0,1 1 1,0-1-1,0 1 0,1 0 1,-1 0-1,2 0 0,-1 1 1,1-1-1,1 0 0,0 1 1,0-1-1,0 1 0,1 0 1,0-1-1,3 17 0,-2-23-95,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,3 0 0,59-2 62,-63 1-65,8-1 6,-1 0 0,1-1-1,0 0 1,-1 0 0,0-1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,0-1 0,-1 1 0,0 0 0,0-1 0,-1 0 0,0 0 0,-1 0 0,2-14 0,-4 19 7,1 0-1,-1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,-1-1 0,0 1-1,0 0 1,0-1-1,0 1 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0-1,-5-2 1,-2 0-75,0 0 0,0 0 0,0 1 0,0 1 1,0 0-1,0 0 0,-1 1 0,-10 0 0,20 1-402,1 1-1,0 0 0,0-1 0,0 1 1,-1 0-1,1-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,1-1-1,-1 1 0,0 0 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 1 0,1 0 1,14 9-14338</inkml:trace>
@@ -14037,7 +14037,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">44 391 11813,'0'0'2812,"-6"-15"-261,0 1-1730,-15-44 758,14 13 4254,5 55-5718,1 1 1,1-1-1,0 1 0,0 0 1,1-1-1,0 1 0,5 16 1,-2-4 84,53 379 1366,-57-400-1592,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,2 3 0,-2-6-18,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1-3 0,43-118-922,-44 122 962,0 0 1,0-1 0,0 1 0,0 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,1 0 0,-1-1 0,0 1-1,0 0 1,1 0 0,-1 0-1,0-1 1,0 1 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1-1 0,-1 1 0,0 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 1 1,-1-1 0,0 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,9 16 9,-5-8 17,1 0-1,1-1 0,-1 0 0,2 1 0,-1-2 0,1 1 1,0-1-1,0 0 0,1-1 0,0 0 0,0 0 1,1 0-1,-1-1 0,14 5 0,-17-8-32,0 0 0,0 0-1,1-1 1,-1 1 0,0-1 0,1-1-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1-1 0,-1 1 0,1-1-1,-1 0 1,0-1 0,1 1 0,-1-1-1,0 0 1,0-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,0-1 0,1 1-1,-1-1 1,5-5 0,-7 6 18,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,-1 0 0,0-1-1,0 1 1,0-1-1,-1 0 1,1 1 0,-1-1-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 1-1,-1-1 1,0 1 0,0-1-1,0 1 1,0-1 0,-1 1-1,1 0 1,-1-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,0 1-1,1 0 1,-1-1 0,0 1-1,0 0 1,-7-3 0,0 0 51,-1 1 1,0 0 0,1 0 0,-1 1-1,0 0 1,-1 1 0,1 0 0,-17-1 0,25 3-72,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1-1,0 1 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,0 1 0,-1 0 0,1 5 0,0-5-299,0 0-1,0 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,2 6-1,-2-7-171,0-1 0,1 1-1,-1-1 1,0 1 0,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,1 0-1,28 8-12112</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.83">182 900 15863,'0'0'9325,"7"-6"-9024,24-15-106,0 2 0,1 1 0,1 1 0,55-19 0,-21 9 23,-26 9 114,46-13 0,-85 31-268,19 12-2984,-2 1-2020,-1-8-1484</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1198.66">788 544 15399,'0'0'9695,"-18"4"-9001,-55 17-275,70-20-397,1 0-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1 0,0 4 0,-2 48 218,3-41-193,0-12-46,0 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,2 0 0,0 0 3,-1 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,-1-1 1,5-3 0,-5 3 7,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,-2-7 0,1 7-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 1-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 1-1,-6 0 1,-1-1-2299,16 1-54,10 0 247,1 0 1,-1 0-1,17-4 0,8-18-1000,-3 0 3846,-13 17 7679,-23 5-8243,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 2 0,16 35 944,-12-25-895,1 0-1,0-1 0,14 24 0,-17-33-221,-1-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1-1,1 1 1,-1-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,6 1 0,-5-2-15,1 0 1,-1 0-1,0 0 0,1 0 1,-1-1-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0-1-1,5-3 1,-7 3-2,0 0 0,0 1 1,0-1-1,-1-1 1,0 1-1,1 0 0,-1-1 1,0 1-1,0-1 1,-1 0-1,1 1 0,-1-1 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0-7 1,-1-19 347,-1 47-52,3 50-230,6-36-62,1-2 0,1 1 0,2-2 0,15 32 0,-15-38-16,0 0 0,-2 1 0,-1 1 0,-1-1 0,-1 1 0,-1 0 0,4 39 0,-9-62 17,0 1-1,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 0,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-3 1 0,0 0 39,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,-7-2 0,4 1 6,0 0-1,0 0 0,0-1 0,0 0 0,1-1 0,-1 1 0,0-1 1,1-1-1,0 1 0,0-1 0,0 0 0,-10-9 0,13 9-81,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,2-7 0,0 3-369,1 0 0,0 0 1,0 0-1,1 0 0,0 0 0,1 1 0,0 0 0,0 0 0,9-8 0,24-19-3895,1 2-1527</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1198.65">788 544 15399,'0'0'9695,"-18"4"-9001,-55 17-275,70-20-397,1 0-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1 0,0 4 0,-2 48 218,3-41-193,0-12-46,0 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,2 0 0,0 0 3,-1 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,-1-1 1,5-3 0,-5 3 7,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,-2-7 0,1 7-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 1-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 1-1,-6 0 1,-1-1-2299,16 1-54,10 0 247,1 0 1,-1 0-1,17-4 0,8-18-1000,-3 0 3846,-13 17 7679,-23 5-8243,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 2 0,16 35 944,-12-25-895,1 0-1,0-1 0,14 24 0,-17-33-221,-1-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1-1,1 1 1,-1-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,6 1 0,-5-2-15,1 0 1,-1 0-1,0 0 0,1 0 1,-1-1-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0-1-1,5-3 1,-7 3-2,0 0 0,0 1 1,0-1-1,-1-1 1,0 1-1,1 0 0,-1-1 1,0 1-1,0-1 1,-1 0-1,1 1 0,-1-1 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0-7 1,-1-19 347,-1 47-52,3 50-230,6-36-62,1-2 0,1 1 0,2-2 0,15 32 0,-15-38-16,0 0 0,-2 1 0,-1 1 0,-1-1 0,-1 1 0,-1 0 0,4 39 0,-9-62 17,0 1-1,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 0,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,-3 1 0,0 0 39,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,-7-2 0,4 1 6,0 0-1,0 0 0,0-1 0,0 0 0,1-1 0,-1 1 0,0-1 1,1-1-1,0 1 0,0-1 0,0 0 0,-10-9 0,13 9-81,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,2-7 0,0 3-369,1 0 0,0 0 1,0 0-1,1 0 0,0 0 0,1 1 0,0 0 0,0 0 0,9-8 0,24-19-3895,1 2-1527</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2265.06">1461 477 12342,'0'0'12568,"-10"14"-11944,0-3-456,6-7-130,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,1 1-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 9 0,1-5 47,0-3-56,-1 0 0,2 0-1,-1 0 1,1 0 0,0 0 0,2 8-1,-3-13-24,1 0-1,-1 0 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,0 0 1,1 0-1,-1 0 0,0 1 0,1-2 1,-1 1-1,0 0 0,1 0 0,-1 0 1,0-1-1,1 1 0,0-1 0,1 0 5,-1 0 0,1-1 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1-2 0,19-50 33,-19 50-43,6-28-40,0-1 0,-2 1-1,-2-1 1,-1 0-1,-1 0 1,-2-1 0,-2 1-1,-7-48 1,6 68 34,0 1 1,-1 0-1,-7-17 0,9 26 31,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-6-3 0,9 6-10,0 0 1,0 0-1,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 1,-1 0-1,1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,-3 20-50,3-18 69,-1 26-12,1 0 0,0 0 0,3-1 0,0 1 1,2-1-1,14 51 0,-15-67-51,0-1-1,1 0 0,0 0 1,0 0-1,1-1 1,1 1-1,-1-1 1,16 15-1,-17-19-59,1-1 0,0 1 0,0-1-1,0 0 1,1-1 0,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,0-1 0,0 1 0,0-1 0,14 1 0,-16-2 11,1 0-1,-1 1 1,1-2 0,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,0-7 0,-1 11 167,-1 1 0,0-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 1 0,0-1-1,0 1 1,1 0 0,-1-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-1-1 0,0 1-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,0 1 0,1-1-1,-1 1 1,-1 0 0,0 2-32,-1-1 0,1 1-1,-1 1 1,1-1 0,0 0 0,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,1 0 0,0-1-1,0 8 1,-5 52 162,6-62-219,0-1 0,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,1 0-1,-1 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,1-1 0,-1 0-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,1 0-1,-1-1 1,16-9-80,24-42-51,-38 51 134,0 0 0,1 0 0,-1 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,2 1-1,3 0 8,-4-2-12,1 1 1,-1-1 0,1 0 0,-1-1 0,0 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,0-1 0,2-6 0,2-6 0,0 0 1,-1 0 0,-1-1-1,-1 0 1,1-25-1,-3 32 6,2-24 2,-2 1 0,-1-1-1,-9-61 1,-1 63 193,10 33-192,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,-2 60 308,2-14-38,9 70 1,-6-98-227,1-1 0,0-1 0,1 1 1,1 0-1,1-1 0,1-1 0,9 17 0,-15-29-46,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 1,1-1-1,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 1,0 0-1,0-1 0,5-1 0,1-2-5,0 0 1,0-1-1,0 0 1,-1 0-1,1-1 1,-2 0-1,1-1 1,-1 0-1,0 0 1,11-17-1,-9 11-14,-2-1 0,0 0 0,0 0 0,-2-1 0,0 0 0,6-24 0,-9 29-3,-1-1 0,0 1 0,-1-1 0,0 1-1,-1-1 1,0 1 0,-1-1 0,0 1 0,0-1-1,-5-14 1,5 24 19,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 1 0,-1 0 0,0-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1 0,-2 2 0,-3 9 12,1 0 1,0 0-1,0 0 1,2 0 0,-1 0-1,2 1 1,0 0-1,0 0 1,1-1-1,2 29 1,0-30-10,0 0 1,1 0 0,0 0 0,0 0-1,2-1 1,-1 1 0,1-1 0,1 0 0,0 0-1,1 0 1,0 0 0,14 17 0,-15-23-38,-1-1 1,1 1-1,1-1 1,-1 0-1,0 0 1,8 3 0,-11-6-140,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,4 0 0,2-10-4270,-7-10-4274</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2420">1937 187 11685,'0'0'15271,"-13"-43"-15271,67 13-16,3-3-848,6-3-1969,-10-2-6067</inkml:trace>
 </inkml:ink>
@@ -14142,7 +14142,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">20 204 12134,'0'0'11954,"1"0"-11932,-1-1-19,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0-1 1,0 0 4,0-99-350,12 264 159,0 6 59,-12-161 40,0 0 0,-1 1-1,0-1 1,0 0 0,-4 14 0,3-19 30,1 1 1,-1-1-1,1 0 1,-1 1-1,0-1 1,0 0 0,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1 0,-6 4-1,8-6 468,40-22-268,75-37-1328,-43 23-6674,-41 19 1495</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="458.52">444 12 7395,'0'0'8788,"-8"-2"-7795,3 1-959,-1-1 245,0 0 0,-1 0-1,1 1 1,0 0 0,0 1-1,-9-1 1,13 1-246,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 1 0,0-1-1,-1 1 1,1 0-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 0-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 4 0,0-1-24,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,6 5 0,7 7 16,6 4 6,-16-13-35,0 0 0,0 0 0,0 0 0,-1 0 0,0 1-1,6 8 1,-10-13 23,-1 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-2 0 0,0 1-4,-1 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 0 1,-4 0-1,9-1-598,25-36-11278,-7 14 8557</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="592.8">457 25 5410</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="592.79">457 25 5410</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="704.78">457 25 5410,'87'20'9157,"-87"-9"-9141,0 8 144,0 1 80,0 2-160,5 3-48,0 3-32,-5-3 0,5 0-784,0-2-2034,-5-7-3969</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="830.08">588 138 12758,'0'0'3473,"112"-53"-3681,-73 50-752,0 3-2242</inkml:trace>
 </inkml:ink>
@@ -14176,7 +14176,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="818.03">449 195 5090,'0'0'14161,"1"-10"-12776,0-29-390,-1 38-947,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,-27 0 283,21 1-131,4-1-186,0 0-1,-1 1 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 1 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,-4 4-1,1-1 3,1 0 0,0 1 0,0 0-1,1 0 1,0 1 0,-8 14-1,7-8-5,0 1 0,0-1 0,1 1 0,1 0 0,1 1 0,0-1 0,-2 30 0,5-43-11,0-1-1,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,2 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,4-1-1,-2 0-3,0 0-1,0 0 1,0 0-1,0-1 1,-1 0-1,1-1 1,0 1-1,-1-1 1,1 0-1,9-5 1,-9 2 25,0-1 0,0 0 0,-1 1 0,1-2 0,-1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1-8 0,-3 15 525,6 24-736,-4-19 176,0 1 0,1-1 1,-1 0-1,1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 0 0,8 3 0,-9-4 7,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,3-3 0,4-5 10,-1 0 0,-1-1 0,0 0 0,11-25 0,16 88-118,-32-49 118,-1-1 1,0 1-1,1-1 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,3 0 1,-1-1 2,0 0 1,1 0 0,-1 0 0,0-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,5-4 0,6-6 9,-1 0 0,0-1 1,18-22-1,-27 28-18,-4 7 2,-1 0-1,1-1 1,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,0 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 1-1,-1-1 1,1 0 0,0 0-1,0 1 1,-1-1 0,2 1-1,25 14-103,-11-6 72,-5-6 50,0-1 0,0 0-1,1 0 1,-1-1-1,0 0 1,1-1 0,-1-1-1,1 1 1,13-4-1,27-5-4920,-51 9 4729,4-3-5197</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3543.7">251 452 10181,'0'0'10682,"-4"-1"-10069,-2-3-313,15-1-218,21-3-110,-23 6 85,150-32 199,-89 30-4580,-76 20-13319</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3851.9">410 441 10885,'0'0'8743,"-3"6"-8378,-2 19-195,0 0-1,2 0 1,1 0 0,0 0-1,2 0 1,3 28 0,-1 16-8,-1-37-62,1 0-1,10 56 1,-7-37 289,-9-50-168,-1 0-1,1 0 0,0 0 0,-1-1 0,1 1 1,-1-1-1,-8-1 0,7 1-18,-1 0-177,-1 0 0,0 0 1,1-1-1,-1 0 0,0 0 0,1-1 1,-1 1-1,1-2 0,0 1 0,-12-7 0,19 9-126,-1 0-1,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 1,0 0-1,0-1 0,0 1 0,-1 0 1,1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,12-9-4354,14 0-888,7 3 236</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4567.93">694 753 8212,'0'0'12870,"1"-14"-11931,1-43-216,-2 56-695,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-2 0-1,-1 0-15,0 0 1,1 1 0,-1-1 0,0 1-1,1 0 1,-1 0 0,1 0 0,-1 0 0,-3 3-1,3-1-11,-1 0 1,1 1-1,0 0 0,0-1 0,0 2 0,1-1 0,-1 0 0,1 1 0,0 0 0,1-1 1,-1 1-1,1 0 0,-4 11 0,3-4-3,0 1 0,1 0 0,0-1 0,1 1 0,1 13 0,0-25-7,1 1 0,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,1-1-1,3 1-35,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,0 0-1,8-4 1,-10 1 44,0 1-1,0-1 0,0-1 0,-1 1 1,0 0-1,0-1 0,0 0 0,0 0 1,-1 1-1,1-1 0,-1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 0,0 0 1,0-8-1,-1 13 468,1 33-563,0-31 92,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 0 0,1 0 0,2 1 0,0-1-15,0 1-1,0-1 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0-1 1,0 1-1,9-5 1,-4-3-5,0 0 1,0 0 0,-1-2-1,0 1 1,14-22 0,-20 27 27,-3 5 11,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,2 2 0,25 17-62,-20-14 92,-3-2-35,-1-1 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 0 0,0 1 0,0-1 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0-1-1,-1 1 0,1-1 0,-1 0 0,0 0 0,1-1 1,2-2-1,-5 4-12,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,10 32-570,-9-31 421,-1 10-3445,-5-5-4307</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4567.92">694 753 8212,'0'0'12870,"1"-14"-11931,1-43-216,-2 56-695,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-2 0-1,-1 0-15,0 0 1,1 1 0,-1-1 0,0 1-1,1 0 1,-1 0 0,1 0 0,-1 0 0,-3 3-1,3-1-11,-1 0 1,1 1-1,0 0 0,0-1 0,0 2 0,1-1 0,-1 0 0,1 1 0,0 0 0,1-1 1,-1 1-1,1 0 0,-4 11 0,3-4-3,0 1 0,1 0 0,0-1 0,1 1 0,1 13 0,0-25-7,1 1 0,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,1-1-1,3 1-35,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,0 0-1,8-4 1,-10 1 44,0 1-1,0-1 0,0-1 0,-1 1 1,0 0-1,0-1 0,0 0 0,0 0 1,-1 1-1,1-1 0,-1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 0,0 0 1,0-8-1,-1 13 468,1 33-563,0-31 92,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 0 0,1 0 0,2 1 0,0-1-15,0 1-1,0-1 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0-1 1,0 1-1,9-5 1,-4-3-5,0 0 1,0 0 0,-1-2-1,0 1 1,14-22 0,-20 27 27,-3 5 11,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,2 2 0,25 17-62,-20-14 92,-3-2-35,-1-1 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1-1 0,1 0 0,0 1 0,0-1 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0-1-1,-1 1 0,1-1 0,-1 0 0,0 0 0,1-1 1,2-2-1,-5 4-12,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,10 32-570,-9-31 421,-1 10-3445,-5-5-4307</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14266,7 +14266,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">157 270 12710,'0'0'8716,"2"-5"-5944,5-22-2591,-7-74 90,0 76 0,0 73-317,-4 295 156,4-333-109,-1 1 1,1-1-1,-2 0 1,1 0-1,-1 0 1,-1 0-1,-5 15 1,6-22 2,1 1 0,-1-1 1,0 0-1,1-1 0,-1 1 0,-1 0 1,1-1-1,0 1 0,-1-1 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-1 0,-1 1 0,1-1 1,0 0-1,0-1 0,-1 1 1,1 0-1,-1-1 0,1 0 1,-4 0-1,-11 2 66,13-1-42,0-1 1,0 1 0,0-1 0,1 0-1,-1-1 1,0 1 0,0-1-1,-5-1 1,9 2-25,1-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,-1 1 1,1 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,1-1 0,-1 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,1 0 1,-1 0-1,0-1 0,0 1 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,1 0 1,0-1-1,31-15-68,65-22-1,6-3 69,-49 19 60,-53 21-22,13 6-10822,-8 1 3846</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="585.92">626 386 9812,'0'0'12195,"-13"-15"-11344,-42-42-144,52 55-662,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 1 0,1 0-1,0 1 1,0-1 0,-1 0-1,1 1 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,0 2 1,-1-1 0,1 0-1,0 1 1,-3 1 0,1 3-43,0 0 1,0 0-1,0 1 0,1 0 1,0-1-1,0 1 1,1 1-1,0-1 1,0 0-1,1 1 1,-3 11-1,1 2 1,1 0 1,1 0-1,0 24 0,2-44-4,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,2-1 0,1 0-3,-1 0 1,1 1-1,0-1 0,-1-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 0-1,0-1 0,4-3 1,4-10-14,-1-1 0,0 0 0,-1 0 0,-1-1 0,0 0 0,-2-1 0,0 0 0,-1 0 0,5-37 0,-4-13-190,-2-101 1,-5 116 210,1 52 380,0 6-165,-1 21-106,3 39 32,5-16-312,2-1-1,2 0 1,3-1-1,1 0 0,36 74 1,-16-71-3310,-32-46 2737,1 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,6 2 0,19 1-4866</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="585.91">626 386 9812,'0'0'12195,"-13"-15"-11344,-42-42-144,52 55-662,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 1 0,1 0-1,0 1 1,0-1 0,-1 0-1,1 1 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,0 2 1,-1-1 0,1 0-1,0 1 1,-3 1 0,1 3-43,0 0 1,0 0-1,0 1 0,1 0 1,0-1-1,0 1 1,1 1-1,0-1 1,0 0-1,1 1 1,-3 11-1,1 2 1,1 0 1,1 0-1,0 24 0,2-44-4,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,2-1 0,1 0-3,-1 0 1,1 1-1,0-1 0,-1-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 0-1,0-1 0,4-3 1,4-10-14,-1-1 0,0 0 0,-1 0 0,-1-1 0,0 0 0,-2-1 0,0 0 0,-1 0 0,5-37 0,-4-13-190,-2-101 1,-5 116 210,1 52 380,0 6-165,-1 21-106,3 39 32,5-16-312,2-1-1,2 0 1,3-1-1,1 0 0,36 74 1,-16-71-3310,-32-46 2737,1 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,6 2 0,19 1-4866</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1424.27">919 373 6163,'0'0'13601,"-8"-16"-12041,-23-45-268,31 60-1272,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,0 1 1,0 0-1,1-1 0,-1 1 0,0 0 1,0-1-1,1 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-2-4,-5 8 8,2-1 1,-1 0 0,1 1 0,0 0 0,1 0-1,0 0 1,0 0 0,1 0 0,0 0-1,0 0 1,1 1 0,0-1 0,0 0 0,3 14-1,-2-21-26,0 1-1,-1-1 0,1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 1,1 1-1,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,4-1 0,-1 1 2,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,5-7 0,1-8 146,-1 0 0,-1 0 0,-1-1-1,0 0 1,6-29 0,-13 57-136,0 1-1,1 0 1,0 0-1,4 13 1,-5-22-21,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,3-2 0,-3 2 0,0-1-1,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,4-8 110,7 17-151,-9-4 50,0 0 1,0-1 0,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0-1 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,1-1 0,-1 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,1 0-1,-1-1 1,5-1 0,-3-1 4,0 1 0,0-1 1,0 0-1,-1 0 1,0-1-1,1 1 0,-2-1 1,1 0-1,0 0 1,-1 0-1,0-1 0,0 1 1,-1-1-1,1 0 1,-1 1-1,2-11 1,-1-7 68,-1 1 0,-2-36 1,0 48 236,-7 143-365,21 257-1,-11-350 43,1 14 18,2 19 35,-3 0 0,-9 107 0,3-159-18,-1-1 0,-1 0 0,-9 24 1,12-37 15,-1 0 0,0 0 0,0 0 0,-1-1-1,0 1 1,0-1 0,0 0 0,-1 0 0,0 0 0,0-1 0,-10 9 0,14-13-11,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1-1,0 1 1,1 0 0,-1-1 0,0 1 0,0-1 0,1 0-1,-1 0 1,0 1 0,0-1 0,1 0 0,-1 0 0,0-1-1,0 1 1,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0-1,-1 0 1,1-1 0,0 1 0,-1 0 0,1 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,0-4-1,-5-6 1,1-1-1,1 1 0,0-1 1,-3-18-1,7 28-23,-7-32-126,2 1-1,1-1 1,2 0-1,1 0 0,4-39 1,-1 51-200,1 0-1,1 0 1,1 1-1,1-1 1,1 1 0,1 0-1,1 1 1,21-37-1,-10 28-1865,2 1-1,1 1 0,27-26 1,-19 21-3225</inkml:trace>
 </inkml:ink>
 </file>
@@ -14386,7 +14386,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 55 17848,'0'0'7300,"34"58"-7140,-24-21 272,0-1-320,-5 3 32,0-3-64,-1 3-80,-4 0-176,10 3-913,5-6-1952,4-11-6547</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.98">267 227 9108,'0'0'11037,"22"-11"-10839,75-34-57,-93 43-113,0 0 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 1-1,1-1 0,-1 1 0,0 0 0,1 0 0,4 2 0,-7-2-12,0 1 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 1-1,1-1 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,2 4 1,-2 0 65,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,-3 5 0,-7 9 273,0-2 0,-1 1 0,-1-2-1,-1 0 1,-19 16 0,-22 25 608,53-54-905,1-2-22,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0-1,1 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,-1 4-1,3-5-37,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,2-1 0,28-2-323,1-1 1,0-2 0,-1-1-1,35-12 1,18-4-2445,-45 12-1628,-9 0-2182</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.97">267 227 9108,'0'0'11037,"22"-11"-10839,75-34-57,-93 43-113,0 0 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 1-1,1-1 0,-1 1 0,0 0 0,1 0 0,4 2 0,-7-2-12,0 1 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 1-1,1-1 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,2 4 1,-2 0 65,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,-3 5 0,-7 9 273,0-2 0,-1 1 0,-1-2-1,-1 0 1,-19 16 0,-22 25 608,53-54-905,1-2-22,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0-1,1 0 1,0 0 0,-1 1-1,1-1 1,0 0 0,-1 4-1,3-5-37,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,2-1 0,28-2-323,1-1 1,0-2 0,-1-1-1,35-12 1,18-4-2445,-45 12-1628,-9 0-2182</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1534.84">955 30 14711,'0'0'10703,"0"-4"-10289,0 10-428,2 18 64,0-1 0,11 44-1,-7-43 68,-2 0 0,4 47-1,-8-23 157,0-47 41,1-19-151,4 5-199,0 1 0,1 0 0,1 1 0,0-1 0,0 1 0,1 0 0,0 1 0,1 0 0,0 0 0,1 1 0,0 1 0,0-1 0,17-9 0,-26 17 30,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,0 1 1,0 0-1,1-1 0,-1 1 0,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,0 0 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,0 0 0,-1 0 1,1 0-1,-1 1 0,1 1 0,2 8 36,0 1 1,-1-1-1,0 1 0,1 17 0,0-3 121,-1-11-53,-2-10-75,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,7 8 0,-7-12-17,0 1-1,1 0 0,-1-1 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1-1 1,0 1-1,1 0 1,-1 0-1,1-1 1,-1 0-1,1 1 1,-1-1-1,0 0 0,0 0 1,1 0-1,-1-1 1,0 1-1,0 0 1,0-1-1,2-1 1,41-40 124,-38 34-146,-1 0 0,-1 0 1,1 0-1,-2-1 0,1 1 1,-1-1-1,-1-1 0,0 1 1,0 0-1,-1-1 0,0 1 1,-1-1-1,0 0 0,-1 1 1,-1-18-1,1 27 14,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 1,0-1 0,1 1-1,-1 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,-1 0 1,-1 0 0,-1-1-18,0 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1 1 1,-6 0-1,11 1-45,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,1 0 1,-1 0-1,2 2 0,5 0-22,0-1 0,0-1 0,1 1-1,-1-1 1,1-1 0,-1 1-1,12-2 1,-10 1 65,-1 0-1,1 0 1,-1 1-1,18 3 1,-23-3 23,0 0 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0-1,0 0 1,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,3 5-1,0 4 97,0 0 0,-1 0 0,-1 0 0,4 23 0,8 23 325,-15-56-421,1-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 1 0,-1-1 1,1 0-1,0 0 1,0 0-1,0 0 0,-1-1 1,1 1-1,0 0 0,-1-1 1,3 0-1,1 0-24,0-1 0,1 1 0,-1-1-1,0 0 1,0-1 0,-1 1 0,1-1 0,0 0 0,5-4-1,-1-3 12,0 0 0,-1 0 0,0-1 0,0 0-1,-1 0 1,-1-1 0,0 0 0,0 0 0,-1 0-1,-1-1 1,0 0 0,-1 0 0,0 0 0,-1 0-1,-1 0 1,0 0 0,0-1 0,-1 1 0,-4-25-1,4 37 23,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,-1 0 0,1-1-1,0 1 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,-1 1 0,-1 0-14,1 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 3 1,-1 2-14,1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 1,1 0-1,0 0 0,0 0 1,0 0-1,1 0 0,0-1 0,0 1 1,0 0-1,1-1 0,-1 0 0,1 1 1,1-1-1,6 8 0,0-2-25,1-1-1,0 0 1,1-1 0,0 0-1,1 0 1,0-2-1,16 8 1,16 14 27,-44-29 16,-1 1 0,1-1 1,0 1-1,-1-1 1,1 1-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 1,-1 1-1,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1-1-1,0 1 0,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 1,0-1-1,1 0 0,-1 1 1,-1-1-1,-20 10-755,1-1 0,-37 10-1,15-8-4563</inkml:trace>
 </inkml:ink>
 </file>
@@ -14540,7 +14540,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">42 65 10005,'0'0'10330,"-8"0"-8908,5 0-1409,-25-1 1248,25 0-425,21-1-254,42-3 129,53-5-157,-42-4-3329,-73 12 2510,0 0 1,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0-1,-5-1 1,-23-9 856,20 6 562,23 8-210,-8-1-907,0-1 1,0 1-1,0 0 1,0 0 0,0 1-1,-1-1 1,1 1 0,-1 0-1,1 1 1,-1-1 0,0 1-1,-1 0 1,1-1-1,0 2 1,3 5 0,-6-7-11,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,-1 0-1,0 1 1,1-1 0,-1 0-1,-1 1 1,1-1 0,0 1-1,-1-1 1,0 0-1,1 0 1,-1 1 0,-1-1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0-1,-2 2 1,-16 28-543,8-11-4687,7-10-2087</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="603.38">168 630 16247,'0'0'9458,"71"-19"-8588,-16 5-754,39-12-1073,-94 26 944,0 0-1,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 1,-1-1-1,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,-1 0 0,-16-12 95,1 7-136,-18-6 430,31 9-134,19 3-61,-9 0-174,0 1-1,0 0 1,-1 0-1,1 0 1,-1 1-1,0-1 1,1 2-1,-1-1 1,0 1-1,-1 0 1,1 0-1,8 9 1,-12-12-3,-1 1-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,-1 1 0,1-1-1,0 0 1,0 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1-1,0 1 1,-3 1 0,-5 8 727,6-5-2107</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="869.47">667 472 15559,'0'0'5821,"-1"10"-4641,0-6-1120,0 6 325,0 1 0,0-1 1,1 0-1,0 0 1,3 18-1,-2-25-365,-1 0-1,1-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,1 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,0-1 0,3 1-1,-3-1-457,9 0-1662,-6-2-4625</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1047.85">621 576 15239,'0'0'7027,"76"-49"-6963,-52 38-64,-2 0-224,-3 3-2561,-9 1-593,-5 1-1952</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1047.84">621 576 15239,'0'0'7027,"76"-49"-6963,-52 38-64,-2 0-224,-3 3-2561,-9 1-593,-5 1-1952</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1236.83">646 432 5987,'0'0'16839,"31"-51"-16726,-10 43-81,1 4-32,-3 4-97,-4 0-1087,-3 2-2658,-3 9-2753</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1642.47">1037 443 15687,'0'0'4720,"-10"-4"-3125,9 4-1585,-6-3 217,0 1 1,0-1 0,0 1 0,-1 1 0,1-1 0,-14 0 0,19 2-185,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 3 0,0-2-34,-1 0 1,1 0-1,1 0 1,-1 0 0,0 0-1,1 1 1,0-1-1,-1 0 1,1 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1-1 0,1 1-1,5 1 1,11 5-72,0 0 0,1-2 0,29 6 0,-5 0-509,-42-7 1004,-11 0-174,-12 2-38,-53 17 321,63-21-3871,4 0-3638,21-11-343</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1885.16">1303 458 12422,'0'0'9980,"-8"8"-8969,2-1-842,1 1-1,0-1 1,0 1-1,1 0 1,0 0-1,0 0 1,1 0-1,-4 15 1,6-20-151,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 1,-1-1-1,1 1 0,0 0 0,0-1 0,3 2 0,4 0-25,1 1 0,0-2 0,-1 0 0,1 0-1,0-1 1,0 0 0,1 0 0,18-3 0,4-2-2917,51-12 0,-37 4-4239</inkml:trace>
@@ -14573,7 +14573,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2 280 816,'0'0'9778,"0"-6"-7953,-1-16-513,1 12 351,0-1 0,0 1 0,1-1 0,2-11-1,9-9 1418,14 6-3335,2 8 315,1 2 0,0 1 1,1 1-1,0 1 0,1 2 0,0 1 0,1 2 0,0 1 1,59-4-1,-45 9-39,1 1 1,0 2-1,-1 3 1,0 1-1,0 2 1,57 19-1,342 128 167,-273-93 9,-171-62-223,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 1 0,1 1 0,-2-2-53,-1-1 1,1 1-1,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,-1 0 0,1-1 0,-1 1 1,0 0-1,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,0-1 0,-1 1 1,-7 5-2239,-1 0 1,0-2 0,-17 7 0,24-9 1052,-26 9-10851</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="523.12">1308 45 4418,'0'0'18769,"-8"-7"-17849,-33-31 48,265 261-218,-209-209-739,-1 0-1,0 1 1,-1 1-1,18 30 1,-29-43-6,1 0 1,-1 0-1,-1 1 1,1-1-1,0 1 1,-1-1-1,0 1 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,-1 0 1,0 0-1,0-1 1,0 1-1,-1 0 0,1-1 1,-1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,-1 0 0,-5 5 1,-13 8 130,-1-1 0,-1 0 0,0-2 0,-34 14-1,-46 28-259,79-35-1371,12-8-4296</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1176.6">2005 362 8180,'0'0'15682,"-6"-10"-14741,-20-31-383,19 31-198,9 19-309,0 1 0,0-1 0,1 0 0,0 0 0,1-1 0,0 1 0,0-1 0,1 1 0,0-2 0,6 9 0,12 21 135,8 22-262,-2 2-1,28 85 1,-52-125-1310,-5-11-5379</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1176.59">2005 362 8180,'0'0'15682,"-6"-10"-14741,-20-31-383,19 31-198,9 19-309,0 1 0,0-1 0,1 0 0,0 0 0,1-1 0,0 1 0,0-1 0,1 1 0,0-2 0,6 9 0,12 21 135,8 22-262,-2 2-1,28 85 1,-52-125-1310,-5-11-5379</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1406.85">1888 363 12230,'0'0'12357,"5"-64"-12229,29 50-48,10 0 16,5 3-96,-1 9 0,-9 2-16,-4 0-448,-6 5-736,-5 15-881,-4 7-1089,-6 1-800,1 0-2961</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1590.31">2345 446 6995,'0'0'15122,"6"15"-14255,80 189 1409,-57-146-2751,-28-58 205,0 1-1,0 0 1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1-1,-1-1 1,2-2 0,8-22-6530</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1870.82">2419 310 9156,'0'0'13628,"-11"-7"-13223,-34-17-253,33 18 0,19 3-95,-6 3-23,0-1-1,0 1 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 1 0,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1-1 1,3-6 101,-1-29 533,-1 36-659,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 0 0,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,-2 0-1,2 1-49,-1 0-1,0-1 1,1 1-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,0 0 1,-1-1-1,1 1 1,0 3-1,-4 49-2985,4-12-2250,0 2-4250</inkml:trace>
@@ -14607,7 +14607,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2107 838 12710,'1'2'12512,"4"17"-12560,96 366 1593,-94-357-1777,-1 0 1,-1 0-1,-1 1 1,-1 31-1,12-63-5146,-1-13-1535</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="398.92">2458 1130 14823,'0'0'7547,"-2"9"-6922,-10 60 951,12-70-1540,-5-58 316,5 56-316,-1 1 1,1 0 0,-1-1-1,0 1 1,1 0-1,-1 0 1,0-1 0,0 1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,-1 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,0 1-1,0-1 1,0 1 0,-4-2-1,5 5-127,0-1-1,0 0 0,1 1 1,-1-1-1,0 1 0,1-1 1,0 1-1,-1-1 1,1 1-1,0-1 0,0 1 1,-1 0-1,1-1 0,0 1 1,1 1-1,-1-2-197,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,1-1 1,-1 1-1,0 0 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 1 1,1 0-1,19 2-5950</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="398.91">2458 1130 14823,'0'0'7547,"-2"9"-6922,-10 60 951,12-70-1540,-5-58 316,5 56-316,-1 1 1,1 0 0,-1-1-1,0 1 1,1 0-1,-1 0 1,0-1 0,0 1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0-1,-1 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,0 1-1,0-1 1,0 1 0,-4-2-1,5 5-127,0-1-1,0 0 0,1 1 1,-1-1-1,0 1 0,1-1 1,0 1-1,-1-1 1,1 1-1,0-1 0,0 1 1,-1 0-1,1-1 0,0 1 1,1 1-1,-1-2-197,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,1-1 1,-1 1-1,0 0 0,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 1 1,1 0-1,19 2-5950</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="792.98">2861 859 11477,'0'0'12841,"-8"-6"-12244,2 1-542,5 3-30,-1 1-1,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,-4-2 0,5 3-12,0-1 0,0 1-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 1,-1 0 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,1 3-1,-3 7 24,0 0 1,1 0-1,0 0 0,1 0 0,0 0 0,1 0 0,4 21 0,-3-26-32,0 0 0,1 0 0,-1 0-1,1 0 1,1 0 0,-1 0 0,1-1 0,0 0-1,1 0 1,-1 0 0,1 0 0,0-1 0,0 1-1,6 3 1,1-1 10,-1 0 0,1-1-1,19 8 1,29 17 176,-59-30-165,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 0,-1 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,1 0-1,-1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,-1 0 1,0 0-1,-5 5-208,-1-1 0,1 0-1,-1-1 1,0 0-1,0 0 1,-1 0-1,1-1 1,0-1 0,-1 1-1,0-1 1,-11 0-1,19-2-85,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0-1 1,-5-31-10131</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="994.26">2793 737 15143,'0'0'8260,"97"-103"-7700,-48 78-256,0-3-128,-5 3 64,-5 8-112,-15 1-80,-9 4 0,-10 7-48,0 2-144,-5 0-304,-20 3-3922,-9 0-3169</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1668.86">1818 716 6035,'0'0'11875,"5"-6"-10109,-3 4-1736,1 0 267,1-2 0,-1 1 0,0 0 0,0-1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,-1-1 0,1 1 0,-1-6 0,0 4-260,-1 0-1,0 1 1,-1-1-1,1 1 1,-1-1 0,0 1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,-1 0 1,1 1-1,0-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 1-1,-1 0 1,0 0-1,0 0 1,-6-2 0,-11-6-16,-1 1-1,0 1 1,0 2 0,-27-6 0,-10 2 56,0 3 0,0 2 0,-1 3-1,-104 9 1,151-5-19,1 1 0,-1 0 0,1 1 0,0 1 0,-1 0 0,1 1 0,-22 12 0,29-14-239,0 1-1,1 0 0,0 0 1,0 0-1,0 0 1,0 1-1,-6 9 0,8-10-356,1 0 0,0-1 0,0 1 0,0 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,0 1 0,1-1 0,-1 0-1,1 7 1,0 3-6492</inkml:trace>
@@ -14646,7 +14646,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1175.93">178 152 8516,'0'0'9524,"0"-5"-8635,0-5-374,0-1 1,1 1 0,0 0-1,3-12 1,-3 19-499,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,1 1 0,0-1 0,3-1 0,-6 3-37,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 1-1,-1-1 0,0 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,1 1 1,6 22-86,-4 32 345,-3-50-283,0 11 86,-1 0 1,0 0 0,-1-1-1,-1 1 1,-1-1 0,-8 24 0,12-37-46,-1-1 1,0 1-1,1-1 1,0 1 0,-1 0-1,1-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,1 1 1,-1-2-7,0-1 0,1 1-1,-1-1 1,0 1 0,1 0 0,-1-1 0,0 1-1,1-1 1,-1 0 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0 0,0 0-1,0 1 1,3-1-61,0 0 0,0-1-1,0 1 1,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1-1 0,7-3-1,38-19-5238,-24 13 222</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1375.84">444 81 11605,'0'0'5155,"5"14"-11014,-5 3 1025</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1536.46">444 81 6195,'34'128'10084,"-29"-128"-8515,0 0-5170,0 0-2146</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2028.68">581 90 8452,'0'0'7441,"1"6"-7228,4 61 674,1-4 164,-4-51 220,-2-24 818,0-12-2127,-1 13-32,1-1 0,0 1 0,0 0 0,1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,0 1 0,9-19 0,-12 29 63,0-1 0,1 1-1,-1-1 1,0 1 0,1 0 0,-1-1 0,0 1-1,1-1 1,-1 1 0,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 0 0,19 12-91,9 21 290,-23-23-127,0 0 1,0 1-1,-1 0 1,0-1-1,-1 1 0,-1 1 1,1-1-1,-2 1 1,0-1-1,1 13 0,0 37-3433,-3-41-645</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2028.67">581 90 8452,'0'0'7441,"1"6"-7228,4 61 674,1-4 164,-4-51 220,-2-24 818,0-12-2127,-1 13-32,1-1 0,0 1 0,0 0 0,1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,0 1 0,9-19 0,-12 29 63,0-1 0,1 1-1,-1-1 1,0 1 0,1 0 0,-1-1 0,0 1-1,1-1 1,-1 1 0,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,0 0 0,19 12-91,9 21 290,-23-23-127,0 0 1,0 1-1,-1 0 1,0-1-1,-1 1 0,-1 1 1,1-1-1,-2 1 1,0-1-1,1 13 0,0 37-3433,-3-41-645</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2232.14">605 260 11845,'0'0'6163,"63"-53"-6627,-33 42-1233,-1-3-1056,-5 0-3266</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2864.74">821 63 10741,'0'0'7024,"18"25"-6148,-16-18-528,0 1 0,-1 0 0,0 0 1,0-1-1,-1 17 0,0-14 78,0-10 17,1-3-383,0 1 0,0-1-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0-1 0,0 1-1,-1-4 1,0 1-9,1-7-69,0 9 6,-1 0 1,1 1-1,0-1 0,0 0 1,1 0-1,-1 1 0,1-1 1,0 0-1,0 1 0,2-6 1,-3 9-1,1-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1 0 1,-1-1-1,1 1 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 1 0,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 1 0,-1-1 0,1 0 1,-1 1-1,1 0 0,15 13-25,0 24 134,-15-35-83,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,3 3 0,-4-6 18,9-11-208,-1 0 0,-1-1 0,0 0 0,0-1 0,-1 0 0,8-19 0,1-4-78,-15 35 256,-1 1-1,1-1 0,-1 1 1,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 1 1,0-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 1 0,-1-1 1,1 1-1,-1 0 1,27 28 212,-25-26-124,6 7-31,0 0 0,0 1-1,-1 0 1,-1 0 0,0 0-1,0 1 1,-1 0 0,-1 0 0,0 1-1,0-1 1,-2 1 0,1 0-1,0 16 1,-7-9-2503,-17-3-2091</inkml:trace>
 </inkml:ink>
@@ -14678,7 +14678,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">108 30 3890,'0'0'16242,"-5"-25"-12761,3 24-3470,-1 0 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 1 0,1-1-1,-1 1 1,0 0 0,1 0-1,-1-1 1,1 2 0,-1-1-1,1 0 1,0 0 0,-3 2 0,2 1-15,0-1 1,0 0 0,0 1 0,0-1-1,1 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 8 0,-2 9-26,2 1 0,0 0 1,1 1-1,2 22 0,0-38 43,0 0-32,0 1 0,0-1-1,1 1 1,0-1 0,0 1-1,1-1 1,0 1-1,0-1 1,1 0 0,3 7-1,-3-11-29,-1 0-1,0 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,-1-1 1,1 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0-1 1,-1 1-1,1-1 0,0 0 0,-1 1 1,5-2-1,-3 1-69,0 1 0,-1-2 1,1 1-1,-1 0 0,1-1 0,-1 0 0,1 0 1,7-3-1,-11 3 131,1 0 1,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,0 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 0 1,0 0-1,0-2 1,-1 3 10,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-2 0 0,-36 0 130,29 1-140,5-1-349,-20 1 920,15 4-2261,6 5-3642</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="645">372 96 11989,'0'0'6046,"0"14"-5838,0 115 407,0-62 90,0-51-107,0-17 221,0-32-859,3 0 0,1 0 0,1 0 0,1 0 0,19-50 0,-25 81 45,0 0-1,1 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,1-1-1,-1 1 1,0 0 0,1 0-1,2-2 1,-3 3-1,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 2 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,1 1 0,3 2 36,-1 0 0,1 1-1,-1 0 1,0 0 0,0 0 0,-1 0 0,6 12 0,1 4 98,-2 1-1,-1 0 1,-1 0 0,0 1-1,-2 0 1,-1 0-1,1 29 1,-2 40-2514,-4-78-1388,-6-7-1396</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="836.35">352 281 11685,'0'0'7572,"78"-44"-8260,-44 35-1249,5-2-785,-5 3-4257</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="836.34">352 281 11685,'0'0'7572,"78"-44"-8260,-44 35-1249,5-2-785,-5 3-4257</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1425.08">722 142 5683,'0'0'13016,"5"8"-11959,5 13-183,-1 1 0,-2 0 0,9 40 0,-14-55-753,6-17 177,0-6-356,-5 5 34,-1 3 28,0 1 1,0-1-1,0 1 0,1 0 1,1 0-1,-1 0 1,1 1-1,0-1 1,0 1-1,11-11 0,-15 17-20,1-1 0,0 2 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1 0 0,11 17 23,-12-18-8,49 113 668,-49-112-660,1-1 1,-1 0-1,0 1 0,1-1 1,-1 1-1,1-1 0,0 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,1-1-1,0 1 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,-1-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 0,0-2 1,24-29 102,-20 25 2,85-118 240,-88 124-366,-1-1 0,1 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,1 0 0,0 2 3,1-1 1,-1 0-1,0 1 1,0 0 0,1-1-1,-1 1 1,0 0 0,-1 0-1,1 0 1,2 3 0,5 8 118,-1 0 1,11 25-1,-16-33-37,2 7 29,1 3 122,1-1 1,1 0-1,16 24 1,-23-36-219,1 0 0,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,3 0 0,-3-1-33,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1-1 0,10-25-1967,-9 7-2398,-2-4-7310</inkml:trace>
 </inkml:ink>
 </file>
@@ -14710,7 +14710,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">7 231 288,'0'0'13598,"-5"-50"-6317,4 84-5747,2 31-1531,3-36 81,-1-6 79,1-1 0,0 1 0,15 40 0,-18-56 989,-1-4-4036</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="636.19">188 244 8628,'0'0'9575,"0"-13"-8487,0-40-543,0 49-497,0 1 0,1-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 1,1 1-1,0-1 0,-1 1 0,1 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,4-3 0,-2 2 41,1 0-1,-1 1 1,1 0-1,0-1 1,-1 2-1,1-1 1,1 1-1,9-3 1,-14 5-81,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1 0,-1 0-1,0 0 1,1 0-1,-1 0 1,2 1-1,-1 1 5,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 8 1,1 7 33,-1 1 0,-1 0 0,-1 23 0,-1-25 10,0-7-30,-1 1 0,0-1 0,0 0 0,-1 0-1,-1 0 1,0 0 0,0 0 0,-1-1 0,0 0-1,-1 0 1,0 0 0,0-1 0,-13 14 0,-18 27 173,37-49-187,0 1 1,-1-1-1,1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,1 0-1,22 2 107,29-11-111,-5-6-496,65-32 0,-60 20-3414,-6-3-4591,-31 16 2642</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1321.1">636 128 576,'0'0'9557,"0"-22"3056,1 47-12254,2-1-1,1 1 0,12 43 0,-9-44-184,-1-1 0,-2 1 0,4 46 0,-8-70 40,-1-29-1,-13-263-858,14 290 624,-1-1-1,1 1 1,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,3 0 0,-4 0 17,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 0 0,0 3 0,2 37 25,-2-37-23,-1 4 15,0 0 1,0 0-1,-1-1 0,0 1 0,0 0 0,-1-1 1,1 0-1,-2 0 0,1 0 0,-1 0 0,0 0 1,-1 0-1,1-1 0,-1 0 0,-1 0 1,1-1-1,-1 1 0,0-1 0,0 0 0,-9 5 1,2 2-1973</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2004.17">1011 64 8228,'0'0'13355,"0"-6"-12290,15 234 1504,-15-228-2444,0-16-15,-1-16-111,3-64-178,-1 87 156,0 1 1,1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,1 0 0,6-13 0,-9 20 13,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,1 1-1,-1 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 0,0 1 1,2 1-1,31 24-15,43 82 91,-76-107-69,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1-1,0-2 1,18-28-67,-15 25 60,13-25-24,-10 16-40,1 0-1,0 1 0,1 0 0,1 1 0,0 0 0,11-11 0,-19 22 64,-1 1-1,1-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,1 1 0,16 19-68,6 37 169,-22-51-88,86 271 1311,-85-265-1228,1 3-425,-2-10-5138,-10-5-608</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2004.16">1011 64 8228,'0'0'13355,"0"-6"-12290,15 234 1504,-15-228-2444,0-16-15,-1-16-111,3-64-178,-1 87 156,0 1 1,1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,1 0 0,6-13 0,-9 20 13,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,1 1-1,-1 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 0,0 1 1,2 1-1,31 24-15,43 82 91,-76-107-69,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1-1,0-2 1,18-28-67,-15 25 60,13-25-24,-10 16-40,1 0-1,0 1 0,1 0 0,1 1 0,0 0 0,11-11 0,-19 22 64,-1 1-1,1-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,1 1 0,16 19-68,6 37 169,-22-51-88,86 271 1311,-85-265-1228,1 3-425,-2-10-5138,-10-5-608</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14799,7 +14799,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">180 363 10501,'0'0'10271,"-3"-10"-9217,2 1-766,1 6-201,0-1 1,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,0 0 0,-2-3-1,3 5-15,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 0,-1 0 0,-1 1 1,0 0-45,0 0 1,0 0 0,0 0-1,0 0 1,0 1-1,1-1 1,-1 1 0,0 0-1,1 0 1,-4 3 0,-3 4-53,0 1 0,1 0 0,0 1 0,-7 12 0,7-10 34,1 0 0,0 1 0,-6 21 0,11-30-22,0 0 1,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,2 5 0,-2-9-2,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,4-2 0,-2 2 9,-1 0-1,0 0 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 1,-1 0-1,1 0 1,0 1-1,-1-2 1,1 1-1,-1 0 1,3-4-1,-1-3 26,0 0 0,-1 0-1,0-1 1,-1 0 0,0 1 0,0-1 0,0-15 0,-2 21-12,1-1 0,-1 0 1,-1 0-1,1 0 1,-1 1-1,0-1 0,0 0 1,0 1-1,-1-1 1,1 1-1,-1-1 0,0 1 1,0 0-1,-1-1 1,1 1-1,-7-6 0,-11-15 115,9 17 90,8 12-2340,3 28-6518,0-17 1577</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371.18">277 399 9732,'0'0'9568,"1"0"-9340,0 0 1,0 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,1-1 0,0 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,-1 1 1,2-2-1,-2-23 207,0 36-7534,0 3 419</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.92">264 399 5426</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.91">264 399 5426</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="900.91">277 399 5426,'122'-94'7991,"-95"68"-3841,-27 16-2111,0 10-2005,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,2-1 66,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,1 1 1,-1-1-1,8 0 0,-10 1-75,1 1-1,-1-1 1,0 1 0,0 0-1,1-1 1,-1 1 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0-1,2 2 1,1 9 62,0 0 0,-1 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,-2 22 0,1-29-75,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 1,-1 0-1,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 1,-1 0-1,0 0 0,0-1 0,-8 5 0,12-7-9,-1 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 1,1-1-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 1,-1 0-1,1-28-307,1 18 226,3 9 79,0 1-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,1 0-1,-1 0 1,8 1-1,-10 0 33,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 1 0,1 2 0,7 16-1704,5-6-4914</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1257.58">659 262 4466,'0'0'16341,"-1"-1"-16315,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,-1 1 1,0 0-1,0-1 0,1 1 0,-1 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 0,-1 0 0,2 5 17,0 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,1 0 0,-1 0 0,1-1 0,0 1-1,0 0 1,0-1 0,1 0 0,-1 1-1,1-1 1,0 0 0,1-1 0,-1 1 0,1 0-1,-1-1 1,1 0 0,0 0 0,0 0 0,0 0-1,1-1 1,7 4 0,14 15 770,-16-8-1483,-10-13 564,0 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,-13 0-4851</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1384.12">672 262 12374</inkml:trace>
@@ -14866,7 +14866,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">100 381 12118,'0'0'9396,"-7"-6"-8564,-19-18-173,26 23-617,-1 1 0,0-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,-13 24-201,13-23 288,-3 7-100,-1 1 0,2 0 1,-1-1-1,1 1 0,1 0 1,0 1-1,0-1 0,1 0 1,0 1-1,1-1 0,0 1 1,3 14-1,-2-23-30,0-1-1,0 1 1,0-1-1,1 1 0,-1-1 1,0 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1-1 1,0 1-1,-1 0 1,1 0-1,0-1 0,0 1 1,-1-1-1,1 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,1-1 0,47 0-44,-46 0 49,0 0 1,0 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,0 0-1,0 1 1,0-1-1,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 1,0-1-1,0 0 0,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1-4 1,0 3 1,-1 0 0,1 0 0,-1 0 1,0 0-1,-1 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,0 0 0,-1 1 1,0-1-1,0 0 0,0 1 0,0 0 1,-1-1-1,1 1 0,-1 0 0,0 0 1,-1 1-1,1-1 0,0 1 0,-7-5 1,5 5-6,-1 0 1,1 0 0,-1 1 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1-1,0 2 1,0-1 0,0 1 0,0 0-1,-11 1 1,16 0-81,0 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 1,0 3-1,2 29-3170,5-16-1081,10 0-1444</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="382.58">337 451 11909,'0'0'7945,"0"6"-7278,0-4-562,3 37 918,-3-38-990,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 0 0,0 1 0,-1-1 69,8-31 666,-8-16 401,-1 47-788,-15 28-986,9-1-1947,8-19-5859</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="784.61">795 261 12966,'0'0'7566,"-18"0"-6467,-56 0-389,72 0-676,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 3 0,1-1-7,-1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,2 3 0,1-2-17,0-1 0,0 1 0,1-1 0,-1 0-1,2 0 1,-1-1 0,0 1 0,1-1 0,0 0 0,0-1-1,9 5 1,71 30 40,36 1 292,-121-39-305,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1-1,-1 1 1,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 1 0,-1 0 5,0-1 1,0 1 0,0 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 0-1,-1 1 1,0-1 0,-3 2-1,-55 29 46,58-31-56,-10 4-127,5-2-244,-1 1-1,0-1 0,0 0 1,0 0-1,0-1 0,0 0 1,-14 0-1,13-3-2973,3-9-2848</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1069.12">736 240 15591,'0'0'9634,"5"-9"-9418,2-1-198,0 0 1,1 1-1,0 0 1,0 0-1,1 1 1,0 0-1,0 0 1,1 1-1,10-6 1,111-58 111,-85 48-117,56-23-24,-116 58-10631,-5 1 2377</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1069.11">736 240 15591,'0'0'9634,"5"-9"-9418,2-1-198,0 0 1,1 1-1,0 0 1,0 0-1,1 1 1,0 0-1,0 0 1,1 1-1,10-6 1,111-58 111,-85 48-117,56-23-24,-116 58-10631,-5 1 2377</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15322,7 +15322,7 @@
     <row r="24" spans="2:3">
       <c r="B24" s="2">
         <f ca="1">TODAY()</f>
-        <v>45648</v>
+        <v>45654</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -15395,7 +15395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011787EA-1D3A-4B76-9C4D-A60E32DC6BCC}">
   <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -15531,8 +15531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E59BB66-6A66-43DB-8F20-98DD433C2573}">
   <dimension ref="B2:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15640,7 +15640,7 @@
       </c>
       <c r="C48" s="2">
         <f ca="1">TODAY()</f>
-        <v>45648</v>
+        <v>45654</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="C49" s="4">
         <f ca="1">NOW()</f>
-        <v>45648.955595601852</v>
+        <v>45654.839559722219</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -15942,7 +15942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5EFD93-1C26-4799-A1AF-BC3AE7BBACF6}">
   <dimension ref="B2:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -17321,7 +17321,7 @@
     <row r="74" spans="3:4">
       <c r="C74" s="2">
         <f ca="1">TODAY()</f>
-        <v>45648</v>
+        <v>45654</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>278</v>
@@ -17330,7 +17330,7 @@
     <row r="76" spans="3:4">
       <c r="C76" s="2">
         <f ca="1">TODAY()</f>
-        <v>45648</v>
+        <v>45654</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>278</v>
